--- a/LOCATION SHEETS/1840sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1840sLOCATIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/rainfall-rescue/LOCATION SHEETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA60333C-D581-0249-A14B-4EF5560F57B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D413F21-AFE2-FB4A-BF7C-785D686D8AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="460" windowWidth="22520" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1840sLOCATIONS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="1055">
   <si>
     <t>LOCATIONS IN 1840s</t>
   </si>
@@ -2271,9 +2271,6 @@
     <t>TIRRIL</t>
   </si>
   <si>
-    <t>Swansea , 50 Winch Street</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -3259,6 +3256,63 @@
   </si>
   <si>
     <t>RR196</t>
+  </si>
+  <si>
+    <t>5545/8</t>
+  </si>
+  <si>
+    <t>RR207</t>
+  </si>
+  <si>
+    <t>RR208</t>
+  </si>
+  <si>
+    <t>RR209</t>
+  </si>
+  <si>
+    <t>RR210</t>
+  </si>
+  <si>
+    <t>RR212</t>
+  </si>
+  <si>
+    <t>RR217</t>
+  </si>
+  <si>
+    <t>RR213</t>
+  </si>
+  <si>
+    <t>RR219</t>
+  </si>
+  <si>
+    <t>RR220</t>
+  </si>
+  <si>
+    <t>RR223</t>
+  </si>
+  <si>
+    <t>RR226</t>
+  </si>
+  <si>
+    <t>Swansea , 50 Wind Street</t>
+  </si>
+  <si>
+    <t>RR228</t>
+  </si>
+  <si>
+    <t>RR229</t>
+  </si>
+  <si>
+    <t>RR232</t>
+  </si>
+  <si>
+    <t>3391</t>
+  </si>
+  <si>
+    <t>RR236</t>
+  </si>
+  <si>
+    <t>RR238</t>
   </si>
 </sst>
 </file>
@@ -3932,8 +3986,8 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H420" sqref="H420"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4509,7 +4563,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I26" s="25"/>
     </row>
@@ -4621,7 +4675,12 @@
         <v>49</v>
       </c>
       <c r="E32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="82" t="s">
+        <v>1044</v>
+      </c>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
@@ -4636,7 +4695,12 @@
         <v>50</v>
       </c>
       <c r="E33" s="23"/>
-      <c r="G33" s="24"/>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="82" t="s">
+        <v>1044</v>
+      </c>
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
@@ -4666,7 +4730,12 @@
         <v>52</v>
       </c>
       <c r="E35" s="23"/>
-      <c r="G35" s="24"/>
+      <c r="F35" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="82" t="s">
+        <v>1054</v>
+      </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
@@ -5340,7 +5409,12 @@
         <v>108</v>
       </c>
       <c r="E72" s="23"/>
-      <c r="G72" s="24"/>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="82" t="s">
+        <v>1037</v>
+      </c>
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:10" ht="13">
@@ -5546,7 +5620,7 @@
         <v>122</v>
       </c>
       <c r="G83" s="82" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>123</v>
@@ -5575,7 +5649,7 @@
       </c>
       <c r="G84" s="24"/>
       <c r="H84" s="79" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I84" s="25"/>
     </row>
@@ -6003,7 +6077,7 @@
         <v>136</v>
       </c>
       <c r="G105" s="82" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H105" s="26" t="s">
         <v>162</v>
@@ -6232,7 +6306,12 @@
       <c r="E118" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="G118" s="24"/>
+      <c r="F118" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="82" t="s">
+        <v>1051</v>
+      </c>
       <c r="I118" s="25"/>
     </row>
     <row r="119" spans="1:10" ht="13">
@@ -7284,7 +7363,7 @@
         <v>293</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>294</v>
@@ -7293,7 +7372,7 @@
         <v>31</v>
       </c>
       <c r="G165" s="82" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I165" s="25"/>
     </row>
@@ -7397,7 +7476,9 @@
       <c r="F170" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="G170" s="24"/>
+      <c r="G170" s="82" t="s">
+        <v>1047</v>
+      </c>
       <c r="I170" s="25"/>
       <c r="J170" s="26" t="s">
         <v>306</v>
@@ -8972,7 +9053,12 @@
         <v>483</v>
       </c>
       <c r="E241" s="23"/>
-      <c r="G241" s="24"/>
+      <c r="F241" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G241" s="82" t="s">
+        <v>1040</v>
+      </c>
       <c r="I241" s="25"/>
     </row>
     <row r="242" spans="1:10" ht="13">
@@ -9178,7 +9264,9 @@
       <c r="F250" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G250" s="24"/>
+      <c r="G250" s="82" t="s">
+        <v>1041</v>
+      </c>
       <c r="H250" s="26" t="s">
         <v>501</v>
       </c>
@@ -10074,7 +10162,9 @@
       <c r="F292" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G292" s="24"/>
+      <c r="G292" s="82" t="s">
+        <v>1042</v>
+      </c>
       <c r="H292" s="26" t="s">
         <v>578</v>
       </c>
@@ -10092,7 +10182,12 @@
         <v>579</v>
       </c>
       <c r="E293" s="23"/>
-      <c r="G293" s="24"/>
+      <c r="F293" t="s">
+        <v>31</v>
+      </c>
+      <c r="G293" s="82" t="s">
+        <v>1043</v>
+      </c>
       <c r="I293" s="25"/>
     </row>
     <row r="294" spans="1:10" ht="13">
@@ -10167,7 +10262,12 @@
         <v>587</v>
       </c>
       <c r="E297" s="23"/>
-      <c r="G297" s="24"/>
+      <c r="F297" t="s">
+        <v>31</v>
+      </c>
+      <c r="G297" s="82" t="s">
+        <v>1052</v>
+      </c>
       <c r="I297" s="25"/>
     </row>
     <row r="298" spans="1:10" ht="13">
@@ -10182,7 +10282,12 @@
         <v>588</v>
       </c>
       <c r="E298" s="23"/>
-      <c r="G298" s="24"/>
+      <c r="F298" t="s">
+        <v>31</v>
+      </c>
+      <c r="G298" s="82" t="s">
+        <v>1052</v>
+      </c>
       <c r="I298" s="25"/>
     </row>
     <row r="299" spans="1:10" ht="15">
@@ -10352,7 +10457,7 @@
         <v>31</v>
       </c>
       <c r="G306" s="82" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I306" s="25"/>
     </row>
@@ -10548,7 +10653,7 @@
         <v>31</v>
       </c>
       <c r="G317" s="82" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I317" s="25"/>
     </row>
@@ -10671,7 +10776,9 @@
       <c r="F324" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G324" s="24"/>
+      <c r="G324" s="82" t="s">
+        <v>1046</v>
+      </c>
       <c r="H324" s="26" t="s">
         <v>626</v>
       </c>
@@ -11452,7 +11559,12 @@
         <v>690</v>
       </c>
       <c r="E363" s="23"/>
-      <c r="G363" s="24"/>
+      <c r="F363" t="s">
+        <v>31</v>
+      </c>
+      <c r="G363" s="82" t="s">
+        <v>1039</v>
+      </c>
       <c r="I363" s="25"/>
     </row>
     <row r="364" spans="1:10" ht="13">
@@ -11819,9 +11931,11 @@
       <c r="F382" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G382" s="24"/>
-      <c r="H382" s="26" t="s">
-        <v>721</v>
+      <c r="G382" s="82" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H382" s="79" t="s">
+        <v>1048</v>
       </c>
       <c r="I382" s="25"/>
     </row>
@@ -11833,10 +11947,10 @@
         <v>17</v>
       </c>
       <c r="C383" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="D383" s="21" t="s">
         <v>722</v>
-      </c>
-      <c r="D383" s="21" t="s">
-        <v>723</v>
       </c>
       <c r="E383" s="23"/>
       <c r="G383" s="24"/>
@@ -11851,7 +11965,7 @@
       </c>
       <c r="C384" s="23"/>
       <c r="D384" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E384" s="23"/>
       <c r="G384" s="24"/>
@@ -11866,7 +11980,7 @@
       </c>
       <c r="C385" s="23"/>
       <c r="D385" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E385" s="23"/>
       <c r="G385" s="24"/>
@@ -11891,7 +12005,7 @@
       </c>
       <c r="G386" s="24"/>
       <c r="H386" s="26" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I386" s="25"/>
     </row>
@@ -11906,14 +12020,14 @@
         <v>334</v>
       </c>
       <c r="D387" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E387" s="23"/>
       <c r="F387" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G387" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I387" s="25"/>
     </row>
@@ -11928,7 +12042,7 @@
         <v>534</v>
       </c>
       <c r="D388" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E388" s="23"/>
       <c r="G388" s="24"/>
@@ -11942,10 +12056,10 @@
         <v>24</v>
       </c>
       <c r="C389" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="D389" s="21" t="s">
         <v>730</v>
-      </c>
-      <c r="D389" s="21" t="s">
-        <v>731</v>
       </c>
       <c r="E389" s="23"/>
       <c r="F389" s="26" t="s">
@@ -11954,7 +12068,7 @@
       <c r="G389" s="24"/>
       <c r="I389" s="25"/>
       <c r="J389" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="390" spans="1:10" ht="13">
@@ -11976,7 +12090,7 @@
       </c>
       <c r="G390" s="24"/>
       <c r="H390" s="26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I390" s="25"/>
     </row>
@@ -11989,14 +12103,14 @@
       </c>
       <c r="C391" s="23"/>
       <c r="D391" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E391" s="23"/>
       <c r="F391" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G391" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I391" s="25"/>
       <c r="J391" s="41" t="s">
@@ -12012,14 +12126,14 @@
       </c>
       <c r="C392" s="23"/>
       <c r="D392" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E392" s="23"/>
       <c r="F392" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G392" s="57" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I392" s="25"/>
       <c r="J392" s="41" t="s">
@@ -12034,10 +12148,10 @@
         <v>28</v>
       </c>
       <c r="C393" s="29" t="s">
+        <v>737</v>
+      </c>
+      <c r="D393" s="21" t="s">
         <v>738</v>
-      </c>
-      <c r="D393" s="21" t="s">
-        <v>739</v>
       </c>
       <c r="E393" s="23"/>
       <c r="G393" s="24"/>
@@ -12052,7 +12166,7 @@
       </c>
       <c r="C394" s="23"/>
       <c r="D394" s="21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E394" s="23"/>
       <c r="G394" s="24"/>
@@ -12067,7 +12181,7 @@
       </c>
       <c r="C395" s="23"/>
       <c r="D395" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E395" s="23"/>
       <c r="G395" s="24"/>
@@ -12084,7 +12198,7 @@
         <v>337</v>
       </c>
       <c r="D396" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E396" s="23"/>
       <c r="G396" s="24"/>
@@ -12092,14 +12206,14 @@
     </row>
     <row r="397" spans="1:10" ht="13">
       <c r="A397" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B397" s="22">
         <v>1</v>
       </c>
       <c r="C397" s="23"/>
       <c r="D397" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E397" s="28" t="s">
         <v>177</v>
@@ -12108,60 +12222,60 @@
         <v>145</v>
       </c>
       <c r="G397" s="35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I397" s="25"/>
     </row>
     <row r="398" spans="1:10" ht="13">
       <c r="A398" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B398" s="22">
         <v>2</v>
       </c>
       <c r="C398" s="23"/>
       <c r="D398" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E398" s="23"/>
       <c r="F398" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G398" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I398" s="25"/>
     </row>
     <row r="399" spans="1:10" ht="13">
       <c r="A399" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B399" s="22">
         <v>3</v>
       </c>
       <c r="C399" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="D399" s="21" t="s">
         <v>747</v>
-      </c>
-      <c r="D399" s="21" t="s">
-        <v>748</v>
       </c>
       <c r="E399" s="23"/>
       <c r="F399" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="G399" s="27" t="s">
         <v>749</v>
       </c>
-      <c r="G399" s="27" t="s">
+      <c r="I399" s="30" t="s">
         <v>750</v>
       </c>
-      <c r="I399" s="30" t="s">
+      <c r="J399" s="26" t="s">
         <v>751</v>
-      </c>
-      <c r="J399" s="26" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="400" spans="1:10" ht="15">
       <c r="A400" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B400" s="22">
         <v>4</v>
@@ -12170,7 +12284,7 @@
         <v>716</v>
       </c>
       <c r="D400" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E400" s="23"/>
       <c r="F400" s="26" t="s">
@@ -12179,19 +12293,19 @@
       <c r="G400" s="24"/>
       <c r="I400" s="25"/>
       <c r="J400" s="52" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="401" spans="1:10" ht="13">
       <c r="A401" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B401" s="22">
         <v>5</v>
       </c>
       <c r="C401" s="23"/>
       <c r="D401" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E401" s="28" t="s">
         <v>181</v>
@@ -12200,23 +12314,23 @@
         <v>145</v>
       </c>
       <c r="G401" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I401" s="25"/>
       <c r="J401" s="26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="402" spans="1:10" ht="13">
       <c r="A402" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B402" s="22">
         <v>6</v>
       </c>
       <c r="C402" s="23"/>
       <c r="D402" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E402" s="23"/>
       <c r="G402" s="24"/>
@@ -12224,16 +12338,16 @@
     </row>
     <row r="403" spans="1:10" ht="13">
       <c r="A403" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B403" s="22">
         <v>7</v>
       </c>
       <c r="C403" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="D403" s="21" t="s">
         <v>759</v>
-      </c>
-      <c r="D403" s="21" t="s">
-        <v>760</v>
       </c>
       <c r="E403" s="23"/>
       <c r="G403" s="24"/>
@@ -12241,7 +12355,7 @@
     </row>
     <row r="404" spans="1:10" ht="13">
       <c r="A404" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B404" s="22">
         <v>8</v>
@@ -12252,28 +12366,28 @@
       </c>
       <c r="E404" s="23"/>
       <c r="F404" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G404" s="24"/>
       <c r="H404" s="51" t="s">
+        <v>760</v>
+      </c>
+      <c r="I404" s="59" t="s">
         <v>761</v>
       </c>
-      <c r="I404" s="59" t="s">
+      <c r="J404" s="26" t="s">
         <v>762</v>
-      </c>
-      <c r="J404" s="26" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="405" spans="1:10" ht="13">
       <c r="A405" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B405" s="22">
         <v>9</v>
       </c>
       <c r="C405" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D405" s="21" t="s">
         <v>20</v>
@@ -12282,31 +12396,31 @@
         <v>95</v>
       </c>
       <c r="F405" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G405" s="24"/>
       <c r="H405" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="I405" s="59" t="s">
         <v>765</v>
       </c>
-      <c r="I405" s="59" t="s">
+      <c r="J405" s="26" t="s">
         <v>766</v>
-      </c>
-      <c r="J405" s="26" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="406" spans="1:10" ht="13">
       <c r="A406" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B406" s="22">
         <v>10</v>
       </c>
       <c r="C406" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="D406" s="21" t="s">
         <v>768</v>
-      </c>
-      <c r="D406" s="21" t="s">
-        <v>769</v>
       </c>
       <c r="E406" s="23"/>
       <c r="G406" s="24"/>
@@ -12314,13 +12428,13 @@
     </row>
     <row r="407" spans="1:10" ht="13">
       <c r="A407" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B407" s="22">
         <v>11</v>
       </c>
       <c r="C407" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D407" s="21" t="s">
         <v>20</v>
@@ -12331,22 +12445,22 @@
       </c>
       <c r="G407" s="24"/>
       <c r="H407" s="26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I407" s="25"/>
     </row>
     <row r="408" spans="1:10" ht="13">
       <c r="A408" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B408" s="22">
         <v>12</v>
       </c>
       <c r="C408" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="D408" s="21" t="s">
         <v>772</v>
-      </c>
-      <c r="D408" s="21" t="s">
-        <v>773</v>
       </c>
       <c r="E408" s="23"/>
       <c r="G408" s="24"/>
@@ -12354,7 +12468,7 @@
     </row>
     <row r="409" spans="1:10" ht="15">
       <c r="A409" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B409" s="22">
         <v>13</v>
@@ -12369,13 +12483,13 @@
       </c>
       <c r="G409" s="24"/>
       <c r="H409" s="52" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I409" s="25"/>
     </row>
     <row r="410" spans="1:10" ht="15">
       <c r="A410" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B410" s="22">
         <v>14</v>
@@ -12390,19 +12504,19 @@
       </c>
       <c r="G410" s="24"/>
       <c r="H410" s="52" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I410" s="25"/>
     </row>
     <row r="411" spans="1:10" ht="15">
       <c r="A411" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B411" s="22">
         <v>15</v>
       </c>
       <c r="C411" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D411" s="21" t="s">
         <v>20</v>
@@ -12413,13 +12527,13 @@
       </c>
       <c r="G411" s="24"/>
       <c r="H411" s="52" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I411" s="25"/>
     </row>
     <row r="412" spans="1:10" ht="13">
       <c r="A412" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B412" s="22">
         <v>16</v>
@@ -12434,20 +12548,20 @@
       </c>
       <c r="G412" s="24"/>
       <c r="H412" s="51" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I412" s="25"/>
     </row>
     <row r="413" spans="1:10" ht="13">
       <c r="A413" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B413" s="22">
         <v>17</v>
       </c>
       <c r="C413" s="23"/>
       <c r="D413" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E413" s="23"/>
       <c r="G413" s="24"/>
@@ -12455,7 +12569,7 @@
     </row>
     <row r="414" spans="1:10" ht="15">
       <c r="A414" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B414" s="22">
         <v>18</v>
@@ -12469,23 +12583,23 @@
         <v>145</v>
       </c>
       <c r="G414" s="43" t="s">
+        <v>779</v>
+      </c>
+      <c r="H414" s="51" t="s">
         <v>780</v>
-      </c>
-      <c r="H414" s="51" t="s">
-        <v>781</v>
       </c>
       <c r="I414" s="25"/>
     </row>
     <row r="415" spans="1:10" ht="13">
       <c r="A415" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B415" s="22">
         <v>19</v>
       </c>
       <c r="C415" s="23"/>
       <c r="D415" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E415" s="23"/>
       <c r="G415" s="24"/>
@@ -12493,14 +12607,14 @@
     </row>
     <row r="416" spans="1:10" ht="13">
       <c r="A416" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B416" s="22">
         <v>20</v>
       </c>
       <c r="C416" s="23"/>
       <c r="D416" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E416" s="23"/>
       <c r="F416" s="26" t="s">
@@ -12508,16 +12622,16 @@
       </c>
       <c r="G416" s="24"/>
       <c r="H416" s="26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I416" s="25"/>
       <c r="J416" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="417" spans="1:10" ht="14">
       <c r="A417" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B417" s="22">
         <v>21</v>
@@ -12530,45 +12644,45 @@
       </c>
       <c r="E417" s="23"/>
       <c r="F417" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G417" s="24"/>
       <c r="H417" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="I417" s="59" t="s">
         <v>786</v>
       </c>
-      <c r="I417" s="59" t="s">
+      <c r="J417" s="26" t="s">
         <v>787</v>
-      </c>
-      <c r="J417" s="26" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="418" spans="1:10" ht="15">
       <c r="A418" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B418" s="22">
         <v>22</v>
       </c>
       <c r="C418" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="D418" s="21" t="s">
         <v>789</v>
-      </c>
-      <c r="D418" s="21" t="s">
-        <v>790</v>
       </c>
       <c r="E418" s="23"/>
       <c r="F418" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G418" s="43" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H418" s="62"/>
       <c r="I418" s="25"/>
     </row>
     <row r="419" spans="1:10" ht="13">
       <c r="A419" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B419" s="22">
         <v>23</v>
@@ -12577,43 +12691,43 @@
         <v>84</v>
       </c>
       <c r="D419" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E419" s="23"/>
       <c r="F419" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="G419" s="82" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I419" s="59" t="s">
         <v>793</v>
       </c>
-      <c r="G419" s="82" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I419" s="59" t="s">
+      <c r="J419" s="26" t="s">
         <v>794</v>
-      </c>
-      <c r="J419" s="26" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="420" spans="1:10" ht="13">
       <c r="A420" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B420" s="22">
         <v>24</v>
       </c>
       <c r="C420" s="23"/>
       <c r="D420" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E420" s="23"/>
       <c r="G420" s="24"/>
       <c r="I420" s="25"/>
       <c r="J420" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="421" spans="1:10" ht="13">
       <c r="A421" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B421" s="22">
         <v>25</v>
@@ -12628,23 +12742,23 @@
       </c>
       <c r="G421" s="24"/>
       <c r="H421" s="26" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I421" s="25"/>
       <c r="J421" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="422" spans="1:10" ht="13">
       <c r="A422" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B422" s="22">
         <v>26</v>
       </c>
       <c r="C422" s="23"/>
       <c r="D422" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E422" s="23"/>
       <c r="G422" s="24"/>
@@ -12652,14 +12766,14 @@
     </row>
     <row r="423" spans="1:10" ht="13">
       <c r="A423" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B423" s="22">
         <v>27</v>
       </c>
       <c r="C423" s="23"/>
       <c r="D423" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E423" s="23"/>
       <c r="G423" s="24"/>
@@ -12667,33 +12781,33 @@
     </row>
     <row r="424" spans="1:10" ht="13">
       <c r="A424" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B424" s="22">
         <v>28</v>
       </c>
       <c r="C424" s="23"/>
       <c r="D424" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E424" s="23"/>
       <c r="F424" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G424" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="H424" s="32" t="s">
         <v>801</v>
-      </c>
-      <c r="H424" s="32" t="s">
-        <v>802</v>
       </c>
       <c r="I424" s="25"/>
       <c r="J424" s="26" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="425" spans="1:10" ht="13">
       <c r="A425" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B425" s="22">
         <v>29</v>
@@ -12709,41 +12823,41 @@
         <v>145</v>
       </c>
       <c r="G425" s="35" t="s">
+        <v>803</v>
+      </c>
+      <c r="H425" s="51" t="s">
         <v>804</v>
-      </c>
-      <c r="H425" s="51" t="s">
-        <v>805</v>
       </c>
       <c r="I425" s="25"/>
     </row>
     <row r="426" spans="1:10" ht="13">
       <c r="A426" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B426" s="22">
         <v>30</v>
       </c>
       <c r="C426" s="29" t="s">
+        <v>805</v>
+      </c>
+      <c r="D426" s="21" t="s">
         <v>806</v>
-      </c>
-      <c r="D426" s="21" t="s">
-        <v>807</v>
       </c>
       <c r="E426" s="23"/>
       <c r="F426" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G426" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I426" s="25"/>
       <c r="J426" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="427" spans="1:10" ht="13">
       <c r="A427" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B427" s="22">
         <v>31</v>
@@ -12754,31 +12868,31 @@
       </c>
       <c r="E427" s="23"/>
       <c r="F427" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G427" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="H427" s="51" t="s">
         <v>810</v>
       </c>
-      <c r="H427" s="51" t="s">
+      <c r="I427" s="63" t="s">
         <v>811</v>
       </c>
-      <c r="I427" s="63" t="s">
+      <c r="J427" s="26" t="s">
         <v>812</v>
-      </c>
-      <c r="J427" s="26" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="428" spans="1:10" ht="13">
       <c r="A428" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B428" s="22">
         <v>32</v>
       </c>
       <c r="C428" s="23"/>
       <c r="D428" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E428" s="23"/>
       <c r="G428" s="24"/>
@@ -12786,23 +12900,23 @@
     </row>
     <row r="429" spans="1:10" ht="14">
       <c r="A429" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B429" s="22">
         <v>33</v>
       </c>
       <c r="C429" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="D429" s="21" t="s">
         <v>815</v>
-      </c>
-      <c r="D429" s="21" t="s">
-        <v>816</v>
       </c>
       <c r="E429" s="23"/>
       <c r="F429" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G429" s="64" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I429" s="25"/>
       <c r="J429" s="26" t="s">
@@ -12811,13 +12925,13 @@
     </row>
     <row r="430" spans="1:10" ht="13">
       <c r="A430" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B430" s="22">
         <v>34</v>
       </c>
       <c r="C430" s="29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D430" s="21" t="s">
         <v>20</v>
@@ -12828,36 +12942,36 @@
       </c>
       <c r="G430" s="24"/>
       <c r="H430" s="51" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I430" s="25"/>
     </row>
     <row r="431" spans="1:10" ht="13">
       <c r="A431" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B431" s="22">
         <v>35</v>
       </c>
       <c r="C431" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="D431" s="21" t="s">
         <v>820</v>
-      </c>
-      <c r="D431" s="21" t="s">
-        <v>821</v>
       </c>
       <c r="E431" s="23"/>
       <c r="F431" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G431" s="55"/>
       <c r="I431" s="25"/>
       <c r="J431" s="26" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="432" spans="1:10" ht="15">
       <c r="A432" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B432" s="22">
         <v>36</v>
@@ -12871,10 +12985,10 @@
         <v>145</v>
       </c>
       <c r="G432" s="43" t="s">
+        <v>822</v>
+      </c>
+      <c r="H432" s="52" t="s">
         <v>823</v>
-      </c>
-      <c r="H432" s="52" t="s">
-        <v>824</v>
       </c>
       <c r="I432" s="52"/>
       <c r="J432" s="26" t="s">
@@ -12883,7 +12997,7 @@
     </row>
     <row r="433" spans="1:10" ht="13">
       <c r="A433" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B433" s="22">
         <v>37</v>
@@ -12897,10 +13011,10 @@
         <v>145</v>
       </c>
       <c r="G433" s="57" t="s">
+        <v>824</v>
+      </c>
+      <c r="H433" s="51" t="s">
         <v>825</v>
-      </c>
-      <c r="H433" s="51" t="s">
-        <v>826</v>
       </c>
       <c r="I433" s="25"/>
       <c r="J433" s="26" t="s">
@@ -12909,7 +13023,7 @@
     </row>
     <row r="434" spans="1:10" ht="13">
       <c r="A434" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B434" s="22">
         <v>38</v>
@@ -12924,22 +13038,22 @@
       </c>
       <c r="G434" s="24"/>
       <c r="H434" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="I434" s="30" t="s">
         <v>827</v>
-      </c>
-      <c r="I434" s="30" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="13">
       <c r="A435" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B435" s="22">
         <v>39</v>
       </c>
       <c r="C435" s="23"/>
       <c r="D435" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E435" s="23"/>
       <c r="G435" s="24"/>
@@ -12947,7 +13061,7 @@
     </row>
     <row r="436" spans="1:10" ht="13">
       <c r="A436" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B436" s="22">
         <v>40</v>
@@ -12962,43 +13076,48 @@
       </c>
       <c r="G436" s="24"/>
       <c r="H436" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I436" s="25"/>
       <c r="J436" s="26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="437" spans="1:10" ht="13">
       <c r="A437" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B437" s="22">
         <v>41</v>
       </c>
       <c r="C437" s="23"/>
       <c r="D437" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E437" s="23"/>
-      <c r="G437" s="24"/>
+      <c r="F437" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G437" s="82" t="s">
+        <v>1036</v>
+      </c>
       <c r="I437" s="25"/>
       <c r="J437" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="438" spans="1:10" ht="13">
       <c r="A438" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B438" s="22">
         <v>42</v>
       </c>
       <c r="C438" s="29" t="s">
+        <v>833</v>
+      </c>
+      <c r="D438" s="21" t="s">
         <v>834</v>
-      </c>
-      <c r="D438" s="21" t="s">
-        <v>835</v>
       </c>
       <c r="E438" s="23"/>
       <c r="F438" s="26" t="s">
@@ -13006,16 +13125,16 @@
       </c>
       <c r="G438" s="24"/>
       <c r="H438" s="51" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I438" s="25"/>
       <c r="J438" s="26" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="439" spans="1:10" ht="13">
       <c r="A439" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B439" s="22">
         <v>43</v>
@@ -13030,12 +13149,12 @@
       </c>
       <c r="G439" s="24"/>
       <c r="H439" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="440" spans="1:10" ht="13">
       <c r="A440" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B440" s="22">
         <v>44</v>
@@ -13048,22 +13167,22 @@
       </c>
       <c r="E440" s="23"/>
       <c r="F440" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G440" s="24"/>
       <c r="H440" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="I440" s="59" t="s">
         <v>838</v>
       </c>
-      <c r="I440" s="59" t="s">
+      <c r="J440" s="26" t="s">
         <v>839</v>
-      </c>
-      <c r="J440" s="26" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="441" spans="1:10" ht="14">
       <c r="A441" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B441" s="22">
         <v>45</v>
@@ -13080,16 +13199,16 @@
       </c>
       <c r="G441" s="24"/>
       <c r="H441" s="61" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I441" s="25"/>
       <c r="J441" s="65" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="442" spans="1:10" ht="13">
       <c r="A442" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B442" s="22">
         <v>46</v>
@@ -13098,25 +13217,25 @@
         <v>368</v>
       </c>
       <c r="D442" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E442" s="23"/>
       <c r="G442" s="24"/>
       <c r="I442" s="25"/>
       <c r="J442" s="26" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="443" spans="1:10" ht="13">
       <c r="A443" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B443" s="22">
         <v>47</v>
       </c>
       <c r="C443" s="23"/>
       <c r="D443" s="21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E443" s="23"/>
       <c r="G443" s="24"/>
@@ -13124,7 +13243,7 @@
     </row>
     <row r="444" spans="1:10" ht="13">
       <c r="A444" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B444" s="22">
         <v>48</v>
@@ -13133,7 +13252,7 @@
         <v>59</v>
       </c>
       <c r="D444" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E444" s="23"/>
       <c r="G444" s="24"/>
@@ -13141,7 +13260,7 @@
     </row>
     <row r="445" spans="1:10" ht="13">
       <c r="A445" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B445" s="22">
         <v>49</v>
@@ -13150,7 +13269,7 @@
         <v>59</v>
       </c>
       <c r="D445" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E445" s="23"/>
       <c r="G445" s="24"/>
@@ -13158,7 +13277,7 @@
     </row>
     <row r="446" spans="1:10" ht="13">
       <c r="A446" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B446" s="22">
         <v>50</v>
@@ -13167,7 +13286,7 @@
         <v>487</v>
       </c>
       <c r="D446" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E446" s="23"/>
       <c r="G446" s="24"/>
@@ -13175,7 +13294,7 @@
     </row>
     <row r="447" spans="1:10" ht="13">
       <c r="A447" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B447" s="22">
         <v>51</v>
@@ -13184,20 +13303,20 @@
         <v>404</v>
       </c>
       <c r="D447" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E447" s="23"/>
       <c r="F447" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G447" s="82" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I447" s="25"/>
     </row>
     <row r="448" spans="1:10" ht="13">
       <c r="A448" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B448" s="22">
         <v>52</v>
@@ -13206,27 +13325,27 @@
         <v>404</v>
       </c>
       <c r="D448" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E448" s="23"/>
       <c r="F448" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G448" s="82" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I448" s="25"/>
     </row>
     <row r="449" spans="1:10" ht="13">
       <c r="A449" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B449" s="22">
         <v>53</v>
       </c>
       <c r="C449" s="23"/>
       <c r="D449" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E449" s="23"/>
       <c r="G449" s="24"/>
@@ -13234,13 +13353,13 @@
     </row>
     <row r="450" spans="1:10" ht="13">
       <c r="A450" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B450" s="22">
         <v>54</v>
       </c>
       <c r="C450" s="29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D450" s="21" t="s">
         <v>20</v>
@@ -13250,23 +13369,23 @@
         <v>145</v>
       </c>
       <c r="G450" s="35" t="s">
+        <v>852</v>
+      </c>
+      <c r="H450" s="51" t="s">
         <v>853</v>
-      </c>
-      <c r="H450" s="51" t="s">
-        <v>854</v>
       </c>
       <c r="I450" s="25"/>
     </row>
     <row r="451" spans="1:10" ht="13">
       <c r="A451" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B451" s="22">
         <v>55</v>
       </c>
       <c r="C451" s="23"/>
       <c r="D451" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E451" s="23"/>
       <c r="G451" s="24"/>
@@ -13274,7 +13393,7 @@
     </row>
     <row r="452" spans="1:10" ht="13">
       <c r="A452" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B452" s="22">
         <v>56</v>
@@ -13291,15 +13410,15 @@
       </c>
       <c r="G452" s="24"/>
       <c r="H452" s="26" t="s">
+        <v>854</v>
+      </c>
+      <c r="I452" s="30" t="s">
         <v>855</v>
-      </c>
-      <c r="I452" s="30" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="453" spans="1:10" ht="13">
       <c r="A453" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B453" s="22">
         <v>57</v>
@@ -13308,17 +13427,17 @@
         <v>97</v>
       </c>
       <c r="D453" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="E453" s="28" t="s">
         <v>857</v>
-      </c>
-      <c r="E453" s="28" t="s">
-        <v>858</v>
       </c>
       <c r="G453" s="24"/>
       <c r="I453" s="25"/>
     </row>
     <row r="454" spans="1:10" ht="13">
       <c r="A454" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B454" s="22">
         <v>58</v>
@@ -13333,15 +13452,17 @@
       <c r="F454" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G454" s="24"/>
+      <c r="G454" s="82" t="s">
+        <v>1053</v>
+      </c>
       <c r="H454" s="51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I454" s="25"/>
     </row>
     <row r="455" spans="1:10" ht="13">
       <c r="A455" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B455" s="22">
         <v>59</v>
@@ -13350,7 +13471,7 @@
         <v>582</v>
       </c>
       <c r="D455" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E455" s="23"/>
       <c r="G455" s="24"/>
@@ -13358,7 +13479,7 @@
     </row>
     <row r="456" spans="1:10" ht="13">
       <c r="A456" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B456" s="22">
         <v>60</v>
@@ -13372,10 +13493,10 @@
         <v>31</v>
       </c>
       <c r="G456" s="66" t="s">
+        <v>860</v>
+      </c>
+      <c r="H456" s="62" t="s">
         <v>861</v>
-      </c>
-      <c r="H456" s="62" t="s">
-        <v>862</v>
       </c>
       <c r="I456" s="25"/>
       <c r="J456" s="41" t="s">
@@ -13384,14 +13505,14 @@
     </row>
     <row r="457" spans="1:10" ht="13">
       <c r="A457" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B457" s="22">
         <v>61</v>
       </c>
       <c r="C457" s="23"/>
       <c r="D457" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E457" s="23"/>
       <c r="G457" s="24"/>
@@ -13399,14 +13520,14 @@
     </row>
     <row r="458" spans="1:10" ht="13">
       <c r="A458" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B458" s="22">
         <v>62</v>
       </c>
       <c r="C458" s="23"/>
       <c r="D458" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E458" s="23"/>
       <c r="G458" s="24"/>
@@ -13414,7 +13535,7 @@
     </row>
     <row r="459" spans="1:10" ht="13">
       <c r="A459" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B459" s="22">
         <v>63</v>
@@ -13423,7 +13544,7 @@
         <v>34</v>
       </c>
       <c r="D459" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E459" s="23"/>
       <c r="G459" s="24"/>
@@ -13431,13 +13552,13 @@
     </row>
     <row r="460" spans="1:10" ht="13">
       <c r="A460" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B460" s="22">
         <v>64</v>
       </c>
       <c r="C460" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D460" s="21" t="s">
         <v>20</v>
@@ -13447,10 +13568,10 @@
         <v>145</v>
       </c>
       <c r="G460" s="57" t="s">
+        <v>863</v>
+      </c>
+      <c r="H460" s="51" t="s">
         <v>864</v>
-      </c>
-      <c r="H460" s="51" t="s">
-        <v>865</v>
       </c>
       <c r="I460" s="25"/>
       <c r="J460" s="41" t="s">
@@ -13459,13 +13580,13 @@
     </row>
     <row r="461" spans="1:10" ht="13">
       <c r="A461" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B461" s="22">
         <v>65</v>
       </c>
       <c r="C461" s="29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D461" s="21" t="s">
         <v>20</v>
@@ -13476,13 +13597,13 @@
       </c>
       <c r="G461" s="24"/>
       <c r="H461" s="26" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I461" s="25"/>
     </row>
     <row r="462" spans="1:10" ht="13">
       <c r="A462" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B462" s="22">
         <v>66</v>
@@ -13499,23 +13620,23 @@
       </c>
       <c r="G462" s="24"/>
       <c r="H462" s="26" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I462" s="25"/>
       <c r="J462" s="26"/>
     </row>
     <row r="463" spans="1:10" ht="13">
       <c r="A463" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B463" s="22">
         <v>67</v>
       </c>
       <c r="C463" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="D463" s="21" t="s">
         <v>869</v>
-      </c>
-      <c r="D463" s="21" t="s">
-        <v>870</v>
       </c>
       <c r="E463" s="23"/>
       <c r="G463" s="24"/>
@@ -13523,44 +13644,44 @@
     </row>
     <row r="464" spans="1:10" ht="13">
       <c r="A464" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B464" s="22">
         <v>68</v>
       </c>
       <c r="C464" s="23"/>
       <c r="D464" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E464" s="23"/>
       <c r="F464" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G464" s="82" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I464" s="25"/>
     </row>
     <row r="465" spans="1:10" ht="13">
       <c r="A465" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B465" s="22">
         <v>69</v>
       </c>
       <c r="C465" s="23"/>
       <c r="D465" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E465" s="23"/>
       <c r="F465" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G465" s="66" t="s">
+        <v>872</v>
+      </c>
+      <c r="H465" s="62" t="s">
         <v>873</v>
-      </c>
-      <c r="H465" s="62" t="s">
-        <v>874</v>
       </c>
       <c r="I465" s="25"/>
       <c r="J465" s="41" t="s">
@@ -13569,14 +13690,14 @@
     </row>
     <row r="466" spans="1:10" ht="13">
       <c r="A466" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B466" s="22">
         <v>70</v>
       </c>
       <c r="C466" s="23"/>
       <c r="D466" s="21" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E466" s="23"/>
       <c r="G466" s="24"/>
@@ -13584,7 +13705,7 @@
     </row>
     <row r="467" spans="1:10" ht="13">
       <c r="A467" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B467" s="22">
         <v>71</v>
@@ -13598,10 +13719,10 @@
         <v>145</v>
       </c>
       <c r="G467" s="66" t="s">
+        <v>875</v>
+      </c>
+      <c r="H467" s="62" t="s">
         <v>876</v>
-      </c>
-      <c r="H467" s="62" t="s">
-        <v>877</v>
       </c>
       <c r="I467" s="25"/>
       <c r="J467" s="41" t="s">
@@ -13610,24 +13731,24 @@
     </row>
     <row r="468" spans="1:10" ht="15">
       <c r="A468" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B468" s="22">
         <v>72</v>
       </c>
       <c r="C468" s="23"/>
       <c r="D468" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E468" s="23"/>
       <c r="F468" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G468" s="43" t="s">
+        <v>878</v>
+      </c>
+      <c r="H468" s="52" t="s">
         <v>879</v>
-      </c>
-      <c r="H468" s="52" t="s">
-        <v>880</v>
       </c>
       <c r="I468" s="25"/>
       <c r="J468" s="41" t="s">
@@ -13636,7 +13757,7 @@
     </row>
     <row r="469" spans="1:10" ht="13">
       <c r="A469" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B469" s="22">
         <v>73</v>
@@ -13653,74 +13774,79 @@
       </c>
       <c r="G469" s="24"/>
       <c r="H469" s="51" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I469" s="25"/>
     </row>
     <row r="470" spans="1:10" ht="13">
       <c r="A470" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B470" s="22">
         <v>74</v>
       </c>
       <c r="C470" s="29" t="s">
+        <v>881</v>
+      </c>
+      <c r="D470" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="D470" s="21" t="s">
-        <v>883</v>
-      </c>
       <c r="E470" s="23"/>
-      <c r="G470" s="24"/>
+      <c r="F470" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G470" s="82" t="s">
+        <v>1050</v>
+      </c>
       <c r="I470" s="25"/>
     </row>
     <row r="471" spans="1:10" ht="13">
       <c r="A471" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B471" s="22">
         <v>75</v>
       </c>
       <c r="C471" s="23"/>
       <c r="D471" s="21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E471" s="23"/>
       <c r="F471" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G471" s="67" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H471" s="51"/>
       <c r="I471" s="25"/>
     </row>
     <row r="472" spans="1:10" ht="13">
       <c r="A472" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B472" s="22">
         <v>76</v>
       </c>
       <c r="C472" s="23"/>
       <c r="D472" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="E472" s="28" t="s">
         <v>886</v>
-      </c>
-      <c r="E472" s="28" t="s">
-        <v>887</v>
       </c>
       <c r="F472" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G472" s="67" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H472" s="51"/>
       <c r="I472" s="25"/>
     </row>
     <row r="473" spans="1:10" ht="15">
       <c r="A473" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B473" s="22">
         <v>77</v>
@@ -13734,10 +13860,10 @@
         <v>145</v>
       </c>
       <c r="G473" s="43" t="s">
+        <v>888</v>
+      </c>
+      <c r="H473" s="52" t="s">
         <v>889</v>
-      </c>
-      <c r="H473" s="52" t="s">
-        <v>890</v>
       </c>
       <c r="I473" s="25"/>
       <c r="J473" s="41" t="s">
@@ -13746,14 +13872,14 @@
     </row>
     <row r="474" spans="1:10" ht="13">
       <c r="A474" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B474" s="22">
         <v>78</v>
       </c>
       <c r="C474" s="23"/>
       <c r="D474" s="21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E474" s="28" t="s">
         <v>40</v>
@@ -13762,10 +13888,10 @@
         <v>145</v>
       </c>
       <c r="G474" s="57" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H474" s="51" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I474" s="25"/>
       <c r="J474" s="41" t="s">
@@ -13774,31 +13900,31 @@
     </row>
     <row r="475" spans="1:10" ht="13">
       <c r="A475" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B475" s="22">
         <v>79</v>
       </c>
       <c r="C475" s="23"/>
       <c r="D475" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E475" s="23"/>
       <c r="G475" s="27" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I475" s="25"/>
     </row>
     <row r="476" spans="1:10" ht="13">
       <c r="A476" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B476" s="22">
         <v>80</v>
       </c>
       <c r="C476" s="23"/>
       <c r="D476" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E476" s="28" t="s">
         <v>44</v>
@@ -13807,10 +13933,10 @@
         <v>145</v>
       </c>
       <c r="G476" s="57" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H476" s="51" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I476" s="25"/>
       <c r="J476" s="41" t="s">
@@ -13819,14 +13945,14 @@
     </row>
     <row r="477" spans="1:10" ht="13">
       <c r="A477" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B477" s="22">
         <v>81</v>
       </c>
       <c r="C477" s="23"/>
       <c r="D477" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E477" s="23"/>
       <c r="G477" s="24"/>
@@ -13834,7 +13960,7 @@
     </row>
     <row r="478" spans="1:10" ht="13">
       <c r="A478" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B478" s="22">
         <v>82</v>
@@ -13848,10 +13974,10 @@
         <v>145</v>
       </c>
       <c r="G478" s="57" t="s">
+        <v>897</v>
+      </c>
+      <c r="H478" s="51" t="s">
         <v>898</v>
-      </c>
-      <c r="H478" s="51" t="s">
-        <v>899</v>
       </c>
       <c r="I478" s="25"/>
       <c r="J478" s="41" t="s">
@@ -13860,7 +13986,7 @@
     </row>
     <row r="479" spans="1:10" ht="15">
       <c r="A479" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B479" s="22">
         <v>83</v>
@@ -13874,10 +14000,10 @@
         <v>145</v>
       </c>
       <c r="G479" s="43" t="s">
+        <v>899</v>
+      </c>
+      <c r="H479" s="52" t="s">
         <v>900</v>
-      </c>
-      <c r="H479" s="52" t="s">
-        <v>901</v>
       </c>
       <c r="I479" s="25"/>
       <c r="J479" s="41" t="s">
@@ -13886,7 +14012,7 @@
     </row>
     <row r="480" spans="1:10" ht="13">
       <c r="A480" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B480" s="22">
         <v>84</v>
@@ -13900,10 +14026,10 @@
         <v>145</v>
       </c>
       <c r="G480" s="57" t="s">
+        <v>901</v>
+      </c>
+      <c r="H480" s="62" t="s">
         <v>902</v>
-      </c>
-      <c r="H480" s="62" t="s">
-        <v>903</v>
       </c>
       <c r="I480" s="25"/>
       <c r="J480" s="41" t="s">
@@ -13912,7 +14038,7 @@
     </row>
     <row r="481" spans="1:10" ht="13">
       <c r="A481" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B481" s="22">
         <v>85</v>
@@ -13928,16 +14054,16 @@
         <v>145</v>
       </c>
       <c r="G481" s="68" t="s">
+        <v>903</v>
+      </c>
+      <c r="H481" s="51" t="s">
         <v>904</v>
-      </c>
-      <c r="H481" s="51" t="s">
-        <v>905</v>
       </c>
       <c r="I481" s="25"/>
     </row>
     <row r="482" spans="1:10" ht="13">
       <c r="A482" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B482" s="22">
         <v>86</v>
@@ -13951,10 +14077,10 @@
         <v>145</v>
       </c>
       <c r="G482" s="53" t="s">
+        <v>905</v>
+      </c>
+      <c r="H482" s="51" t="s">
         <v>906</v>
-      </c>
-      <c r="H482" s="51" t="s">
-        <v>907</v>
       </c>
       <c r="I482" s="25"/>
       <c r="J482" s="41" t="s">
@@ -13963,24 +14089,24 @@
     </row>
     <row r="483" spans="1:10" ht="15">
       <c r="A483" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B483" s="22">
         <v>87</v>
       </c>
       <c r="C483" s="23"/>
       <c r="D483" s="21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E483" s="23"/>
       <c r="F483" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G483" s="54" t="s">
+        <v>908</v>
+      </c>
+      <c r="H483" s="52" t="s">
         <v>909</v>
-      </c>
-      <c r="H483" s="52" t="s">
-        <v>910</v>
       </c>
       <c r="I483" s="25"/>
       <c r="J483" s="26" t="s">
@@ -13989,29 +14115,29 @@
     </row>
     <row r="484" spans="1:10" ht="13">
       <c r="A484" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B484" s="22">
         <v>88</v>
       </c>
       <c r="C484" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="D484" s="21" t="s">
         <v>911</v>
-      </c>
-      <c r="D484" s="21" t="s">
-        <v>912</v>
       </c>
       <c r="E484" s="23"/>
       <c r="F484" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G484" s="27" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I484" s="25"/>
     </row>
     <row r="485" spans="1:10" ht="13">
       <c r="A485" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B485" s="22">
         <v>89</v>
@@ -14020,7 +14146,7 @@
         <v>84</v>
       </c>
       <c r="D485" s="21" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E485" s="23"/>
       <c r="G485" s="24"/>
@@ -14028,7 +14154,7 @@
     </row>
     <row r="486" spans="1:10" ht="13">
       <c r="A486" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B486" s="22">
         <v>90</v>
@@ -14037,7 +14163,7 @@
         <v>59</v>
       </c>
       <c r="D486" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E486" s="23"/>
       <c r="G486" s="24"/>
@@ -14045,16 +14171,16 @@
     </row>
     <row r="487" spans="1:10" ht="13">
       <c r="A487" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B487" s="22">
         <v>91</v>
       </c>
       <c r="C487" s="29" t="s">
+        <v>915</v>
+      </c>
+      <c r="D487" s="21" t="s">
         <v>916</v>
-      </c>
-      <c r="D487" s="21" t="s">
-        <v>917</v>
       </c>
       <c r="E487" s="23"/>
       <c r="G487" s="24"/>
@@ -14062,60 +14188,60 @@
     </row>
     <row r="488" spans="1:10" ht="13">
       <c r="A488" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B488" s="22">
         <v>92</v>
       </c>
       <c r="C488" s="29" t="s">
+        <v>917</v>
+      </c>
+      <c r="D488" s="21" t="s">
         <v>918</v>
-      </c>
-      <c r="D488" s="21" t="s">
-        <v>919</v>
       </c>
       <c r="E488" s="23"/>
       <c r="F488" t="s">
         <v>31</v>
       </c>
       <c r="G488" s="82" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I488" s="25"/>
     </row>
     <row r="489" spans="1:10" ht="13">
       <c r="A489" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B489" s="22">
         <v>93</v>
       </c>
       <c r="C489" s="29" t="s">
+        <v>919</v>
+      </c>
+      <c r="D489" s="21" t="s">
         <v>920</v>
-      </c>
-      <c r="D489" s="21" t="s">
-        <v>921</v>
       </c>
       <c r="E489" s="23"/>
       <c r="F489" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G489" s="27" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I489" s="25"/>
     </row>
     <row r="490" spans="1:10" ht="13">
       <c r="A490" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B490" s="22">
         <v>94</v>
       </c>
       <c r="C490" s="29" t="s">
+        <v>922</v>
+      </c>
+      <c r="D490" s="21" t="s">
         <v>923</v>
-      </c>
-      <c r="D490" s="21" t="s">
-        <v>924</v>
       </c>
       <c r="E490" s="23"/>
       <c r="G490" s="24"/>
@@ -14123,16 +14249,16 @@
     </row>
     <row r="491" spans="1:10" ht="13">
       <c r="A491" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B491" s="22">
         <v>95</v>
       </c>
       <c r="C491" s="29" t="s">
+        <v>924</v>
+      </c>
+      <c r="D491" s="21" t="s">
         <v>925</v>
-      </c>
-      <c r="D491" s="21" t="s">
-        <v>926</v>
       </c>
       <c r="E491" s="23"/>
       <c r="G491" s="24"/>
@@ -14140,14 +14266,14 @@
     </row>
     <row r="492" spans="1:10" ht="13">
       <c r="A492" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B492" s="22">
         <v>96</v>
       </c>
       <c r="C492" s="23"/>
       <c r="D492" s="21" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E492" s="23"/>
       <c r="G492" s="24"/>
@@ -14155,30 +14281,30 @@
     </row>
     <row r="493" spans="1:10" ht="13">
       <c r="A493" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B493" s="22">
         <v>97</v>
       </c>
       <c r="C493" s="23"/>
       <c r="D493" s="21" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E493" s="23"/>
       <c r="F493" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G493" s="53" t="s">
+        <v>928</v>
+      </c>
+      <c r="H493" s="51" t="s">
         <v>929</v>
-      </c>
-      <c r="H493" s="51" t="s">
-        <v>930</v>
       </c>
       <c r="I493" s="25"/>
     </row>
     <row r="494" spans="1:10" ht="13">
       <c r="A494" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B494" s="22">
         <v>98</v>
@@ -14187,23 +14313,23 @@
         <v>34</v>
       </c>
       <c r="D494" s="21" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E494" s="23"/>
       <c r="F494" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G494" s="57" t="s">
+        <v>931</v>
+      </c>
+      <c r="H494" s="62" t="s">
         <v>932</v>
-      </c>
-      <c r="H494" s="62" t="s">
-        <v>933</v>
       </c>
       <c r="I494" s="25"/>
     </row>
     <row r="495" spans="1:10" ht="15">
       <c r="A495" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B495" s="22">
         <v>99</v>
@@ -14217,16 +14343,16 @@
         <v>145</v>
       </c>
       <c r="G495" s="54" t="s">
+        <v>933</v>
+      </c>
+      <c r="H495" s="52" t="s">
         <v>934</v>
-      </c>
-      <c r="H495" s="52" t="s">
-        <v>935</v>
       </c>
       <c r="I495" s="25"/>
     </row>
     <row r="496" spans="1:10" ht="13">
       <c r="A496" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B496" s="22">
         <v>100</v>
@@ -14240,32 +14366,32 @@
         <v>145</v>
       </c>
       <c r="G496" s="66" t="s">
+        <v>935</v>
+      </c>
+      <c r="H496" s="26" t="s">
         <v>936</v>
-      </c>
-      <c r="H496" s="26" t="s">
-        <v>937</v>
       </c>
       <c r="I496" s="25"/>
     </row>
     <row r="497" spans="1:10" ht="13">
       <c r="A497" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B497" s="22">
         <v>101</v>
       </c>
       <c r="C497" s="23"/>
       <c r="D497" s="21" t="s">
+        <v>937</v>
+      </c>
+      <c r="E497" s="28" t="s">
         <v>938</v>
-      </c>
-      <c r="E497" s="28" t="s">
-        <v>939</v>
       </c>
       <c r="F497" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G497" s="53" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H497" s="51"/>
       <c r="I497" s="25"/>
@@ -14273,16 +14399,16 @@
     </row>
     <row r="498" spans="1:10" ht="13">
       <c r="A498" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B498" s="22">
         <v>102</v>
       </c>
       <c r="C498" s="29" t="s">
+        <v>940</v>
+      </c>
+      <c r="D498" s="21" t="s">
         <v>941</v>
-      </c>
-      <c r="D498" s="21" t="s">
-        <v>942</v>
       </c>
       <c r="E498" s="23"/>
       <c r="G498" s="24"/>
@@ -14290,16 +14416,16 @@
     </row>
     <row r="499" spans="1:10" ht="13">
       <c r="A499" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B499" s="22">
         <v>103</v>
       </c>
       <c r="C499" s="29" t="s">
+        <v>942</v>
+      </c>
+      <c r="D499" s="21" t="s">
         <v>943</v>
-      </c>
-      <c r="D499" s="21" t="s">
-        <v>944</v>
       </c>
       <c r="E499" s="23"/>
       <c r="G499" s="24"/>
@@ -14307,7 +14433,7 @@
     </row>
     <row r="500" spans="1:10" ht="13">
       <c r="A500" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B500" s="22">
         <v>104</v>
@@ -14324,13 +14450,13 @@
       </c>
       <c r="G500" s="24"/>
       <c r="H500" s="26" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I500" s="25"/>
     </row>
     <row r="501" spans="1:10" ht="13">
       <c r="A501" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B501" s="22">
         <v>105</v>
@@ -14341,22 +14467,22 @@
       </c>
       <c r="E501" s="23"/>
       <c r="F501" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G501" s="24"/>
       <c r="H501" s="26" t="s">
+        <v>945</v>
+      </c>
+      <c r="I501" s="30" t="s">
         <v>946</v>
       </c>
-      <c r="I501" s="30" t="s">
+      <c r="J501" s="26" t="s">
         <v>947</v>
-      </c>
-      <c r="J501" s="26" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="502" spans="1:10" ht="13">
       <c r="A502" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B502" s="22">
         <v>106</v>
@@ -14365,71 +14491,71 @@
         <v>97</v>
       </c>
       <c r="D502" s="21" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E502" s="23"/>
       <c r="F502" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G502" s="55" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I502" s="25"/>
       <c r="J502" s="69" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="503" spans="1:10" ht="13">
       <c r="A503" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B503" s="22">
         <v>107</v>
       </c>
       <c r="C503" s="29" t="s">
+        <v>951</v>
+      </c>
+      <c r="D503" s="21" t="s">
         <v>952</v>
-      </c>
-      <c r="D503" s="21" t="s">
-        <v>953</v>
       </c>
       <c r="E503" s="23"/>
       <c r="F503" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G503" s="24"/>
       <c r="I503" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="J503" s="71" t="s">
         <v>954</v>
-      </c>
-      <c r="J503" s="71" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="504" spans="1:10" ht="13">
       <c r="A504" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B504" s="22">
         <v>108</v>
       </c>
       <c r="C504" s="23"/>
       <c r="D504" s="21" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E504" s="23"/>
       <c r="F504" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G504" s="24"/>
       <c r="I504" s="72" t="s">
+        <v>956</v>
+      </c>
+      <c r="J504" s="6" t="s">
         <v>957</v>
-      </c>
-      <c r="J504" s="6" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="505" spans="1:10" ht="13">
       <c r="A505" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B505" s="22">
         <v>109</v>
@@ -14442,28 +14568,28 @@
       </c>
       <c r="E505" s="23"/>
       <c r="F505" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G505" s="24"/>
       <c r="H505" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="I505" s="70" t="s">
         <v>959</v>
       </c>
-      <c r="I505" s="70" t="s">
+      <c r="J505" s="26" t="s">
         <v>960</v>
-      </c>
-      <c r="J505" s="26" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="506" spans="1:10" ht="13">
       <c r="A506" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B506" s="22">
         <v>110</v>
       </c>
       <c r="C506" s="29" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D506" s="21" t="s">
         <v>20</v>
@@ -14473,16 +14599,16 @@
         <v>145</v>
       </c>
       <c r="G506" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="H506" s="26" t="s">
         <v>963</v>
-      </c>
-      <c r="H506" s="26" t="s">
-        <v>964</v>
       </c>
       <c r="I506" s="25"/>
     </row>
     <row r="507" spans="1:10" ht="13">
       <c r="A507" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B507" s="22">
         <v>111</v>
@@ -14495,22 +14621,22 @@
       </c>
       <c r="E507" s="23"/>
       <c r="F507" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G507" s="24"/>
       <c r="H507" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="I507" s="73" t="s">
         <v>965</v>
       </c>
-      <c r="I507" s="73" t="s">
+      <c r="J507" s="74" t="s">
         <v>966</v>
-      </c>
-      <c r="J507" s="74" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="508" spans="1:10" ht="13">
       <c r="A508" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B508" s="22">
         <v>112</v>
@@ -14519,23 +14645,23 @@
         <v>34</v>
       </c>
       <c r="D508" s="21" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E508" s="23"/>
       <c r="F508" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G508" s="75" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I508" s="25"/>
       <c r="J508" s="26" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="509" spans="1:10" ht="13">
       <c r="A509" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B509" s="22">
         <v>113</v>
@@ -14546,43 +14672,43 @@
       </c>
       <c r="E509" s="23"/>
       <c r="F509" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G509" s="24"/>
       <c r="H509" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="I509" s="73" t="s">
         <v>972</v>
       </c>
-      <c r="I509" s="73" t="s">
+      <c r="J509" s="74" t="s">
         <v>973</v>
-      </c>
-      <c r="J509" s="74" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="510" spans="1:10" ht="13">
       <c r="A510" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B510" s="22">
         <v>114</v>
       </c>
       <c r="C510" s="23"/>
       <c r="D510" s="21" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E510" s="23"/>
       <c r="F510" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G510" s="24"/>
       <c r="I510" s="25"/>
       <c r="J510" s="26" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="511" spans="1:10" ht="13">
       <c r="A511" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B511" s="22">
         <v>115</v>
@@ -14597,13 +14723,13 @@
       </c>
       <c r="G511" s="24"/>
       <c r="H511" s="26" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I511" s="25"/>
     </row>
     <row r="512" spans="1:10" ht="13">
       <c r="A512" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B512" s="22">
         <v>116</v>
@@ -14612,23 +14738,23 @@
         <v>348</v>
       </c>
       <c r="D512" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E512" s="23"/>
       <c r="F512" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G512" s="24"/>
       <c r="I512" s="59" t="s">
+        <v>978</v>
+      </c>
+      <c r="J512" s="26" t="s">
         <v>979</v>
-      </c>
-      <c r="J512" s="26" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="513" spans="1:10" ht="13">
       <c r="A513" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B513" s="22">
         <v>117</v>
@@ -14639,22 +14765,22 @@
       </c>
       <c r="E513" s="23"/>
       <c r="F513" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G513" s="24"/>
       <c r="H513" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="I513" s="76" t="s">
         <v>981</v>
       </c>
-      <c r="I513" s="76" t="s">
+      <c r="J513" s="74" t="s">
         <v>982</v>
-      </c>
-      <c r="J513" s="74" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="514" spans="1:10" ht="13">
       <c r="A514" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B514" s="22">
         <v>118</v>
@@ -14665,22 +14791,22 @@
       </c>
       <c r="E514" s="23"/>
       <c r="F514" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G514" s="24"/>
       <c r="H514" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="I514" s="77" t="s">
         <v>984</v>
       </c>
-      <c r="I514" s="77" t="s">
+      <c r="J514" s="74" t="s">
         <v>985</v>
-      </c>
-      <c r="J514" s="74" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="515" spans="1:10" ht="13">
       <c r="A515" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B515" s="22">
         <v>119</v>
@@ -14691,45 +14817,47 @@
       </c>
       <c r="E515" s="23"/>
       <c r="F515" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G515" s="24"/>
       <c r="H515" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="I515" s="72" t="s">
         <v>987</v>
       </c>
-      <c r="I515" s="72" t="s">
+      <c r="J515" s="78" t="s">
         <v>988</v>
-      </c>
-      <c r="J515" s="78" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="516" spans="1:10" ht="13">
       <c r="A516" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B516" s="22">
         <v>120</v>
       </c>
       <c r="C516" s="23"/>
       <c r="D516" s="21" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E516" s="23"/>
       <c r="F516" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="G516" s="82" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I516" s="41" t="s">
         <v>991</v>
       </c>
-      <c r="G516" s="24"/>
-      <c r="I516" s="41" t="s">
+      <c r="J516" s="79" t="s">
         <v>992</v>
-      </c>
-      <c r="J516" s="79" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="15">
       <c r="A517" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B517" s="22">
         <v>121</v>
@@ -14743,10 +14871,10 @@
         <v>145</v>
       </c>
       <c r="G517" s="43" t="s">
+        <v>993</v>
+      </c>
+      <c r="H517" s="52" t="s">
         <v>994</v>
-      </c>
-      <c r="H517" s="52" t="s">
-        <v>995</v>
       </c>
       <c r="I517" s="25"/>
       <c r="J517" s="41" t="s">
@@ -14755,24 +14883,24 @@
     </row>
     <row r="518" spans="1:10" ht="15">
       <c r="A518" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B518" s="22">
         <v>122</v>
       </c>
       <c r="C518" s="23"/>
       <c r="D518" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E518" s="23"/>
       <c r="F518" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G518" s="43" t="s">
+        <v>996</v>
+      </c>
+      <c r="H518" s="61" t="s">
         <v>997</v>
-      </c>
-      <c r="H518" s="61" t="s">
-        <v>998</v>
       </c>
       <c r="I518" s="25"/>
       <c r="J518" s="41" t="s">
@@ -14781,7 +14909,7 @@
     </row>
     <row r="519" spans="1:10" ht="13">
       <c r="A519" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B519" s="22">
         <v>123</v>
@@ -14795,17 +14923,17 @@
         <v>145</v>
       </c>
       <c r="G519" s="57" t="s">
+        <v>998</v>
+      </c>
+      <c r="H519" s="51" t="s">
         <v>999</v>
-      </c>
-      <c r="H519" s="51" t="s">
-        <v>1000</v>
       </c>
       <c r="I519" s="25"/>
       <c r="J519" s="41"/>
     </row>
     <row r="520" spans="1:10" ht="13">
       <c r="A520" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B520" s="22">
         <v>124</v>
@@ -14821,16 +14949,16 @@
         <v>145</v>
       </c>
       <c r="G520" s="27" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H520" s="26" t="s">
         <v>1001</v>
-      </c>
-      <c r="H520" s="26" t="s">
-        <v>1002</v>
       </c>
       <c r="I520" s="25"/>
     </row>
     <row r="521" spans="1:10" ht="13">
       <c r="A521" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B521" s="22">
         <v>125</v>
@@ -14845,13 +14973,13 @@
       </c>
       <c r="G521" s="24"/>
       <c r="H521" s="26" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I521" s="25"/>
     </row>
     <row r="522" spans="1:10" ht="13">
       <c r="A522" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B522" s="22">
         <v>126</v>
@@ -14867,78 +14995,80 @@
         <v>145</v>
       </c>
       <c r="G522" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H522" s="26" t="s">
         <v>1004</v>
-      </c>
-      <c r="H522" s="26" t="s">
-        <v>1005</v>
       </c>
       <c r="I522" s="25"/>
     </row>
     <row r="523" spans="1:10" ht="13">
       <c r="A523" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B523" s="22">
         <v>127</v>
       </c>
       <c r="C523" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D523" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E523" s="23"/>
       <c r="F523" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="G523" s="24"/>
+        <v>792</v>
+      </c>
+      <c r="G523" s="82" t="s">
+        <v>1045</v>
+      </c>
       <c r="I523" s="25"/>
       <c r="J523" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="524" spans="1:10" ht="13">
       <c r="A524" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B524" s="22">
         <v>128</v>
       </c>
       <c r="C524" s="29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D524" s="21" t="s">
         <v>1008</v>
-      </c>
-      <c r="D524" s="21" t="s">
-        <v>1009</v>
       </c>
       <c r="E524" s="23"/>
       <c r="F524" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G524" s="35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I524" s="25"/>
       <c r="J524" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="525" spans="1:10" ht="13">
       <c r="A525" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B525" s="22">
         <v>129</v>
       </c>
       <c r="C525" s="23"/>
       <c r="D525" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E525" s="23"/>
       <c r="F525" s="26" t="s">
         <v>145</v>
       </c>
       <c r="G525" s="35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I525" s="25"/>
       <c r="J525" s="41" t="s">
@@ -14947,7 +15077,7 @@
     </row>
     <row r="526" spans="1:10" ht="13">
       <c r="A526" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B526" s="22">
         <v>130</v>
@@ -14962,81 +15092,81 @@
       </c>
       <c r="G526" s="24"/>
       <c r="H526" s="26" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I526" s="25"/>
     </row>
     <row r="527" spans="1:10" ht="13">
       <c r="A527" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B527" s="22">
         <v>131</v>
       </c>
       <c r="C527" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D527" s="21" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E527" s="23"/>
       <c r="F527" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G527" s="24"/>
       <c r="I527" s="30" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J527" s="26" t="s">
         <v>1016</v>
-      </c>
-      <c r="J527" s="26" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="528" spans="1:10" ht="13">
       <c r="A528" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B528" s="22">
         <v>132</v>
       </c>
       <c r="C528" s="23"/>
       <c r="D528" s="21" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E528" s="23"/>
       <c r="F528" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G528" s="55" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I528" s="25"/>
     </row>
     <row r="529" spans="1:10" ht="13">
       <c r="A529" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B529" s="22">
         <v>133</v>
       </c>
       <c r="C529" s="29" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D529" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E529" s="23"/>
       <c r="F529" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G529" s="80" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H529" s="26" t="s">
         <v>1021</v>
-      </c>
-      <c r="H529" s="26" t="s">
-        <v>1022</v>
       </c>
       <c r="I529" s="25"/>
       <c r="J529" s="71" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="530" spans="1:10" ht="13">

--- a/LOCATION SHEETS/1840sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1840sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3020E0FF-488D-7746-95A8-DEAFE95B3DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1818B82F-4264-4648-9A08-773EB2623F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="460" windowWidth="22520" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="1073">
   <si>
     <t>LOCATIONS IN 1840s</t>
   </si>
@@ -4058,8 +4058,8 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H201" sqref="H201"/>
+      <pane ySplit="6" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G357" sqref="G357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -11443,7 +11443,12 @@
         <v>668</v>
       </c>
       <c r="E351" s="23"/>
-      <c r="G351" s="24"/>
+      <c r="F351" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G351" s="82" t="s">
+        <v>670</v>
+      </c>
       <c r="I351" s="25"/>
     </row>
     <row r="352" spans="1:10" ht="13">

--- a/LOCATION SHEETS/1840sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1840sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A0FCE-6576-3944-A615-D3AD1C1FB171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3DC52-DA00-0242-81BF-D93D63AA11BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="460" windowWidth="22520" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="1107">
   <si>
     <t>LOCATIONS IN 1840s</t>
   </si>
@@ -1730,12 +1730,6 @@
     </r>
   </si>
   <si>
-    <t>CARTMEL</t>
-  </si>
-  <si>
-    <t>RR96</t>
-  </si>
-  <si>
     <t>215</t>
   </si>
   <si>
@@ -3482,6 +3476,9 @@
   </si>
   <si>
     <t>RR242</t>
+  </si>
+  <si>
+    <t>CARTMEL (NOT MUCH DATA)</t>
   </si>
 </sst>
 </file>
@@ -4164,8 +4161,8 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H314" sqref="H314"/>
+      <pane ySplit="6" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H514" sqref="H514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4741,7 +4738,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I26" s="25"/>
     </row>
@@ -4789,7 +4786,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="26" t="s">
@@ -4814,7 +4811,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="I29" s="25"/>
     </row>
@@ -4864,7 +4861,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I32" s="25"/>
     </row>
@@ -4884,7 +4881,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I33" s="25"/>
     </row>
@@ -4919,7 +4916,7 @@
         <v>31</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I35" s="25"/>
     </row>
@@ -5119,7 +5116,7 @@
         <v>31</v>
       </c>
       <c r="G45" s="82" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I45" s="25"/>
     </row>
@@ -5303,14 +5300,14 @@
         <v>56</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="82" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I55" s="25"/>
     </row>
@@ -5332,10 +5329,10 @@
         <v>31</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H56" s="74" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="I56" s="25"/>
     </row>
@@ -5422,7 +5419,7 @@
         <v>31</v>
       </c>
       <c r="G61" s="82" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="I61" s="25"/>
     </row>
@@ -5621,7 +5618,7 @@
         <v>31</v>
       </c>
       <c r="G72" s="82" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I72" s="25"/>
     </row>
@@ -5641,7 +5638,7 @@
         <v>25</v>
       </c>
       <c r="G73" s="82" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H73" s="26" t="s">
         <v>107</v>
@@ -5723,10 +5720,10 @@
         <v>31</v>
       </c>
       <c r="G77" s="82" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H77" s="79" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="I77" s="25"/>
     </row>
@@ -5769,7 +5766,7 @@
         <v>31</v>
       </c>
       <c r="G79" s="82" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="I79" s="25"/>
     </row>
@@ -5843,7 +5840,7 @@
         <v>120</v>
       </c>
       <c r="G83" s="82" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>121</v>
@@ -5871,10 +5868,10 @@
         <v>25</v>
       </c>
       <c r="G84" s="82" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H84" s="79" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I84" s="25"/>
     </row>
@@ -5988,7 +5985,7 @@
         <v>25</v>
       </c>
       <c r="G90" s="82" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H90" s="26" t="s">
         <v>132</v>
@@ -6302,7 +6299,7 @@
         <v>134</v>
       </c>
       <c r="G105" s="82" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H105" s="26" t="s">
         <v>159</v>
@@ -6333,14 +6330,14 @@
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="12" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G107" s="82" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I107" s="25"/>
     </row>
@@ -6377,7 +6374,7 @@
         <v>31</v>
       </c>
       <c r="G109" s="82" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I109" s="25"/>
     </row>
@@ -6399,7 +6396,7 @@
         <v>31</v>
       </c>
       <c r="G110" s="82" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I110" s="25"/>
       <c r="J110" s="26" t="s">
@@ -6553,7 +6550,7 @@
         <v>31</v>
       </c>
       <c r="G118" s="82" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I118" s="25"/>
     </row>
@@ -6729,7 +6726,7 @@
         <v>134</v>
       </c>
       <c r="G126" s="82" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I126" s="25"/>
       <c r="J126" s="26" t="s">
@@ -6806,7 +6803,7 @@
         <v>134</v>
       </c>
       <c r="G129" s="82" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I129" s="26" t="s">
         <v>205</v>
@@ -7087,7 +7084,7 @@
         <v>134</v>
       </c>
       <c r="G141" s="82" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I141" s="30" t="s">
         <v>237</v>
@@ -7226,7 +7223,7 @@
         <v>134</v>
       </c>
       <c r="G147" s="82" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I147" s="25"/>
       <c r="J147" s="26" t="s">
@@ -7320,7 +7317,7 @@
         <v>134</v>
       </c>
       <c r="G151" s="82" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H151" s="26" t="s">
         <v>258</v>
@@ -7616,7 +7613,7 @@
         <v>289</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>290</v>
@@ -7625,7 +7622,7 @@
         <v>31</v>
       </c>
       <c r="G165" s="82" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I165" s="25"/>
     </row>
@@ -7730,7 +7727,7 @@
         <v>292</v>
       </c>
       <c r="G170" s="82" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I170" s="25"/>
       <c r="J170" s="26" t="s">
@@ -7770,10 +7767,10 @@
         <v>31</v>
       </c>
       <c r="G172" s="82" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H172" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="I172" s="25"/>
     </row>
@@ -7947,10 +7944,10 @@
         <v>25</v>
       </c>
       <c r="G180" s="82" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H180" s="79" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="I180" s="25"/>
     </row>
@@ -8309,7 +8306,7 @@
         <v>31</v>
       </c>
       <c r="G197" s="82" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I197" s="25"/>
     </row>
@@ -8387,7 +8384,7 @@
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="12" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E201" s="23"/>
       <c r="F201" s="74" t="s">
@@ -8395,7 +8392,7 @@
       </c>
       <c r="G201" s="24"/>
       <c r="H201" s="12" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I201" s="25"/>
     </row>
@@ -8683,10 +8680,10 @@
         <v>31</v>
       </c>
       <c r="G212" s="82" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H212" s="79" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="I212" s="25"/>
     </row>
@@ -9249,7 +9246,7 @@
         <v>136</v>
       </c>
       <c r="G237" s="82" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H237" s="26" t="s">
         <v>466</v>
@@ -9324,7 +9321,7 @@
         <v>31</v>
       </c>
       <c r="G240" s="82" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="I240" s="25"/>
     </row>
@@ -9346,7 +9343,7 @@
         <v>31</v>
       </c>
       <c r="G241" s="82" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I241" s="25"/>
     </row>
@@ -9436,7 +9433,7 @@
         <v>142</v>
       </c>
       <c r="G245" s="82" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H245" s="26" t="s">
         <v>480</v>
@@ -9466,7 +9463,7 @@
         <v>142</v>
       </c>
       <c r="G246" s="82" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I246" s="30" t="s">
         <v>481</v>
@@ -9558,7 +9555,7 @@
         <v>142</v>
       </c>
       <c r="G250" s="82" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H250" s="26" t="s">
         <v>493</v>
@@ -10059,15 +10056,16 @@
         <v>70</v>
       </c>
       <c r="C271" s="23"/>
-      <c r="D271" s="21" t="s">
-        <v>545</v>
+      <c r="D271" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="E271" s="23"/>
-      <c r="F271" s="26" t="s">
+      <c r="F271" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G271" s="27" t="s">
-        <v>546</v>
+      <c r="G271" s="27"/>
+      <c r="H271" t="s">
+        <v>1106</v>
       </c>
       <c r="I271" s="25"/>
     </row>
@@ -10079,23 +10077,23 @@
         <v>71</v>
       </c>
       <c r="C272" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="D272" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="E272" s="28" t="s">
         <v>547</v>
-      </c>
-      <c r="D272" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="E272" s="28" t="s">
-        <v>549</v>
       </c>
       <c r="F272" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G272" s="24"/>
       <c r="I272" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J272" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="13">
@@ -10110,18 +10108,18 @@
         <v>20</v>
       </c>
       <c r="E273" s="28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F273" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G273" s="24"/>
       <c r="H273" s="26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I273" s="25"/>
       <c r="J273" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="13">
@@ -10135,7 +10133,7 @@
         <v>86</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E274" s="23"/>
       <c r="G274" s="24"/>
@@ -10150,7 +10148,7 @@
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E275" s="23"/>
       <c r="G275" s="24"/>
@@ -10164,10 +10162,10 @@
         <v>75</v>
       </c>
       <c r="C276" s="29" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E276" s="23"/>
       <c r="G276" s="24"/>
@@ -10182,7 +10180,7 @@
       </c>
       <c r="C277" s="23"/>
       <c r="D277" s="21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E277" s="23"/>
       <c r="G277" s="24"/>
@@ -10207,7 +10205,7 @@
       </c>
       <c r="G278" s="24"/>
       <c r="H278" s="26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I278" s="25"/>
     </row>
@@ -10220,7 +10218,7 @@
       </c>
       <c r="C279" s="23"/>
       <c r="D279" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E279" s="23"/>
       <c r="G279" s="24"/>
@@ -10237,14 +10235,14 @@
         <v>518</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E280" s="23"/>
       <c r="F280" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G280" s="82" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="I280" s="25"/>
     </row>
@@ -10259,14 +10257,14 @@
         <v>518</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E281" s="23"/>
       <c r="F281" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G281" s="82" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="I281" s="25"/>
     </row>
@@ -10281,14 +10279,14 @@
         <v>402</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E282" s="23"/>
       <c r="F282" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G282" s="82" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="I282" s="25"/>
     </row>
@@ -10303,11 +10301,11 @@
         <v>34</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E283" s="23"/>
       <c r="G283" s="82" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="I283" s="25"/>
     </row>
@@ -10320,7 +10318,7 @@
       </c>
       <c r="C284" s="23"/>
       <c r="D284" s="21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E284" s="23"/>
       <c r="G284" s="24"/>
@@ -10343,7 +10341,7 @@
       </c>
       <c r="G285" s="24"/>
       <c r="H285" s="26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I285" s="25"/>
     </row>
@@ -10364,7 +10362,7 @@
       </c>
       <c r="G286" s="24"/>
       <c r="H286" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I286" s="25"/>
     </row>
@@ -10377,7 +10375,7 @@
       </c>
       <c r="C287" s="23"/>
       <c r="D287" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E287" s="23"/>
       <c r="G287" s="24"/>
@@ -10392,7 +10390,7 @@
       </c>
       <c r="C288" s="23"/>
       <c r="D288" s="21" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E288" s="23"/>
       <c r="G288" s="24"/>
@@ -10409,14 +10407,14 @@
         <v>112</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E289" s="23"/>
       <c r="F289" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G289" s="82" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I289" s="25"/>
     </row>
@@ -10439,7 +10437,7 @@
       </c>
       <c r="G290" s="24"/>
       <c r="H290" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I290" s="25"/>
     </row>
@@ -10454,7 +10452,7 @@
         <v>342</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E291" s="23"/>
       <c r="G291" s="24"/>
@@ -10468,7 +10466,7 @@
         <v>91</v>
       </c>
       <c r="C292" s="29" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D292" s="21" t="s">
         <v>20</v>
@@ -10478,10 +10476,10 @@
         <v>25</v>
       </c>
       <c r="G292" s="82" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H292" s="26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I292" s="25"/>
     </row>
@@ -10494,14 +10492,14 @@
       </c>
       <c r="C293" s="23"/>
       <c r="D293" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E293" s="23"/>
       <c r="F293" t="s">
         <v>31</v>
       </c>
       <c r="G293" s="82" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I293" s="25"/>
     </row>
@@ -10514,7 +10512,7 @@
       </c>
       <c r="C294" s="23"/>
       <c r="D294" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E294" s="23"/>
       <c r="G294" s="24"/>
@@ -10529,7 +10527,7 @@
       </c>
       <c r="C295" s="23"/>
       <c r="D295" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E295" s="23"/>
       <c r="G295" s="24"/>
@@ -10543,7 +10541,7 @@
         <v>95</v>
       </c>
       <c r="C296" s="29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D296" s="21" t="s">
         <v>20</v>
@@ -10554,13 +10552,13 @@
       </c>
       <c r="G296" s="24"/>
       <c r="H296" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="I296" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="J296" s="26" t="s">
         <v>575</v>
-      </c>
-      <c r="I296" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="J296" s="26" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="13">
@@ -10571,17 +10569,17 @@
         <v>96</v>
       </c>
       <c r="C297" s="29" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E297" s="23"/>
       <c r="F297" t="s">
         <v>31</v>
       </c>
       <c r="G297" s="82" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I297" s="25"/>
     </row>
@@ -10594,14 +10592,14 @@
       </c>
       <c r="C298" s="23"/>
       <c r="D298" s="21" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E298" s="23"/>
       <c r="F298" t="s">
         <v>31</v>
       </c>
       <c r="G298" s="82" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I298" s="25"/>
     </row>
@@ -10613,10 +10611,10 @@
         <v>98</v>
       </c>
       <c r="C299" s="29" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E299" s="23"/>
       <c r="F299" s="26" t="s">
@@ -10625,7 +10623,7 @@
       <c r="G299" s="24"/>
       <c r="I299" s="25"/>
       <c r="J299" s="52" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="13">
@@ -10636,7 +10634,7 @@
         <v>99</v>
       </c>
       <c r="C300" s="29" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D300" s="21" t="s">
         <v>20</v>
@@ -10647,13 +10645,13 @@
       </c>
       <c r="G300" s="24"/>
       <c r="H300" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="I300" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="J300" s="26" t="s">
         <v>585</v>
-      </c>
-      <c r="I300" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="J300" s="26" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="13">
@@ -10672,10 +10670,10 @@
         <v>25</v>
       </c>
       <c r="G301" s="27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H301" s="26" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I301" s="25"/>
     </row>
@@ -10687,10 +10685,10 @@
         <v>101</v>
       </c>
       <c r="C302" s="29" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E302" s="28" t="s">
         <v>44</v>
@@ -10699,7 +10697,7 @@
         <v>31</v>
       </c>
       <c r="G302" s="27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I302" s="25"/>
     </row>
@@ -10711,10 +10709,10 @@
         <v>102</v>
       </c>
       <c r="C303" s="29" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E303" s="23"/>
       <c r="G303" s="24"/>
@@ -10729,7 +10727,7 @@
       </c>
       <c r="C304" s="23"/>
       <c r="D304" s="21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E304" s="23"/>
       <c r="G304" s="24"/>
@@ -10746,10 +10744,10 @@
         <v>34</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E305" s="28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G305" s="24"/>
       <c r="I305" s="25"/>
@@ -10765,14 +10763,14 @@
         <v>59</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E306" s="23"/>
       <c r="F306" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G306" s="82" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I306" s="25"/>
     </row>
@@ -10793,7 +10791,7 @@
       </c>
       <c r="G307" s="24"/>
       <c r="H307" s="26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I307" s="25"/>
     </row>
@@ -10806,7 +10804,7 @@
       </c>
       <c r="C308" s="23"/>
       <c r="D308" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E308" s="23"/>
       <c r="G308" s="24"/>
@@ -10823,7 +10821,7 @@
         <v>352</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E309" s="23"/>
       <c r="G309" s="24"/>
@@ -10838,7 +10836,7 @@
       </c>
       <c r="C310" s="23"/>
       <c r="D310" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E310" s="23"/>
       <c r="G310" s="24"/>
@@ -10862,10 +10860,10 @@
         <v>142</v>
       </c>
       <c r="G311" s="82" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H311" s="26" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I311" s="25"/>
     </row>
@@ -10878,7 +10876,7 @@
       </c>
       <c r="C312" s="23"/>
       <c r="D312" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E312" s="23"/>
       <c r="G312" s="24"/>
@@ -10892,17 +10890,17 @@
         <v>112</v>
       </c>
       <c r="C313" s="29" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E313" s="23"/>
       <c r="F313" t="s">
         <v>31</v>
       </c>
       <c r="G313" s="82" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I313" s="25"/>
     </row>
@@ -10922,10 +10920,10 @@
         <v>142</v>
       </c>
       <c r="G314" s="82" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H314" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I314" s="25"/>
     </row>
@@ -10938,7 +10936,7 @@
       </c>
       <c r="C315" s="23"/>
       <c r="D315" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E315" s="23"/>
       <c r="G315" s="24"/>
@@ -10955,14 +10953,14 @@
         <v>454</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E316" s="23"/>
       <c r="F316" t="s">
         <v>31</v>
       </c>
       <c r="G316" s="82" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I316" s="25"/>
     </row>
@@ -10975,14 +10973,14 @@
       </c>
       <c r="C317" s="23"/>
       <c r="D317" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E317" s="23"/>
       <c r="F317" t="s">
         <v>31</v>
       </c>
       <c r="G317" s="82" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I317" s="25"/>
     </row>
@@ -10997,7 +10995,7 @@
         <v>78</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E318" s="23"/>
       <c r="G318" s="24"/>
@@ -11012,7 +11010,7 @@
       </c>
       <c r="C319" s="23"/>
       <c r="D319" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E319" s="23"/>
       <c r="G319" s="24"/>
@@ -11027,7 +11025,7 @@
       </c>
       <c r="C320" s="23"/>
       <c r="D320" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E320" s="23"/>
       <c r="G320" s="24"/>
@@ -11041,10 +11039,10 @@
         <v>120</v>
       </c>
       <c r="C321" s="29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E321" s="23"/>
       <c r="G321" s="24"/>
@@ -11059,10 +11057,10 @@
       </c>
       <c r="C322" s="23"/>
       <c r="D322" s="21" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E322" s="28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G322" s="24"/>
       <c r="I322" s="25"/>
@@ -11084,7 +11082,7 @@
       </c>
       <c r="G323" s="24"/>
       <c r="H323" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I323" s="25"/>
     </row>
@@ -11096,7 +11094,7 @@
         <v>123</v>
       </c>
       <c r="C324" s="29" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D324" s="21" t="s">
         <v>20</v>
@@ -11106,10 +11104,10 @@
         <v>142</v>
       </c>
       <c r="G324" s="82" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H324" s="26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I324" s="25"/>
     </row>
@@ -11132,7 +11130,7 @@
       </c>
       <c r="G325" s="24"/>
       <c r="H325" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I325" s="25"/>
     </row>
@@ -11144,7 +11142,7 @@
         <v>125</v>
       </c>
       <c r="C326" s="29" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D326" s="21" t="s">
         <v>20</v>
@@ -11155,7 +11153,7 @@
       </c>
       <c r="G326" s="24"/>
       <c r="H326" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I326" s="25"/>
     </row>
@@ -11170,14 +11168,14 @@
         <v>397</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E327" s="23"/>
       <c r="F327" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G327" s="27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I327" s="25"/>
     </row>
@@ -11189,7 +11187,7 @@
         <v>127</v>
       </c>
       <c r="C328" s="29" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D328" s="21" t="s">
         <v>20</v>
@@ -11199,10 +11197,10 @@
         <v>142</v>
       </c>
       <c r="G328" s="53" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H328" s="51" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I328" s="25"/>
       <c r="J328" s="41" t="s">
@@ -11217,7 +11215,7 @@
         <v>128</v>
       </c>
       <c r="C329" s="29" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D329" s="21" t="s">
         <v>20</v>
@@ -11227,10 +11225,10 @@
         <v>142</v>
       </c>
       <c r="G329" s="54" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H329" s="52" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I329" s="25"/>
       <c r="J329" s="41" t="s">
@@ -11245,10 +11243,10 @@
         <v>129</v>
       </c>
       <c r="C330" s="29" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E330" s="23"/>
       <c r="G330" s="24"/>
@@ -11262,17 +11260,17 @@
         <v>130</v>
       </c>
       <c r="C331" s="29" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E331" s="23"/>
       <c r="F331" s="26" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G331" s="55" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I331" s="25"/>
     </row>
@@ -11285,18 +11283,18 @@
       </c>
       <c r="C332" s="23"/>
       <c r="D332" s="21" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E332" s="23"/>
       <c r="F332" s="26" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G332" s="54" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I332" s="25"/>
       <c r="J332" s="56" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="13">
@@ -11316,7 +11314,7 @@
       </c>
       <c r="G333" s="24"/>
       <c r="H333" s="26" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I333" s="25"/>
     </row>
@@ -11337,7 +11335,7 @@
       </c>
       <c r="G334" s="24"/>
       <c r="H334" s="26" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I334" s="25"/>
     </row>
@@ -11349,7 +11347,7 @@
         <v>134</v>
       </c>
       <c r="C335" s="29" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D335" s="21" t="s">
         <v>20</v>
@@ -11360,7 +11358,7 @@
       </c>
       <c r="G335" s="24"/>
       <c r="H335" s="26" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I335" s="25"/>
     </row>
@@ -11375,7 +11373,7 @@
         <v>34</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E336" s="23"/>
       <c r="G336" s="24"/>
@@ -11392,16 +11390,16 @@
         <v>105</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E337" s="23"/>
       <c r="F337" s="26" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G337" s="24"/>
       <c r="I337" s="25"/>
       <c r="J337" s="41" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="13">
@@ -11413,7 +11411,7 @@
       </c>
       <c r="C338" s="23"/>
       <c r="D338" s="21" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E338" s="23"/>
       <c r="G338" s="24"/>
@@ -11436,11 +11434,11 @@
       </c>
       <c r="G339" s="24"/>
       <c r="H339" s="26" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I339" s="25"/>
       <c r="J339" s="26" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="15">
@@ -11459,10 +11457,10 @@
         <v>142</v>
       </c>
       <c r="G340" s="27" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H340" s="52" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I340" s="25"/>
     </row>
@@ -11474,10 +11472,10 @@
         <v>140</v>
       </c>
       <c r="C341" s="29" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E341" s="23"/>
       <c r="G341" s="24"/>
@@ -11491,7 +11489,7 @@
         <v>141</v>
       </c>
       <c r="C342" s="29" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D342" s="21" t="s">
         <v>20</v>
@@ -11502,7 +11500,7 @@
       </c>
       <c r="G342" s="24"/>
       <c r="H342" s="26" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I342" s="25"/>
     </row>
@@ -11515,7 +11513,7 @@
       </c>
       <c r="C343" s="23"/>
       <c r="D343" s="21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E343" s="23"/>
       <c r="G343" s="24"/>
@@ -11532,7 +11530,7 @@
         <v>449</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E344" s="23"/>
       <c r="G344" s="24"/>
@@ -11546,7 +11544,7 @@
         <v>144</v>
       </c>
       <c r="C345" s="29" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D345" s="21" t="s">
         <v>20</v>
@@ -11557,7 +11555,7 @@
       </c>
       <c r="G345" s="24"/>
       <c r="H345" s="26" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I345" s="25"/>
     </row>
@@ -11572,7 +11570,7 @@
         <v>34</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E346" s="23"/>
       <c r="G346" s="24"/>
@@ -11586,10 +11584,10 @@
         <v>146</v>
       </c>
       <c r="C347" s="29" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E347" s="23"/>
       <c r="G347" s="24"/>
@@ -11606,7 +11604,7 @@
         <v>78</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E348" s="23"/>
       <c r="G348" s="24"/>
@@ -11631,7 +11629,7 @@
       </c>
       <c r="G349" s="24"/>
       <c r="H349" s="26" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I349" s="25"/>
     </row>
@@ -11652,7 +11650,7 @@
       </c>
       <c r="G350" s="24"/>
       <c r="H350" s="26" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I350" s="25"/>
     </row>
@@ -11665,14 +11663,14 @@
       </c>
       <c r="C351" s="23"/>
       <c r="D351" s="21" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E351" s="23"/>
       <c r="F351" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G351" s="82" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I351" s="25"/>
     </row>
@@ -11685,14 +11683,14 @@
       </c>
       <c r="C352" s="23"/>
       <c r="D352" s="21" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E352" s="23"/>
       <c r="F352" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G352" s="57" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I352" s="25"/>
       <c r="J352" s="41" t="s">
@@ -11716,7 +11714,7 @@
       </c>
       <c r="G353" s="24"/>
       <c r="H353" s="21" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I353" s="25"/>
     </row>
@@ -11729,7 +11727,7 @@
       </c>
       <c r="C354" s="23"/>
       <c r="D354" s="21" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E354" s="23"/>
       <c r="G354" s="24"/>
@@ -11744,13 +11742,13 @@
       </c>
       <c r="C355" s="23"/>
       <c r="D355" s="21" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E355" s="28"/>
       <c r="G355" s="24"/>
       <c r="I355" s="25"/>
       <c r="J355" s="26" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="356" spans="1:10" ht="13">
@@ -11762,13 +11760,13 @@
       </c>
       <c r="C356" s="23"/>
       <c r="D356" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E356" s="23"/>
       <c r="G356" s="24"/>
       <c r="I356" s="25"/>
       <c r="J356" s="26" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="357" spans="1:10" ht="13">
@@ -11780,7 +11778,7 @@
       </c>
       <c r="C357" s="23"/>
       <c r="D357" s="21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E357" s="23"/>
       <c r="G357" s="24"/>
@@ -11803,7 +11801,7 @@
       </c>
       <c r="G358" s="24"/>
       <c r="H358" s="26" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I358" s="25"/>
     </row>
@@ -11815,13 +11813,13 @@
         <v>158</v>
       </c>
       <c r="C359" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="D359" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="E359" s="28" t="s">
         <v>674</v>
-      </c>
-      <c r="D359" s="21" t="s">
-        <v>675</v>
-      </c>
-      <c r="E359" s="28" t="s">
-        <v>676</v>
       </c>
       <c r="G359" s="24"/>
       <c r="I359" s="25"/>
@@ -11835,7 +11833,7 @@
       </c>
       <c r="C360" s="23"/>
       <c r="D360" s="21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E360" s="23"/>
       <c r="G360" s="24"/>
@@ -11852,20 +11850,20 @@
         <v>34</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E361" s="23"/>
       <c r="F361" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G361" s="82" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="I361" s="30" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J361" s="58" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="362" spans="1:10" ht="13">
@@ -11877,14 +11875,14 @@
       </c>
       <c r="C362" s="23"/>
       <c r="D362" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E362" s="23"/>
       <c r="F362" t="s">
         <v>31</v>
       </c>
       <c r="G362" s="82" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I362" s="25"/>
     </row>
@@ -11897,14 +11895,14 @@
       </c>
       <c r="C363" s="23"/>
       <c r="D363" s="21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E363" s="23"/>
       <c r="F363" t="s">
         <v>31</v>
       </c>
       <c r="G363" s="82" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I363" s="25"/>
     </row>
@@ -11916,10 +11914,10 @@
         <v>163</v>
       </c>
       <c r="C364" s="29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E364" s="23"/>
       <c r="F364" s="26" t="s">
@@ -11928,7 +11926,7 @@
       <c r="G364" s="24"/>
       <c r="I364" s="25"/>
       <c r="J364" s="26" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="365" spans="1:10" ht="13">
@@ -11949,14 +11947,14 @@
         <v>136</v>
       </c>
       <c r="G365" s="82" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H365" s="26" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I365" s="25"/>
       <c r="J365" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="366" spans="1:10" ht="13">
@@ -11968,7 +11966,7 @@
       </c>
       <c r="C366" s="23"/>
       <c r="D366" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E366" s="23"/>
       <c r="G366" s="24"/>
@@ -11976,13 +11974,13 @@
     </row>
     <row r="367" spans="1:10" ht="13">
       <c r="A367" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B367" s="22">
         <v>1</v>
       </c>
       <c r="C367" s="29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D367" s="21" t="s">
         <v>20</v>
@@ -11993,20 +11991,20 @@
       </c>
       <c r="G367" s="24"/>
       <c r="H367" s="51" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I367" s="25"/>
     </row>
     <row r="368" spans="1:10" ht="13">
       <c r="A368" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B368" s="22">
         <v>2</v>
       </c>
       <c r="C368" s="23"/>
       <c r="D368" s="21" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E368" s="23"/>
       <c r="G368" s="24"/>
@@ -12014,7 +12012,7 @@
     </row>
     <row r="369" spans="1:10" ht="13">
       <c r="A369" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B369" s="22">
         <v>3</v>
@@ -12029,13 +12027,13 @@
       </c>
       <c r="G369" s="24"/>
       <c r="H369" s="26" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I369" s="25"/>
     </row>
     <row r="370" spans="1:10" ht="13">
       <c r="A370" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B370" s="22">
         <v>4</v>
@@ -12049,23 +12047,23 @@
         <v>142</v>
       </c>
       <c r="G370" s="82" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H370" s="26" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I370" s="25"/>
     </row>
     <row r="371" spans="1:10" ht="13">
       <c r="A371" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B371" s="22">
         <v>5</v>
       </c>
       <c r="C371" s="23"/>
       <c r="D371" s="21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E371" s="23"/>
       <c r="G371" s="24"/>
@@ -12073,14 +12071,14 @@
     </row>
     <row r="372" spans="1:10" ht="13">
       <c r="A372" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B372" s="22">
         <v>6</v>
       </c>
       <c r="C372" s="23"/>
       <c r="D372" s="21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E372" s="23"/>
       <c r="G372" s="24"/>
@@ -12088,14 +12086,14 @@
     </row>
     <row r="373" spans="1:10" ht="13">
       <c r="A373" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B373" s="22">
         <v>7</v>
       </c>
       <c r="C373" s="23"/>
       <c r="D373" s="21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E373" s="23"/>
       <c r="G373" s="24"/>
@@ -12103,7 +12101,7 @@
     </row>
     <row r="374" spans="1:10" ht="13">
       <c r="A374" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B374" s="22">
         <v>8</v>
@@ -12112,7 +12110,7 @@
         <v>331</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E374" s="23"/>
       <c r="G374" s="24"/>
@@ -12120,7 +12118,7 @@
     </row>
     <row r="375" spans="1:10" ht="13">
       <c r="A375" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B375" s="22">
         <v>9</v>
@@ -12135,62 +12133,62 @@
       </c>
       <c r="G375" s="24"/>
       <c r="H375" s="26" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I375" s="25"/>
     </row>
     <row r="376" spans="1:10" ht="15">
       <c r="A376" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B376" s="22">
         <v>10</v>
       </c>
       <c r="C376" s="29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D376" s="21" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E376" s="23"/>
       <c r="F376" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G376" s="54" t="s">
+        <v>699</v>
+      </c>
+      <c r="I376" s="37" t="s">
+        <v>700</v>
+      </c>
+      <c r="J376" s="26" t="s">
         <v>701</v>
-      </c>
-      <c r="I376" s="37" t="s">
-        <v>702</v>
-      </c>
-      <c r="J376" s="26" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="377" spans="1:10" ht="15">
       <c r="A377" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B377" s="22">
         <v>11</v>
       </c>
       <c r="C377" s="29" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D377" s="21" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E377" s="23"/>
       <c r="F377" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G377" s="54" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I377" s="25"/>
     </row>
     <row r="378" spans="1:10" ht="13">
       <c r="A378" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B378" s="22">
         <v>12</v>
@@ -12199,7 +12197,7 @@
         <v>78</v>
       </c>
       <c r="D378" s="21" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E378" s="23"/>
       <c r="G378" s="24"/>
@@ -12207,16 +12205,16 @@
     </row>
     <row r="379" spans="1:10" ht="13">
       <c r="A379" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B379" s="22">
         <v>13</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D379" s="21" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E379" s="23"/>
       <c r="G379" s="24"/>
@@ -12224,21 +12222,21 @@
     </row>
     <row r="380" spans="1:10" ht="15">
       <c r="A380" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B380" s="22">
         <v>14</v>
       </c>
       <c r="C380" s="23"/>
       <c r="D380" s="21" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E380" s="23"/>
       <c r="F380" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G380" s="43" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H380" s="52"/>
       <c r="I380" s="25"/>
@@ -12246,14 +12244,14 @@
     </row>
     <row r="381" spans="1:10" ht="13">
       <c r="A381" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B381" s="22">
         <v>15</v>
       </c>
       <c r="C381" s="23"/>
       <c r="D381" s="21" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E381" s="23"/>
       <c r="G381" s="24"/>
@@ -12261,7 +12259,7 @@
     </row>
     <row r="382" spans="1:10" ht="13">
       <c r="A382" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B382" s="22">
         <v>16</v>
@@ -12277,65 +12275,65 @@
         <v>142</v>
       </c>
       <c r="G382" s="82" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H382" s="79" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I382" s="25"/>
     </row>
     <row r="383" spans="1:10" ht="13">
       <c r="A383" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B383" s="22">
         <v>17</v>
       </c>
       <c r="C383" s="29" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E383" s="23"/>
       <c r="F383" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G383" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="I383" s="25"/>
     </row>
     <row r="384" spans="1:10" ht="13">
       <c r="A384" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B384" s="22">
         <v>18</v>
       </c>
       <c r="C384" s="23"/>
       <c r="D384" s="21" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E384" s="23"/>
       <c r="F384" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G384" s="82" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I384" s="25"/>
     </row>
     <row r="385" spans="1:10" ht="13">
       <c r="A385" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B385" s="22">
         <v>19</v>
       </c>
       <c r="C385" s="23"/>
       <c r="D385" s="21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E385" s="23"/>
       <c r="G385" s="24"/>
@@ -12343,7 +12341,7 @@
     </row>
     <row r="386" spans="1:10" ht="13">
       <c r="A386" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B386" s="22">
         <v>20</v>
@@ -12360,13 +12358,13 @@
       </c>
       <c r="G386" s="24"/>
       <c r="H386" s="26" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I386" s="25"/>
     </row>
     <row r="387" spans="1:10" ht="13">
       <c r="A387" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B387" s="22">
         <v>21</v>
@@ -12375,20 +12373,20 @@
         <v>328</v>
       </c>
       <c r="D387" s="21" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E387" s="23"/>
       <c r="F387" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G387" s="27" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I387" s="25"/>
     </row>
     <row r="388" spans="1:10" ht="13">
       <c r="A388" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B388" s="22">
         <v>22</v>
@@ -12397,7 +12395,7 @@
         <v>526</v>
       </c>
       <c r="D388" s="21" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E388" s="23"/>
       <c r="G388" s="24"/>
@@ -12405,16 +12403,16 @@
     </row>
     <row r="389" spans="1:10" ht="13">
       <c r="A389" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B389" s="22">
         <v>24</v>
       </c>
       <c r="C389" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D389" s="21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E389" s="23"/>
       <c r="F389" s="26" t="s">
@@ -12423,12 +12421,12 @@
       <c r="G389" s="24"/>
       <c r="I389" s="25"/>
       <c r="J389" s="26" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="390" spans="1:10" ht="13">
       <c r="A390" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B390" s="22">
         <v>25</v>
@@ -12445,30 +12443,30 @@
       </c>
       <c r="G390" s="24"/>
       <c r="H390" s="26" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I390" s="25"/>
       <c r="J390" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="13">
       <c r="A391" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B391" s="22">
         <v>26</v>
       </c>
       <c r="C391" s="23"/>
       <c r="D391" s="21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E391" s="23"/>
       <c r="F391" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G391" s="35" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I391" s="25"/>
       <c r="J391" s="41" t="s">
@@ -12477,21 +12475,21 @@
     </row>
     <row r="392" spans="1:10" ht="13">
       <c r="A392" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B392" s="22">
         <v>27</v>
       </c>
       <c r="C392" s="23"/>
       <c r="D392" s="21" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E392" s="23"/>
       <c r="F392" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G392" s="57" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I392" s="25"/>
       <c r="J392" s="41" t="s">
@@ -12500,16 +12498,16 @@
     </row>
     <row r="393" spans="1:10" ht="13">
       <c r="A393" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B393" s="22">
         <v>28</v>
       </c>
       <c r="C393" s="29" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D393" s="21" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E393" s="23"/>
       <c r="G393" s="24"/>
@@ -12517,14 +12515,14 @@
     </row>
     <row r="394" spans="1:10" ht="13">
       <c r="A394" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B394" s="22">
         <v>29</v>
       </c>
       <c r="C394" s="23"/>
       <c r="D394" s="21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E394" s="23"/>
       <c r="G394" s="24"/>
@@ -12532,14 +12530,14 @@
     </row>
     <row r="395" spans="1:10" ht="13">
       <c r="A395" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B395" s="22">
         <v>30</v>
       </c>
       <c r="C395" s="23"/>
       <c r="D395" s="21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E395" s="23"/>
       <c r="G395" s="24"/>
@@ -12547,7 +12545,7 @@
     </row>
     <row r="396" spans="1:10" ht="13">
       <c r="A396" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B396" s="22">
         <v>31</v>
@@ -12556,7 +12554,7 @@
         <v>331</v>
       </c>
       <c r="D396" s="21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E396" s="23"/>
       <c r="G396" s="24"/>
@@ -12564,14 +12562,14 @@
     </row>
     <row r="397" spans="1:10" ht="13">
       <c r="A397" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B397" s="22">
         <v>1</v>
       </c>
       <c r="C397" s="23"/>
       <c r="D397" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E397" s="28" t="s">
         <v>173</v>
@@ -12580,92 +12578,92 @@
         <v>142</v>
       </c>
       <c r="G397" s="35" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I397" s="25"/>
     </row>
     <row r="398" spans="1:10" ht="13">
       <c r="A398" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B398" s="22">
         <v>2</v>
       </c>
       <c r="C398" s="23"/>
       <c r="D398" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E398" s="23"/>
       <c r="F398" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G398" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I398" s="25"/>
     </row>
     <row r="399" spans="1:10" ht="13">
       <c r="A399" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B399" s="22">
         <v>3</v>
       </c>
       <c r="C399" s="29" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D399" s="21" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E399" s="23"/>
       <c r="F399" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="G399" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="I399" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="G399" s="27" t="s">
+      <c r="J399" s="26" t="s">
         <v>741</v>
-      </c>
-      <c r="I399" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="J399" s="26" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="400" spans="1:10" ht="15">
       <c r="A400" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B400" s="22">
         <v>4</v>
       </c>
       <c r="C400" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D400" s="21" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E400" s="23"/>
       <c r="F400" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G400" s="82" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I400" s="25"/>
       <c r="J400" s="52" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="401" spans="1:10" ht="13">
       <c r="A401" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B401" s="22">
         <v>5</v>
       </c>
       <c r="C401" s="23"/>
       <c r="D401" s="21" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E401" s="28" t="s">
         <v>177</v>
@@ -12674,45 +12672,45 @@
         <v>142</v>
       </c>
       <c r="G401" s="35" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I401" s="25"/>
       <c r="J401" s="26" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="402" spans="1:10" ht="13">
       <c r="A402" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B402" s="22">
         <v>6</v>
       </c>
       <c r="C402" s="23"/>
       <c r="D402" s="12" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E402" s="23"/>
       <c r="F402" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G402" s="82" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I402" s="25"/>
     </row>
     <row r="403" spans="1:10" ht="13">
       <c r="A403" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B403" s="22">
         <v>7</v>
       </c>
       <c r="C403" s="29" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D403" s="21" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E403" s="23"/>
       <c r="G403" s="24"/>
@@ -12720,7 +12718,7 @@
     </row>
     <row r="404" spans="1:10" ht="13">
       <c r="A404" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B404" s="22">
         <v>8</v>
@@ -12731,30 +12729,30 @@
       </c>
       <c r="E404" s="23"/>
       <c r="F404" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G404" s="82" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H404" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="I404" s="59" t="s">
+        <v>750</v>
+      </c>
+      <c r="J404" s="26" t="s">
         <v>751</v>
-      </c>
-      <c r="I404" s="59" t="s">
-        <v>752</v>
-      </c>
-      <c r="J404" s="26" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="405" spans="1:10" ht="13">
       <c r="A405" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B405" s="22">
         <v>9</v>
       </c>
       <c r="C405" s="29" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D405" s="21" t="s">
         <v>20</v>
@@ -12763,33 +12761,33 @@
         <v>93</v>
       </c>
       <c r="F405" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G405" s="82" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H405" s="60" t="s">
+        <v>753</v>
+      </c>
+      <c r="I405" s="59" t="s">
+        <v>754</v>
+      </c>
+      <c r="J405" s="26" t="s">
         <v>755</v>
-      </c>
-      <c r="I405" s="59" t="s">
-        <v>756</v>
-      </c>
-      <c r="J405" s="26" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="406" spans="1:10" ht="13">
       <c r="A406" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B406" s="22">
         <v>10</v>
       </c>
       <c r="C406" s="29" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D406" s="21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E406" s="23"/>
       <c r="G406" s="24"/>
@@ -12797,13 +12795,13 @@
     </row>
     <row r="407" spans="1:10" ht="13">
       <c r="A407" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B407" s="22">
         <v>11</v>
       </c>
       <c r="C407" s="29" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D407" s="21" t="s">
         <v>20</v>
@@ -12814,22 +12812,22 @@
       </c>
       <c r="G407" s="24"/>
       <c r="H407" s="26" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I407" s="25"/>
     </row>
     <row r="408" spans="1:10" ht="13">
       <c r="A408" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B408" s="22">
         <v>12</v>
       </c>
       <c r="C408" s="29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D408" s="21" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E408" s="23"/>
       <c r="G408" s="24"/>
@@ -12837,7 +12835,7 @@
     </row>
     <row r="409" spans="1:10" ht="15">
       <c r="A409" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B409" s="22">
         <v>13</v>
@@ -12852,13 +12850,13 @@
       </c>
       <c r="G409" s="24"/>
       <c r="H409" s="52" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I409" s="25"/>
     </row>
     <row r="410" spans="1:10" ht="15">
       <c r="A410" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B410" s="22">
         <v>14</v>
@@ -12873,19 +12871,19 @@
       </c>
       <c r="G410" s="24"/>
       <c r="H410" s="52" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I410" s="25"/>
     </row>
     <row r="411" spans="1:10" ht="15">
       <c r="A411" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B411" s="22">
         <v>15</v>
       </c>
       <c r="C411" s="29" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D411" s="21" t="s">
         <v>20</v>
@@ -12895,16 +12893,16 @@
         <v>142</v>
       </c>
       <c r="G411" s="82" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H411" s="52" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I411" s="25"/>
     </row>
     <row r="412" spans="1:10" ht="13">
       <c r="A412" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B412" s="22">
         <v>16</v>
@@ -12919,33 +12917,33 @@
       </c>
       <c r="G412" s="24"/>
       <c r="H412" s="51" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I412" s="25"/>
     </row>
     <row r="413" spans="1:10" ht="13">
       <c r="A413" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B413" s="22">
         <v>17</v>
       </c>
       <c r="C413" s="23"/>
       <c r="D413" s="21" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E413" s="23"/>
       <c r="F413" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G413" s="82" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I413" s="25"/>
     </row>
     <row r="414" spans="1:10" ht="15">
       <c r="A414" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B414" s="22">
         <v>18</v>
@@ -12959,23 +12957,23 @@
         <v>142</v>
       </c>
       <c r="G414" s="43" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H414" s="51" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I414" s="25"/>
     </row>
     <row r="415" spans="1:10" ht="13">
       <c r="A415" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B415" s="22">
         <v>19</v>
       </c>
       <c r="C415" s="23"/>
       <c r="D415" s="21" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E415" s="23"/>
       <c r="G415" s="24"/>
@@ -12983,14 +12981,14 @@
     </row>
     <row r="416" spans="1:10" ht="13">
       <c r="A416" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B416" s="22">
         <v>20</v>
       </c>
       <c r="C416" s="23"/>
       <c r="D416" s="21" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E416" s="23"/>
       <c r="F416" s="26" t="s">
@@ -12998,16 +12996,16 @@
       </c>
       <c r="G416" s="24"/>
       <c r="H416" s="26" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I416" s="25"/>
       <c r="J416" s="26" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="417" spans="1:10" ht="14">
       <c r="A417" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B417" s="22">
         <v>21</v>
@@ -13020,45 +13018,45 @@
       </c>
       <c r="E417" s="23"/>
       <c r="F417" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G417" s="24"/>
       <c r="H417" s="61" t="s">
+        <v>774</v>
+      </c>
+      <c r="I417" s="59" t="s">
+        <v>775</v>
+      </c>
+      <c r="J417" s="26" t="s">
         <v>776</v>
-      </c>
-      <c r="I417" s="59" t="s">
-        <v>777</v>
-      </c>
-      <c r="J417" s="26" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="418" spans="1:10" ht="15">
       <c r="A418" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B418" s="22">
         <v>22</v>
       </c>
       <c r="C418" s="29" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D418" s="21" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E418" s="23"/>
       <c r="F418" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G418" s="43" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H418" s="62"/>
       <c r="I418" s="25"/>
     </row>
     <row r="419" spans="1:10" ht="13">
       <c r="A419" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B419" s="22">
         <v>23</v>
@@ -13067,48 +13065,48 @@
         <v>83</v>
       </c>
       <c r="D419" s="21" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E419" s="23"/>
       <c r="F419" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="G419" s="82" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I419" s="59" t="s">
+        <v>782</v>
+      </c>
+      <c r="J419" s="26" t="s">
         <v>783</v>
-      </c>
-      <c r="G419" s="82" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I419" s="59" t="s">
-        <v>784</v>
-      </c>
-      <c r="J419" s="26" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="420" spans="1:10" ht="13">
       <c r="A420" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B420" s="22">
         <v>24</v>
       </c>
       <c r="C420" s="23"/>
       <c r="D420" s="21" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E420" s="23"/>
       <c r="F420" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G420" s="82" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I420" s="25"/>
       <c r="J420" s="26" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="421" spans="1:10" ht="13">
       <c r="A421" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B421" s="22">
         <v>25</v>
@@ -13123,43 +13121,43 @@
       </c>
       <c r="G421" s="24"/>
       <c r="H421" s="26" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I421" s="25"/>
       <c r="J421" s="26" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="422" spans="1:10" ht="13">
       <c r="A422" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B422" s="22">
         <v>26</v>
       </c>
       <c r="C422" s="23"/>
       <c r="D422" s="21" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E422" s="23"/>
       <c r="F422" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G422" s="82" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I422" s="25"/>
     </row>
     <row r="423" spans="1:10" ht="13">
       <c r="A423" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B423" s="22">
         <v>27</v>
       </c>
       <c r="C423" s="23"/>
       <c r="D423" s="21" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E423" s="23"/>
       <c r="G423" s="24"/>
@@ -13167,33 +13165,33 @@
     </row>
     <row r="424" spans="1:10" ht="13">
       <c r="A424" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B424" s="22">
         <v>28</v>
       </c>
       <c r="C424" s="23"/>
       <c r="D424" s="21" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E424" s="23"/>
       <c r="F424" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G424" s="35" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H424" s="32" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I424" s="25"/>
       <c r="J424" s="26" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="425" spans="1:10" ht="13">
       <c r="A425" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B425" s="22">
         <v>29</v>
@@ -13209,41 +13207,41 @@
         <v>142</v>
       </c>
       <c r="G425" s="35" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H425" s="51" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I425" s="25"/>
     </row>
     <row r="426" spans="1:10" ht="13">
       <c r="A426" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B426" s="22">
         <v>30</v>
       </c>
       <c r="C426" s="29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D426" s="21" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E426" s="23"/>
       <c r="F426" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G426" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="I426" s="25"/>
       <c r="J426" s="26" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="427" spans="1:10" ht="13">
       <c r="A427" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B427" s="22">
         <v>31</v>
@@ -13254,31 +13252,31 @@
       </c>
       <c r="E427" s="23"/>
       <c r="F427" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G427" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="H427" s="51" t="s">
+        <v>799</v>
+      </c>
+      <c r="I427" s="63" t="s">
         <v>800</v>
       </c>
-      <c r="H427" s="51" t="s">
+      <c r="J427" s="26" t="s">
         <v>801</v>
-      </c>
-      <c r="I427" s="63" t="s">
-        <v>802</v>
-      </c>
-      <c r="J427" s="26" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="428" spans="1:10" ht="13">
       <c r="A428" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B428" s="22">
         <v>32</v>
       </c>
       <c r="C428" s="23"/>
       <c r="D428" s="21" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E428" s="23"/>
       <c r="G428" s="24"/>
@@ -13286,23 +13284,23 @@
     </row>
     <row r="429" spans="1:10" ht="14">
       <c r="A429" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B429" s="22">
         <v>33</v>
       </c>
       <c r="C429" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D429" s="21" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E429" s="23"/>
       <c r="F429" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G429" s="64" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I429" s="25"/>
       <c r="J429" s="26" t="s">
@@ -13311,13 +13309,13 @@
     </row>
     <row r="430" spans="1:10" ht="13">
       <c r="A430" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B430" s="22">
         <v>34</v>
       </c>
       <c r="C430" s="29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D430" s="21" t="s">
         <v>20</v>
@@ -13328,36 +13326,36 @@
       </c>
       <c r="G430" s="24"/>
       <c r="H430" s="51" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I430" s="25"/>
     </row>
     <row r="431" spans="1:10" ht="13">
       <c r="A431" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B431" s="22">
         <v>35</v>
       </c>
       <c r="C431" s="29" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D431" s="21" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E431" s="23"/>
       <c r="F431" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G431" s="55"/>
       <c r="I431" s="25"/>
       <c r="J431" s="26" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="432" spans="1:10" ht="15">
       <c r="A432" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B432" s="22">
         <v>36</v>
@@ -13371,10 +13369,10 @@
         <v>142</v>
       </c>
       <c r="G432" s="43" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H432" s="52" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I432" s="52"/>
       <c r="J432" s="26" t="s">
@@ -13383,7 +13381,7 @@
     </row>
     <row r="433" spans="1:10" ht="13">
       <c r="A433" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B433" s="22">
         <v>37</v>
@@ -13397,10 +13395,10 @@
         <v>142</v>
       </c>
       <c r="G433" s="57" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H433" s="51" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I433" s="25"/>
       <c r="J433" s="26" t="s">
@@ -13409,7 +13407,7 @@
     </row>
     <row r="434" spans="1:10" ht="13">
       <c r="A434" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B434" s="22">
         <v>38</v>
@@ -13423,25 +13421,25 @@
         <v>142</v>
       </c>
       <c r="G434" s="82" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H434" s="26" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I434" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="13">
       <c r="A435" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B435" s="22">
         <v>39</v>
       </c>
       <c r="C435" s="23"/>
       <c r="D435" s="21" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E435" s="23"/>
       <c r="G435" s="24"/>
@@ -13449,7 +13447,7 @@
     </row>
     <row r="436" spans="1:10" ht="13">
       <c r="A436" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B436" s="22">
         <v>40</v>
@@ -13464,48 +13462,48 @@
       </c>
       <c r="G436" s="24"/>
       <c r="H436" s="26" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I436" s="25"/>
       <c r="J436" s="26" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="437" spans="1:10" ht="13">
       <c r="A437" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B437" s="22">
         <v>41</v>
       </c>
       <c r="C437" s="23"/>
       <c r="D437" s="21" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E437" s="23"/>
       <c r="F437" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G437" s="82" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I437" s="25"/>
       <c r="J437" s="26" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="438" spans="1:10" ht="13">
       <c r="A438" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B438" s="22">
         <v>42</v>
       </c>
       <c r="C438" s="29" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D438" s="21" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E438" s="23"/>
       <c r="F438" s="26" t="s">
@@ -13513,16 +13511,16 @@
       </c>
       <c r="G438" s="24"/>
       <c r="H438" s="51" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I438" s="25"/>
       <c r="J438" s="26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="439" spans="1:10" ht="13">
       <c r="A439" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B439" s="22">
         <v>43</v>
@@ -13537,12 +13535,12 @@
       </c>
       <c r="G439" s="24"/>
       <c r="H439" s="26" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="440" spans="1:10" ht="13">
       <c r="A440" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B440" s="22">
         <v>44</v>
@@ -13555,24 +13553,24 @@
       </c>
       <c r="E440" s="23"/>
       <c r="F440" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G440" s="82" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H440" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="I440" s="59" t="s">
+        <v>827</v>
+      </c>
+      <c r="J440" s="26" t="s">
         <v>828</v>
-      </c>
-      <c r="I440" s="59" t="s">
-        <v>829</v>
-      </c>
-      <c r="J440" s="26" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="441" spans="1:10" ht="14">
       <c r="A441" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B441" s="22">
         <v>45</v>
@@ -13588,19 +13586,19 @@
         <v>142</v>
       </c>
       <c r="G441" s="82" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H441" s="61" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I441" s="25"/>
       <c r="J441" s="65" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="442" spans="1:10" ht="13">
       <c r="A442" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B442" s="22">
         <v>46</v>
@@ -13609,25 +13607,25 @@
         <v>362</v>
       </c>
       <c r="D442" s="21" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E442" s="23"/>
       <c r="G442" s="24"/>
       <c r="I442" s="25"/>
       <c r="J442" s="26" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="443" spans="1:10" ht="13">
       <c r="A443" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B443" s="22">
         <v>47</v>
       </c>
       <c r="C443" s="23"/>
       <c r="D443" s="21" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E443" s="23"/>
       <c r="G443" s="24"/>
@@ -13635,7 +13633,7 @@
     </row>
     <row r="444" spans="1:10" ht="13">
       <c r="A444" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B444" s="22">
         <v>48</v>
@@ -13644,7 +13642,7 @@
         <v>59</v>
       </c>
       <c r="D444" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E444" s="23"/>
       <c r="G444" s="24"/>
@@ -13652,7 +13650,7 @@
     </row>
     <row r="445" spans="1:10" ht="13">
       <c r="A445" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B445" s="22">
         <v>49</v>
@@ -13661,7 +13659,7 @@
         <v>59</v>
       </c>
       <c r="D445" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E445" s="23"/>
       <c r="G445" s="24"/>
@@ -13669,7 +13667,7 @@
     </row>
     <row r="446" spans="1:10" ht="13">
       <c r="A446" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B446" s="22">
         <v>50</v>
@@ -13678,7 +13676,7 @@
         <v>479</v>
       </c>
       <c r="D446" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E446" s="23"/>
       <c r="G446" s="24"/>
@@ -13686,7 +13684,7 @@
     </row>
     <row r="447" spans="1:10" ht="13">
       <c r="A447" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B447" s="22">
         <v>51</v>
@@ -13695,20 +13693,20 @@
         <v>397</v>
       </c>
       <c r="D447" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E447" s="23"/>
       <c r="F447" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G447" s="82" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I447" s="25"/>
     </row>
     <row r="448" spans="1:10" ht="13">
       <c r="A448" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B448" s="22">
         <v>52</v>
@@ -13717,27 +13715,27 @@
         <v>397</v>
       </c>
       <c r="D448" s="21" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E448" s="23"/>
       <c r="F448" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G448" s="82" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I448" s="25"/>
     </row>
     <row r="449" spans="1:10" ht="13">
       <c r="A449" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B449" s="22">
         <v>53</v>
       </c>
       <c r="C449" s="23"/>
       <c r="D449" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E449" s="23"/>
       <c r="G449" s="24"/>
@@ -13745,13 +13743,13 @@
     </row>
     <row r="450" spans="1:10" ht="13">
       <c r="A450" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B450" s="22">
         <v>54</v>
       </c>
       <c r="C450" s="29" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D450" s="21" t="s">
         <v>20</v>
@@ -13761,23 +13759,23 @@
         <v>142</v>
       </c>
       <c r="G450" s="35" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="H450" s="51" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I450" s="25"/>
     </row>
     <row r="451" spans="1:10" ht="13">
       <c r="A451" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B451" s="22">
         <v>55</v>
       </c>
       <c r="C451" s="23"/>
       <c r="D451" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E451" s="23"/>
       <c r="G451" s="24"/>
@@ -13785,7 +13783,7 @@
     </row>
     <row r="452" spans="1:10" ht="13">
       <c r="A452" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B452" s="22">
         <v>56</v>
@@ -13802,15 +13800,15 @@
       </c>
       <c r="G452" s="24"/>
       <c r="H452" s="26" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I452" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="453" spans="1:10" ht="13">
       <c r="A453" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B453" s="22">
         <v>57</v>
@@ -13819,17 +13817,17 @@
         <v>95</v>
       </c>
       <c r="D453" s="21" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E453" s="28" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G453" s="24"/>
       <c r="I453" s="25"/>
     </row>
     <row r="454" spans="1:10" ht="13">
       <c r="A454" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B454" s="22">
         <v>58</v>
@@ -13845,38 +13843,38 @@
         <v>142</v>
       </c>
       <c r="G454" s="82" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H454" s="51" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I454" s="25"/>
     </row>
     <row r="455" spans="1:10" ht="13">
       <c r="A455" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B455" s="22">
         <v>59</v>
       </c>
       <c r="C455" s="29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D455" s="21" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E455" s="23"/>
       <c r="F455" t="s">
         <v>31</v>
       </c>
       <c r="G455" s="82" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I455" s="25"/>
     </row>
     <row r="456" spans="1:10" ht="13">
       <c r="A456" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B456" s="22">
         <v>60</v>
@@ -13890,10 +13888,10 @@
         <v>31</v>
       </c>
       <c r="G456" s="66" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H456" s="62" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I456" s="25"/>
       <c r="J456" s="41" t="s">
@@ -13902,14 +13900,14 @@
     </row>
     <row r="457" spans="1:10" ht="13">
       <c r="A457" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B457" s="22">
         <v>61</v>
       </c>
       <c r="C457" s="23"/>
       <c r="D457" s="21" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E457" s="23"/>
       <c r="G457" s="24"/>
@@ -13917,14 +13915,14 @@
     </row>
     <row r="458" spans="1:10" ht="13">
       <c r="A458" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B458" s="22">
         <v>62</v>
       </c>
       <c r="C458" s="23"/>
       <c r="D458" s="21" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E458" s="23"/>
       <c r="G458" s="24"/>
@@ -13932,7 +13930,7 @@
     </row>
     <row r="459" spans="1:10" ht="13">
       <c r="A459" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B459" s="22">
         <v>63</v>
@@ -13941,7 +13939,7 @@
         <v>34</v>
       </c>
       <c r="D459" s="21" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E459" s="23"/>
       <c r="G459" s="24"/>
@@ -13949,13 +13947,13 @@
     </row>
     <row r="460" spans="1:10" ht="13">
       <c r="A460" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B460" s="22">
         <v>64</v>
       </c>
       <c r="C460" s="29" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D460" s="21" t="s">
         <v>20</v>
@@ -13965,10 +13963,10 @@
         <v>142</v>
       </c>
       <c r="G460" s="57" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H460" s="51" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I460" s="25"/>
       <c r="J460" s="41" t="s">
@@ -13977,13 +13975,13 @@
     </row>
     <row r="461" spans="1:10" ht="13">
       <c r="A461" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B461" s="22">
         <v>65</v>
       </c>
       <c r="C461" s="29" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D461" s="21" t="s">
         <v>20</v>
@@ -13994,13 +13992,13 @@
       </c>
       <c r="G461" s="24"/>
       <c r="H461" s="26" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I461" s="25"/>
     </row>
     <row r="462" spans="1:10" ht="13">
       <c r="A462" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B462" s="22">
         <v>66</v>
@@ -14017,23 +14015,23 @@
       </c>
       <c r="G462" s="24"/>
       <c r="H462" s="26" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I462" s="25"/>
       <c r="J462" s="26"/>
     </row>
     <row r="463" spans="1:10" ht="13">
       <c r="A463" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B463" s="22">
         <v>67</v>
       </c>
       <c r="C463" s="29" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D463" s="21" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E463" s="23"/>
       <c r="G463" s="24"/>
@@ -14041,44 +14039,44 @@
     </row>
     <row r="464" spans="1:10" ht="13">
       <c r="A464" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B464" s="22">
         <v>68</v>
       </c>
       <c r="C464" s="23"/>
       <c r="D464" s="21" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E464" s="23"/>
       <c r="F464" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G464" s="82" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="I464" s="25"/>
     </row>
     <row r="465" spans="1:10" ht="13">
       <c r="A465" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B465" s="22">
         <v>69</v>
       </c>
       <c r="C465" s="23"/>
       <c r="D465" s="21" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E465" s="23"/>
       <c r="F465" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G465" s="66" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H465" s="62" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I465" s="25"/>
       <c r="J465" s="41" t="s">
@@ -14087,14 +14085,14 @@
     </row>
     <row r="466" spans="1:10" ht="13">
       <c r="A466" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B466" s="22">
         <v>70</v>
       </c>
       <c r="C466" s="23"/>
       <c r="D466" s="21" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E466" s="23"/>
       <c r="G466" s="24"/>
@@ -14102,7 +14100,7 @@
     </row>
     <row r="467" spans="1:10" ht="13">
       <c r="A467" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B467" s="22">
         <v>71</v>
@@ -14116,10 +14114,10 @@
         <v>142</v>
       </c>
       <c r="G467" s="66" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H467" s="62" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I467" s="25"/>
       <c r="J467" s="41" t="s">
@@ -14128,24 +14126,24 @@
     </row>
     <row r="468" spans="1:10" ht="15">
       <c r="A468" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B468" s="22">
         <v>72</v>
       </c>
       <c r="C468" s="23"/>
       <c r="D468" s="21" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E468" s="23"/>
       <c r="F468" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G468" s="43" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H468" s="52" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I468" s="25"/>
       <c r="J468" s="41" t="s">
@@ -14154,7 +14152,7 @@
     </row>
     <row r="469" spans="1:10" ht="13">
       <c r="A469" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B469" s="22">
         <v>73</v>
@@ -14171,79 +14169,79 @@
       </c>
       <c r="G469" s="24"/>
       <c r="H469" s="51" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I469" s="25"/>
     </row>
     <row r="470" spans="1:10" ht="13">
       <c r="A470" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B470" s="22">
         <v>74</v>
       </c>
       <c r="C470" s="29" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D470" s="21" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E470" s="23"/>
       <c r="F470" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G470" s="82" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I470" s="25"/>
     </row>
     <row r="471" spans="1:10" ht="13">
       <c r="A471" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B471" s="22">
         <v>75</v>
       </c>
       <c r="C471" s="23"/>
       <c r="D471" s="21" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E471" s="23"/>
       <c r="F471" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G471" s="67" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H471" s="51"/>
       <c r="I471" s="25"/>
     </row>
     <row r="472" spans="1:10" ht="13">
       <c r="A472" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B472" s="22">
         <v>76</v>
       </c>
       <c r="C472" s="23"/>
       <c r="D472" s="21" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E472" s="28" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F472" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G472" s="67" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H472" s="51"/>
       <c r="I472" s="25"/>
     </row>
     <row r="473" spans="1:10" ht="15">
       <c r="A473" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B473" s="22">
         <v>77</v>
@@ -14257,10 +14255,10 @@
         <v>142</v>
       </c>
       <c r="G473" s="43" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H473" s="52" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I473" s="25"/>
       <c r="J473" s="41" t="s">
@@ -14269,14 +14267,14 @@
     </row>
     <row r="474" spans="1:10" ht="13">
       <c r="A474" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B474" s="22">
         <v>78</v>
       </c>
       <c r="C474" s="23"/>
       <c r="D474" s="21" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E474" s="28" t="s">
         <v>40</v>
@@ -14285,10 +14283,10 @@
         <v>142</v>
       </c>
       <c r="G474" s="57" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H474" s="51" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I474" s="25"/>
       <c r="J474" s="41" t="s">
@@ -14297,31 +14295,31 @@
     </row>
     <row r="475" spans="1:10" ht="13">
       <c r="A475" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B475" s="22">
         <v>79</v>
       </c>
       <c r="C475" s="23"/>
       <c r="D475" s="21" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E475" s="23"/>
       <c r="G475" s="27" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I475" s="25"/>
     </row>
     <row r="476" spans="1:10" ht="13">
       <c r="A476" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B476" s="22">
         <v>80</v>
       </c>
       <c r="C476" s="23"/>
       <c r="D476" s="21" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E476" s="28" t="s">
         <v>44</v>
@@ -14330,10 +14328,10 @@
         <v>142</v>
       </c>
       <c r="G476" s="57" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H476" s="51" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I476" s="25"/>
       <c r="J476" s="41" t="s">
@@ -14342,14 +14340,14 @@
     </row>
     <row r="477" spans="1:10" ht="13">
       <c r="A477" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B477" s="22">
         <v>81</v>
       </c>
       <c r="C477" s="23"/>
       <c r="D477" s="21" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E477" s="23"/>
       <c r="G477" s="24"/>
@@ -14357,7 +14355,7 @@
     </row>
     <row r="478" spans="1:10" ht="13">
       <c r="A478" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B478" s="22">
         <v>82</v>
@@ -14371,10 +14369,10 @@
         <v>142</v>
       </c>
       <c r="G478" s="57" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H478" s="51" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I478" s="25"/>
       <c r="J478" s="41" t="s">
@@ -14383,7 +14381,7 @@
     </row>
     <row r="479" spans="1:10" ht="15">
       <c r="A479" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B479" s="22">
         <v>83</v>
@@ -14397,10 +14395,10 @@
         <v>142</v>
       </c>
       <c r="G479" s="43" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H479" s="52" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I479" s="25"/>
       <c r="J479" s="41" t="s">
@@ -14409,7 +14407,7 @@
     </row>
     <row r="480" spans="1:10" ht="13">
       <c r="A480" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B480" s="22">
         <v>84</v>
@@ -14423,10 +14421,10 @@
         <v>142</v>
       </c>
       <c r="G480" s="57" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H480" s="62" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I480" s="25"/>
       <c r="J480" s="41" t="s">
@@ -14435,7 +14433,7 @@
     </row>
     <row r="481" spans="1:10" ht="13">
       <c r="A481" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B481" s="22">
         <v>85</v>
@@ -14451,16 +14449,16 @@
         <v>142</v>
       </c>
       <c r="G481" s="68" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H481" s="51" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I481" s="25"/>
     </row>
     <row r="482" spans="1:10" ht="13">
       <c r="A482" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B482" s="22">
         <v>86</v>
@@ -14474,10 +14472,10 @@
         <v>142</v>
       </c>
       <c r="G482" s="53" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H482" s="51" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I482" s="25"/>
       <c r="J482" s="41" t="s">
@@ -14486,24 +14484,24 @@
     </row>
     <row r="483" spans="1:10" ht="15">
       <c r="A483" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B483" s="22">
         <v>87</v>
       </c>
       <c r="C483" s="23"/>
       <c r="D483" s="21" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E483" s="23"/>
       <c r="F483" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G483" s="54" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H483" s="52" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I483" s="25"/>
       <c r="J483" s="26" t="s">
@@ -14512,29 +14510,29 @@
     </row>
     <row r="484" spans="1:10" ht="13">
       <c r="A484" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B484" s="22">
         <v>88</v>
       </c>
       <c r="C484" s="29" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D484" s="21" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E484" s="23"/>
       <c r="F484" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G484" s="27" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I484" s="25"/>
     </row>
     <row r="485" spans="1:10" ht="13">
       <c r="A485" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B485" s="22">
         <v>89</v>
@@ -14543,7 +14541,7 @@
         <v>83</v>
       </c>
       <c r="D485" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E485" s="23"/>
       <c r="G485" s="24"/>
@@ -14551,7 +14549,7 @@
     </row>
     <row r="486" spans="1:10" ht="13">
       <c r="A486" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B486" s="22">
         <v>90</v>
@@ -14560,7 +14558,7 @@
         <v>59</v>
       </c>
       <c r="D486" s="21" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E486" s="23"/>
       <c r="G486" s="24"/>
@@ -14568,104 +14566,104 @@
     </row>
     <row r="487" spans="1:10" ht="13">
       <c r="A487" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B487" s="22">
         <v>91</v>
       </c>
       <c r="C487" s="29" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D487" s="21" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E487" s="23"/>
       <c r="F487" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G487" s="82" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I487" s="25"/>
     </row>
     <row r="488" spans="1:10" ht="13">
       <c r="A488" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B488" s="22">
         <v>92</v>
       </c>
       <c r="C488" s="29" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D488" s="21" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E488" s="23"/>
       <c r="F488" t="s">
         <v>31</v>
       </c>
       <c r="G488" s="82" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I488" s="25"/>
     </row>
     <row r="489" spans="1:10" ht="13">
       <c r="A489" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B489" s="22">
         <v>93</v>
       </c>
       <c r="C489" s="29" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D489" s="21" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E489" s="23"/>
       <c r="F489" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G489" s="27" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I489" s="25"/>
     </row>
     <row r="490" spans="1:10" ht="13">
       <c r="A490" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B490" s="22">
         <v>94</v>
       </c>
       <c r="C490" s="29" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D490" s="21" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E490" s="23"/>
       <c r="F490" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G490" s="82" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I490" s="25"/>
     </row>
     <row r="491" spans="1:10" ht="13">
       <c r="A491" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B491" s="22">
         <v>95</v>
       </c>
       <c r="C491" s="29" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D491" s="21" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E491" s="23"/>
       <c r="G491" s="24"/>
@@ -14673,14 +14671,14 @@
     </row>
     <row r="492" spans="1:10" ht="13">
       <c r="A492" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B492" s="22">
         <v>96</v>
       </c>
       <c r="C492" s="23"/>
       <c r="D492" s="21" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E492" s="23"/>
       <c r="G492" s="24"/>
@@ -14688,30 +14686,30 @@
     </row>
     <row r="493" spans="1:10" ht="13">
       <c r="A493" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B493" s="22">
         <v>97</v>
       </c>
       <c r="C493" s="23"/>
       <c r="D493" s="21" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E493" s="23"/>
       <c r="F493" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G493" s="53" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H493" s="51" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I493" s="25"/>
     </row>
     <row r="494" spans="1:10" ht="13">
       <c r="A494" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B494" s="22">
         <v>98</v>
@@ -14720,23 +14718,23 @@
         <v>34</v>
       </c>
       <c r="D494" s="21" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E494" s="23"/>
       <c r="F494" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G494" s="57" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H494" s="62" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I494" s="25"/>
     </row>
     <row r="495" spans="1:10" ht="15">
       <c r="A495" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B495" s="22">
         <v>99</v>
@@ -14750,16 +14748,16 @@
         <v>142</v>
       </c>
       <c r="G495" s="54" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H495" s="52" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I495" s="25"/>
     </row>
     <row r="496" spans="1:10" ht="13">
       <c r="A496" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B496" s="22">
         <v>100</v>
@@ -14773,32 +14771,32 @@
         <v>142</v>
       </c>
       <c r="G496" s="66" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H496" s="26" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I496" s="25"/>
     </row>
     <row r="497" spans="1:10" ht="13">
       <c r="A497" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B497" s="22">
         <v>101</v>
       </c>
       <c r="C497" s="23"/>
       <c r="D497" s="21" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E497" s="28" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F497" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G497" s="53" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H497" s="51"/>
       <c r="I497" s="25"/>
@@ -14806,16 +14804,16 @@
     </row>
     <row r="498" spans="1:10" ht="13">
       <c r="A498" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B498" s="22">
         <v>102</v>
       </c>
       <c r="C498" s="29" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D498" s="21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E498" s="23"/>
       <c r="G498" s="24"/>
@@ -14823,16 +14821,16 @@
     </row>
     <row r="499" spans="1:10" ht="13">
       <c r="A499" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B499" s="22">
         <v>103</v>
       </c>
       <c r="C499" s="29" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D499" s="21" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E499" s="23"/>
       <c r="G499" s="24"/>
@@ -14840,7 +14838,7 @@
     </row>
     <row r="500" spans="1:10" ht="13">
       <c r="A500" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B500" s="22">
         <v>104</v>
@@ -14857,13 +14855,13 @@
       </c>
       <c r="G500" s="24"/>
       <c r="H500" s="26" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I500" s="25"/>
     </row>
     <row r="501" spans="1:10" ht="13">
       <c r="A501" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B501" s="22">
         <v>105</v>
@@ -14874,22 +14872,22 @@
       </c>
       <c r="E501" s="23"/>
       <c r="F501" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G501" s="24"/>
       <c r="H501" s="26" t="s">
+        <v>934</v>
+      </c>
+      <c r="I501" s="30" t="s">
+        <v>935</v>
+      </c>
+      <c r="J501" s="26" t="s">
         <v>936</v>
-      </c>
-      <c r="I501" s="30" t="s">
-        <v>937</v>
-      </c>
-      <c r="J501" s="26" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="502" spans="1:10" ht="13">
       <c r="A502" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B502" s="22">
         <v>106</v>
@@ -14898,75 +14896,75 @@
         <v>95</v>
       </c>
       <c r="D502" s="21" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E502" s="23"/>
       <c r="F502" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G502" s="55" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="I502" s="25"/>
       <c r="J502" s="69" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="503" spans="1:10" ht="13">
       <c r="A503" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B503" s="22">
         <v>107</v>
       </c>
       <c r="C503" s="29" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D503" s="21" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E503" s="23"/>
       <c r="F503" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G503" s="82" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I503" s="70" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J503" s="71" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="504" spans="1:10" ht="13">
       <c r="A504" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B504" s="22">
         <v>108</v>
       </c>
       <c r="C504" s="23"/>
       <c r="D504" s="21" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E504" s="23"/>
       <c r="F504" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G504" s="82" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I504" s="72" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J504" s="6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="505" spans="1:10" ht="13">
       <c r="A505" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B505" s="22">
         <v>109</v>
@@ -14979,28 +14977,28 @@
       </c>
       <c r="E505" s="23"/>
       <c r="F505" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G505" s="24"/>
       <c r="H505" s="26" t="s">
+        <v>946</v>
+      </c>
+      <c r="I505" s="70" t="s">
+        <v>947</v>
+      </c>
+      <c r="J505" s="26" t="s">
         <v>948</v>
-      </c>
-      <c r="I505" s="70" t="s">
-        <v>949</v>
-      </c>
-      <c r="J505" s="26" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="506" spans="1:10" ht="13">
       <c r="A506" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B506" s="22">
         <v>110</v>
       </c>
       <c r="C506" s="29" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D506" s="21" t="s">
         <v>20</v>
@@ -15010,16 +15008,16 @@
         <v>142</v>
       </c>
       <c r="G506" s="27" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H506" s="26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I506" s="25"/>
     </row>
     <row r="507" spans="1:10" ht="13">
       <c r="A507" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B507" s="22">
         <v>111</v>
@@ -15032,22 +15030,22 @@
       </c>
       <c r="E507" s="23"/>
       <c r="F507" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G507" s="24"/>
       <c r="H507" s="26" t="s">
+        <v>952</v>
+      </c>
+      <c r="I507" s="73" t="s">
+        <v>953</v>
+      </c>
+      <c r="J507" s="74" t="s">
         <v>954</v>
-      </c>
-      <c r="I507" s="73" t="s">
-        <v>955</v>
-      </c>
-      <c r="J507" s="74" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="508" spans="1:10" ht="13">
       <c r="A508" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B508" s="22">
         <v>112</v>
@@ -15056,23 +15054,23 @@
         <v>34</v>
       </c>
       <c r="D508" s="21" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E508" s="23"/>
       <c r="F508" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G508" s="75" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="I508" s="25"/>
       <c r="J508" s="26" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="509" spans="1:10" ht="13">
       <c r="A509" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B509" s="22">
         <v>113</v>
@@ -15083,43 +15081,43 @@
       </c>
       <c r="E509" s="23"/>
       <c r="F509" s="26" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G509" s="24"/>
       <c r="H509" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="I509" s="73" t="s">
+        <v>960</v>
+      </c>
+      <c r="J509" s="74" t="s">
         <v>961</v>
-      </c>
-      <c r="I509" s="73" t="s">
-        <v>962</v>
-      </c>
-      <c r="J509" s="74" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="510" spans="1:10" ht="13">
       <c r="A510" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B510" s="22">
         <v>114</v>
       </c>
       <c r="C510" s="23"/>
       <c r="D510" s="21" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E510" s="23"/>
       <c r="F510" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G510" s="24"/>
       <c r="I510" s="25"/>
       <c r="J510" s="26" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="511" spans="1:10" ht="13">
       <c r="A511" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B511" s="22">
         <v>115</v>
@@ -15134,13 +15132,13 @@
       </c>
       <c r="G511" s="24"/>
       <c r="H511" s="26" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I511" s="25"/>
     </row>
     <row r="512" spans="1:10" ht="13">
       <c r="A512" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B512" s="22">
         <v>116</v>
@@ -15149,23 +15147,24 @@
         <v>342</v>
       </c>
       <c r="D512" s="21" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E512" s="23"/>
       <c r="F512" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G512" s="24"/>
+      <c r="H512" s="74"/>
       <c r="I512" s="59" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J512" s="26" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="513" spans="1:10" ht="13">
       <c r="A513" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B513" s="22">
         <v>117</v>
@@ -15176,22 +15175,22 @@
       </c>
       <c r="E513" s="23"/>
       <c r="F513" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G513" s="24"/>
       <c r="H513" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="I513" s="76" t="s">
+        <v>969</v>
+      </c>
+      <c r="J513" s="74" t="s">
         <v>970</v>
-      </c>
-      <c r="I513" s="76" t="s">
-        <v>971</v>
-      </c>
-      <c r="J513" s="74" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="514" spans="1:10" ht="13">
       <c r="A514" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B514" s="22">
         <v>118</v>
@@ -15202,24 +15201,24 @@
       </c>
       <c r="E514" s="23"/>
       <c r="F514" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G514" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H514" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="I514" s="77" t="s">
+        <v>972</v>
+      </c>
+      <c r="J514" s="74" t="s">
         <v>973</v>
-      </c>
-      <c r="I514" s="77" t="s">
-        <v>974</v>
-      </c>
-      <c r="J514" s="74" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="515" spans="1:10" ht="13">
       <c r="A515" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B515" s="22">
         <v>119</v>
@@ -15230,47 +15229,47 @@
       </c>
       <c r="E515" s="23"/>
       <c r="F515" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G515" s="24"/>
       <c r="H515" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="I515" s="72" t="s">
+        <v>975</v>
+      </c>
+      <c r="J515" s="78" t="s">
         <v>976</v>
-      </c>
-      <c r="I515" s="72" t="s">
-        <v>977</v>
-      </c>
-      <c r="J515" s="78" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="516" spans="1:10" ht="13">
       <c r="A516" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B516" s="22">
         <v>120</v>
       </c>
       <c r="C516" s="23"/>
       <c r="D516" s="21" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E516" s="23"/>
       <c r="F516" s="26" t="s">
+        <v>978</v>
+      </c>
+      <c r="G516" s="82" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I516" s="41" t="s">
+        <v>979</v>
+      </c>
+      <c r="J516" s="79" t="s">
         <v>980</v>
-      </c>
-      <c r="G516" s="82" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I516" s="41" t="s">
-        <v>981</v>
-      </c>
-      <c r="J516" s="79" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="15">
       <c r="A517" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B517" s="22">
         <v>121</v>
@@ -15284,10 +15283,10 @@
         <v>142</v>
       </c>
       <c r="G517" s="43" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H517" s="52" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I517" s="25"/>
       <c r="J517" s="41" t="s">
@@ -15296,24 +15295,24 @@
     </row>
     <row r="518" spans="1:10" ht="15">
       <c r="A518" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B518" s="22">
         <v>122</v>
       </c>
       <c r="C518" s="23"/>
       <c r="D518" s="21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E518" s="23"/>
       <c r="F518" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G518" s="43" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H518" s="61" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I518" s="25"/>
       <c r="J518" s="41" t="s">
@@ -15322,7 +15321,7 @@
     </row>
     <row r="519" spans="1:10" ht="13">
       <c r="A519" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B519" s="22">
         <v>123</v>
@@ -15336,23 +15335,23 @@
         <v>142</v>
       </c>
       <c r="G519" s="57" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H519" s="51" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I519" s="25"/>
       <c r="J519" s="41"/>
     </row>
     <row r="520" spans="1:10" ht="13">
       <c r="A520" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B520" s="22">
         <v>124</v>
       </c>
       <c r="C520" s="29" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D520" s="21" t="s">
         <v>20</v>
@@ -15362,16 +15361,16 @@
         <v>142</v>
       </c>
       <c r="G520" s="27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H520" s="26" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I520" s="25"/>
     </row>
     <row r="521" spans="1:10" ht="13">
       <c r="A521" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B521" s="22">
         <v>125</v>
@@ -15386,13 +15385,13 @@
       </c>
       <c r="G521" s="24"/>
       <c r="H521" s="26" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I521" s="25"/>
     </row>
     <row r="522" spans="1:10" ht="13">
       <c r="A522" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B522" s="22">
         <v>126</v>
@@ -15408,80 +15407,80 @@
         <v>142</v>
       </c>
       <c r="G522" s="27" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H522" s="26" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I522" s="25"/>
     </row>
     <row r="523" spans="1:10" ht="13">
       <c r="A523" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B523" s="22">
         <v>127</v>
       </c>
       <c r="C523" s="29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D523" s="21" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E523" s="23"/>
       <c r="F523" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G523" s="82" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I523" s="25"/>
       <c r="J523" s="69" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="524" spans="1:10" ht="13">
       <c r="A524" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B524" s="22">
         <v>128</v>
       </c>
       <c r="C524" s="29" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D524" s="21" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E524" s="23"/>
       <c r="F524" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G524" s="35" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I524" s="25"/>
       <c r="J524" s="26" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="525" spans="1:10" ht="13">
       <c r="A525" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B525" s="22">
         <v>129</v>
       </c>
       <c r="C525" s="23"/>
       <c r="D525" s="21" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E525" s="23"/>
       <c r="F525" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G525" s="35" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I525" s="25"/>
       <c r="J525" s="41" t="s">
@@ -15490,7 +15489,7 @@
     </row>
     <row r="526" spans="1:10" ht="13">
       <c r="A526" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B526" s="22">
         <v>130</v>
@@ -15505,81 +15504,81 @@
       </c>
       <c r="G526" s="24"/>
       <c r="H526" s="26" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I526" s="25"/>
     </row>
     <row r="527" spans="1:10" ht="13">
       <c r="A527" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B527" s="22">
         <v>131</v>
       </c>
       <c r="C527" s="29" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D527" s="21" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E527" s="23"/>
       <c r="F527" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G527" s="24"/>
       <c r="I527" s="30" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J527" s="26" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="528" spans="1:10" ht="13">
       <c r="A528" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B528" s="22">
         <v>132</v>
       </c>
       <c r="C528" s="23"/>
       <c r="D528" s="21" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E528" s="23"/>
       <c r="F528" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G528" s="55" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I528" s="25"/>
     </row>
     <row r="529" spans="1:10" ht="13">
       <c r="A529" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B529" s="22">
         <v>133</v>
       </c>
       <c r="C529" s="29" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D529" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E529" s="23"/>
       <c r="F529" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G529" s="80" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H529" s="26" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I529" s="25"/>
       <c r="J529" s="71" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="530" spans="1:10" ht="13">

--- a/LOCATION SHEETS/1840sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1840sLOCATIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68253786-6ACD-C746-B186-A3CE80350AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA6AC7-1E4A-9B44-A4E6-75ACF54A1E6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="460" windowWidth="22520" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="22520" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1840sLOCATIONS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="1112">
   <si>
     <t>LOCATIONS IN 1840s</t>
   </si>
@@ -1079,9 +1079,6 @@
     <t>490</t>
   </si>
   <si>
-    <t>BIRMINGHAM</t>
-  </si>
-  <si>
     <t>RR113</t>
   </si>
   <si>
@@ -3494,6 +3491,9 @@
   </si>
   <si>
     <t>RR1531</t>
+  </si>
+  <si>
+    <t>BIRMINGHAM PHIL INST</t>
   </si>
 </sst>
 </file>
@@ -4176,9 +4176,9 @@
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H462" sqref="H462"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4754,7 +4754,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I26" s="25"/>
     </row>
@@ -4802,7 +4802,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="26" t="s">
@@ -4827,7 +4827,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I29" s="25"/>
     </row>
@@ -4877,7 +4877,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I32" s="25"/>
     </row>
@@ -4897,7 +4897,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I33" s="25"/>
     </row>
@@ -4932,7 +4932,7 @@
         <v>31</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I35" s="25"/>
     </row>
@@ -5132,7 +5132,7 @@
         <v>31</v>
       </c>
       <c r="G45" s="82" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I45" s="25"/>
     </row>
@@ -5316,14 +5316,14 @@
         <v>56</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="82" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I55" s="25"/>
     </row>
@@ -5345,10 +5345,10 @@
         <v>31</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H56" s="74" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I56" s="25"/>
     </row>
@@ -5435,7 +5435,7 @@
         <v>31</v>
       </c>
       <c r="G61" s="82" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I61" s="25"/>
     </row>
@@ -5634,7 +5634,7 @@
         <v>31</v>
       </c>
       <c r="G72" s="82" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I72" s="25"/>
     </row>
@@ -5654,7 +5654,7 @@
         <v>25</v>
       </c>
       <c r="G73" s="82" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H73" s="26" t="s">
         <v>107</v>
@@ -5736,10 +5736,10 @@
         <v>31</v>
       </c>
       <c r="G77" s="82" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H77" s="79" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I77" s="25"/>
     </row>
@@ -5782,7 +5782,7 @@
         <v>31</v>
       </c>
       <c r="G79" s="82" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I79" s="25"/>
     </row>
@@ -5856,7 +5856,7 @@
         <v>120</v>
       </c>
       <c r="G83" s="82" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>121</v>
@@ -5884,10 +5884,10 @@
         <v>25</v>
       </c>
       <c r="G84" s="82" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H84" s="79" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I84" s="25"/>
     </row>
@@ -6001,7 +6001,7 @@
         <v>25</v>
       </c>
       <c r="G90" s="82" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H90" s="26" t="s">
         <v>132</v>
@@ -6022,7 +6022,7 @@
       <c r="E91" s="23"/>
       <c r="G91" s="24"/>
       <c r="H91" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I91" s="25"/>
     </row>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="G94" s="24"/>
       <c r="H94" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I94" s="25"/>
       <c r="J94" s="33" t="s">
@@ -6324,7 +6324,7 @@
         <v>133</v>
       </c>
       <c r="G105" s="82" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H105" s="26" t="s">
         <v>158</v>
@@ -6355,14 +6355,14 @@
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G107" s="82" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I107" s="25"/>
     </row>
@@ -6399,7 +6399,7 @@
         <v>31</v>
       </c>
       <c r="G109" s="82" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I109" s="25"/>
     </row>
@@ -6421,7 +6421,7 @@
         <v>31</v>
       </c>
       <c r="G110" s="82" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I110" s="25"/>
       <c r="J110" s="26" t="s">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="G115" s="24"/>
       <c r="H115" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I115" s="25"/>
     </row>
@@ -6581,7 +6581,7 @@
         <v>31</v>
       </c>
       <c r="G118" s="82" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I118" s="25"/>
     </row>
@@ -6755,7 +6755,7 @@
         <v>133</v>
       </c>
       <c r="G126" s="82" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I126" s="25"/>
       <c r="J126" s="26" t="s">
@@ -6832,7 +6832,7 @@
         <v>133</v>
       </c>
       <c r="G129" s="82" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I129" s="26" t="s">
         <v>203</v>
@@ -7113,7 +7113,7 @@
         <v>133</v>
       </c>
       <c r="G141" s="82" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I141" s="30" t="s">
         <v>235</v>
@@ -7252,7 +7252,7 @@
         <v>133</v>
       </c>
       <c r="G147" s="82" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I147" s="25"/>
       <c r="J147" s="26" t="s">
@@ -7346,7 +7346,7 @@
         <v>133</v>
       </c>
       <c r="G151" s="82" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H151" s="26" t="s">
         <v>256</v>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="G160" s="24"/>
       <c r="H160" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I160" s="25"/>
     </row>
@@ -7648,7 +7648,7 @@
         <v>286</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>287</v>
@@ -7657,7 +7657,7 @@
         <v>31</v>
       </c>
       <c r="G165" s="82" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I165" s="25"/>
     </row>
@@ -7746,11 +7746,11 @@
       </c>
       <c r="G169" s="24"/>
       <c r="H169" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I169" s="25"/>
       <c r="J169" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="13">
@@ -7771,7 +7771,7 @@
         <v>289</v>
       </c>
       <c r="G170" s="82" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I170" s="25"/>
       <c r="J170" s="26" t="s">
@@ -7811,10 +7811,10 @@
         <v>31</v>
       </c>
       <c r="G172" s="82" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H172" t="s">
         <v>1070</v>
-      </c>
-      <c r="H172" t="s">
-        <v>1071</v>
       </c>
       <c r="I172" s="25"/>
     </row>
@@ -7988,10 +7988,10 @@
         <v>25</v>
       </c>
       <c r="G180" s="82" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H180" s="79" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I180" s="25"/>
     </row>
@@ -8119,11 +8119,17 @@
       <c r="C186" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="D186" s="21" t="s">
-        <v>332</v>
+      <c r="D186" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="E186" s="23"/>
+      <c r="F186" s="79" t="s">
+        <v>31</v>
+      </c>
       <c r="G186" s="24"/>
+      <c r="H186" s="79" t="s">
+        <v>1111</v>
+      </c>
       <c r="I186" s="25"/>
     </row>
     <row r="187" spans="1:10" ht="13">
@@ -8142,13 +8148,13 @@
         <v>25</v>
       </c>
       <c r="G187" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="H187" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="H187" s="26" t="s">
+      <c r="I187" s="30" t="s">
         <v>334</v>
-      </c>
-      <c r="I187" s="30" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="13">
@@ -8167,10 +8173,10 @@
         <v>25</v>
       </c>
       <c r="G188" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="H188" s="26" t="s">
         <v>336</v>
-      </c>
-      <c r="H188" s="26" t="s">
-        <v>337</v>
       </c>
       <c r="I188" s="25"/>
     </row>
@@ -8182,10 +8188,10 @@
         <v>183</v>
       </c>
       <c r="C189" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D189" s="21" t="s">
         <v>338</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>339</v>
       </c>
       <c r="E189" s="23"/>
       <c r="G189" s="24"/>
@@ -8208,7 +8214,7 @@
       </c>
       <c r="G190" s="24"/>
       <c r="H190" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I190" s="25"/>
     </row>
@@ -8223,20 +8229,20 @@
         <v>34</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E191" s="23"/>
       <c r="F191" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G191" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="I191" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="I191" s="30" t="s">
+      <c r="J191" s="26" t="s">
         <v>343</v>
-      </c>
-      <c r="J191" s="26" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="13">
@@ -8247,17 +8253,17 @@
         <v>186</v>
       </c>
       <c r="C192" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D192" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>346</v>
       </c>
       <c r="E192" s="23"/>
       <c r="F192" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G192" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I192" s="25"/>
       <c r="J192" s="26" t="s">
@@ -8272,10 +8278,10 @@
         <v>187</v>
       </c>
       <c r="C193" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D193" s="21" t="s">
         <v>348</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>349</v>
       </c>
       <c r="E193" s="23"/>
       <c r="G193" s="24"/>
@@ -8292,7 +8298,7 @@
         <v>65</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E194" s="23"/>
       <c r="G194" s="24"/>
@@ -8315,7 +8321,7 @@
       </c>
       <c r="G195" s="24"/>
       <c r="H195" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I195" s="25"/>
     </row>
@@ -8328,7 +8334,7 @@
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E196" s="23"/>
       <c r="G196" s="24"/>
@@ -8343,14 +8349,14 @@
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E197" s="23"/>
       <c r="F197" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G197" s="82" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I197" s="25"/>
     </row>
@@ -8371,13 +8377,13 @@
       </c>
       <c r="G198" s="24"/>
       <c r="H198" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I198" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="I198" s="30" t="s">
+      <c r="J198" s="26" t="s">
         <v>355</v>
-      </c>
-      <c r="J198" s="26" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="13">
@@ -8391,7 +8397,7 @@
         <v>327</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E199" s="23"/>
       <c r="G199" s="24"/>
@@ -8405,17 +8411,17 @@
         <v>194</v>
       </c>
       <c r="C200" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D200" s="21" t="s">
         <v>358</v>
-      </c>
-      <c r="D200" s="21" t="s">
-        <v>359</v>
       </c>
       <c r="E200" s="23"/>
       <c r="F200" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G200" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I200" s="25"/>
     </row>
@@ -8428,7 +8434,7 @@
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="12" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E201" s="23"/>
       <c r="F201" s="74" t="s">
@@ -8436,13 +8442,13 @@
       </c>
       <c r="G201" s="24"/>
       <c r="H201" s="12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I201" s="25"/>
     </row>
     <row r="202" spans="1:10" ht="13">
       <c r="A202" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B202" s="22">
         <v>1</v>
@@ -8452,198 +8458,198 @@
       <c r="E202" s="23"/>
       <c r="G202" s="24"/>
       <c r="H202" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I202" s="25"/>
     </row>
     <row r="203" spans="1:10" ht="13">
       <c r="A203" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B203" s="22">
         <v>2</v>
       </c>
       <c r="C203" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D203" s="21" t="s">
         <v>363</v>
-      </c>
-      <c r="D203" s="21" t="s">
-        <v>364</v>
       </c>
       <c r="E203" s="23"/>
       <c r="F203" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="G203" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="G203" s="27" t="s">
+      <c r="H203" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="H203" s="26" t="s">
+      <c r="I203" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="I203" s="44" t="s">
+      <c r="J203" s="26" t="s">
         <v>368</v>
-      </c>
-      <c r="J203" s="26" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="13">
       <c r="A204" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B204" s="22">
         <v>3</v>
       </c>
       <c r="C204" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="D204" s="21" t="s">
         <v>370</v>
-      </c>
-      <c r="D204" s="21" t="s">
-        <v>371</v>
       </c>
       <c r="E204" s="23"/>
       <c r="F204" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G204" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="H204" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="H204" s="26" t="s">
+      <c r="I204" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="I204" s="44" t="s">
+      <c r="J204" s="26" t="s">
         <v>374</v>
-      </c>
-      <c r="J204" s="26" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="13">
       <c r="A205" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B205" s="22">
         <v>4</v>
       </c>
       <c r="C205" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D205" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E205" s="23"/>
       <c r="F205" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="G205" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="H205" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="G205" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="H205" s="26" t="s">
+      <c r="I205" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J205" s="26" t="s">
         <v>377</v>
-      </c>
-      <c r="I205" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="J205" s="26" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="13">
       <c r="A206" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B206" s="22">
         <v>5</v>
       </c>
       <c r="C206" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="D206" s="21" t="s">
         <v>379</v>
-      </c>
-      <c r="D206" s="21" t="s">
-        <v>380</v>
       </c>
       <c r="E206" s="23"/>
       <c r="F206" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G206" s="27"/>
       <c r="H206" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="I206" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="I206" s="44" t="s">
+      <c r="J206" s="26" t="s">
         <v>382</v>
-      </c>
-      <c r="J206" s="26" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="13">
       <c r="A207" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B207" s="22">
         <v>6</v>
       </c>
       <c r="C207" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D207" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E207" s="23"/>
       <c r="F207" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G207" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="H207" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="H207" s="26" t="s">
+      <c r="I207" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="I207" s="30" t="s">
+      <c r="J207" s="45" t="s">
         <v>387</v>
-      </c>
-      <c r="J207" s="45" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="13">
       <c r="A208" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B208" s="22">
         <v>7</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D208" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E208" s="23"/>
       <c r="F208" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G208" s="27"/>
       <c r="H208" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="I208" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="I208" s="30" t="s">
+      <c r="J208" s="26" t="s">
         <v>391</v>
-      </c>
-      <c r="J208" s="26" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="13">
       <c r="A209" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B209" s="22">
         <v>8</v>
       </c>
       <c r="C209" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D209" s="21" t="s">
         <v>393</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>394</v>
       </c>
       <c r="E209" s="23"/>
       <c r="G209" s="24"/>
@@ -8651,70 +8657,70 @@
     </row>
     <row r="210" spans="1:10" ht="13">
       <c r="A210" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B210" s="22">
         <v>9</v>
       </c>
       <c r="C210" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D210" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E210" s="23"/>
       <c r="F210" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G210" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H210" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="I210" s="30" t="s">
         <v>396</v>
-      </c>
-      <c r="I210" s="30" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="13">
       <c r="A211" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B211" s="22">
         <v>10</v>
       </c>
       <c r="C211" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="D211" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="D211" s="21" t="s">
-        <v>399</v>
       </c>
       <c r="E211" s="23"/>
       <c r="F211" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G211" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="H211" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="H211" s="26" t="s">
+      <c r="I211" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="I211" s="44" t="s">
+      <c r="J211" s="26" t="s">
         <v>402</v>
-      </c>
-      <c r="J211" s="26" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="13">
       <c r="A212" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B212" s="22">
         <v>11</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>20</v>
@@ -8724,23 +8730,23 @@
         <v>31</v>
       </c>
       <c r="G212" s="82" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H212" s="79" t="s">
         <v>1067</v>
-      </c>
-      <c r="H212" s="79" t="s">
-        <v>1068</v>
       </c>
       <c r="I212" s="25"/>
     </row>
     <row r="213" spans="1:10" ht="13">
       <c r="A213" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B213" s="22">
         <v>12</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E213" s="23"/>
       <c r="G213" s="24"/>
@@ -8748,7 +8754,7 @@
     </row>
     <row r="214" spans="1:10" ht="13">
       <c r="A214" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B214" s="22">
         <v>13</v>
@@ -8757,7 +8763,7 @@
         <v>112</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E214" s="23"/>
       <c r="G214" s="24"/>
@@ -8765,97 +8771,97 @@
     </row>
     <row r="215" spans="1:10" ht="13">
       <c r="A215" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B215" s="22">
         <v>14</v>
       </c>
       <c r="C215" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="D215" s="21" t="s">
         <v>406</v>
-      </c>
-      <c r="D215" s="21" t="s">
-        <v>407</v>
       </c>
       <c r="E215" s="23"/>
       <c r="F215" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G215" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="H215" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="H215" s="26" t="s">
+      <c r="I215" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="I215" s="44" t="s">
-        <v>410</v>
-      </c>
       <c r="J215" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="13">
       <c r="A216" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B216" s="22">
         <v>15</v>
       </c>
       <c r="C216" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D216" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E216" s="23"/>
       <c r="F216" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G216" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="H216" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="H216" s="26" t="s">
+      <c r="I216" s="47" t="s">
         <v>413</v>
       </c>
-      <c r="I216" s="47" t="s">
+      <c r="J216" s="26" t="s">
         <v>414</v>
-      </c>
-      <c r="J216" s="26" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="13">
       <c r="A217" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B217" s="22">
         <v>16</v>
       </c>
       <c r="C217" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D217" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E217" s="23"/>
       <c r="F217" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G217" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="H217" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="H217" s="26" t="s">
+      <c r="I217" s="47" t="s">
         <v>413</v>
       </c>
-      <c r="I217" s="47" t="s">
-        <v>414</v>
-      </c>
       <c r="J217" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="13">
       <c r="A218" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B218" s="22">
         <v>17</v>
@@ -8864,35 +8870,35 @@
         <v>34</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E218" s="23"/>
       <c r="F218" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G218" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="H218" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="H218" s="26" t="s">
+      <c r="I218" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="I218" s="44" t="s">
+      <c r="J218" s="26" t="s">
         <v>420</v>
-      </c>
-      <c r="J218" s="26" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="13">
       <c r="A219" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B219" s="22">
         <v>18</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E219" s="23"/>
       <c r="G219" s="24"/>
@@ -8900,16 +8906,16 @@
     </row>
     <row r="220" spans="1:10" ht="13">
       <c r="A220" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B220" s="22">
         <v>19</v>
       </c>
       <c r="C220" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D220" s="21" t="s">
         <v>423</v>
-      </c>
-      <c r="D220" s="21" t="s">
-        <v>424</v>
       </c>
       <c r="E220" s="23"/>
       <c r="G220" s="24"/>
@@ -8917,7 +8923,7 @@
     </row>
     <row r="221" spans="1:10" ht="13">
       <c r="A221" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B221" s="22">
         <v>20</v>
@@ -8926,7 +8932,7 @@
         <v>115</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E221" s="23"/>
       <c r="G221" s="24"/>
@@ -8934,7 +8940,7 @@
     </row>
     <row r="222" spans="1:10" ht="13">
       <c r="A222" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B222" s="22">
         <v>21</v>
@@ -8951,25 +8957,25 @@
       </c>
       <c r="G222" s="24"/>
       <c r="H222" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I222" s="25"/>
       <c r="J222" s="26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="13">
       <c r="A223" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B223" s="22">
         <v>22</v>
       </c>
       <c r="C223" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E223" s="23"/>
       <c r="F223" s="26" t="s">
@@ -8978,12 +8984,12 @@
       <c r="G223" s="24"/>
       <c r="I223" s="25"/>
       <c r="J223" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="13">
       <c r="A224" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B224" s="22">
         <v>23</v>
@@ -8998,25 +9004,25 @@
       </c>
       <c r="G224" s="24"/>
       <c r="H224" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I224" s="25"/>
       <c r="J224" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="13">
       <c r="A225" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B225" s="22">
         <v>24</v>
       </c>
       <c r="C225" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="D225" s="21" t="s">
         <v>432</v>
-      </c>
-      <c r="D225" s="21" t="s">
-        <v>433</v>
       </c>
       <c r="E225" s="23"/>
       <c r="F225" s="26" t="s">
@@ -9025,21 +9031,21 @@
       <c r="G225" s="24"/>
       <c r="I225" s="25"/>
       <c r="J225" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="13">
       <c r="A226" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B226" s="22">
         <v>25</v>
       </c>
       <c r="C226" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="D226" s="21" t="s">
         <v>435</v>
-      </c>
-      <c r="D226" s="21" t="s">
-        <v>436</v>
       </c>
       <c r="E226" s="23"/>
       <c r="F226" s="26" t="s">
@@ -9048,80 +9054,80 @@
       <c r="G226" s="24"/>
       <c r="I226" s="25"/>
       <c r="J226" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="13">
       <c r="A227" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B227" s="22">
         <v>26</v>
       </c>
       <c r="C227" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E227" s="23"/>
       <c r="F227" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G227" s="27"/>
       <c r="H227" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="I227" s="48" t="s">
         <v>439</v>
       </c>
-      <c r="I227" s="48" t="s">
+      <c r="J227" s="26" t="s">
         <v>440</v>
-      </c>
-      <c r="J227" s="26" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="13">
       <c r="A228" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B228" s="22">
         <v>27</v>
       </c>
       <c r="C228" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D228" s="21" t="s">
         <v>442</v>
-      </c>
-      <c r="D228" s="21" t="s">
-        <v>443</v>
       </c>
       <c r="E228" s="23"/>
       <c r="G228" s="24"/>
       <c r="I228" s="25"/>
       <c r="J228" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="13">
       <c r="A229" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B229" s="22">
         <v>28</v>
       </c>
       <c r="C229" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="D229" s="21" t="s">
         <v>445</v>
-      </c>
-      <c r="D229" s="21" t="s">
-        <v>446</v>
       </c>
       <c r="E229" s="23"/>
       <c r="G229" s="24"/>
       <c r="I229" s="25"/>
       <c r="J229" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="13">
       <c r="A230" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B230" s="22">
         <v>29</v>
@@ -9136,22 +9142,22 @@
       </c>
       <c r="G230" s="24"/>
       <c r="H230" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I230" s="25"/>
       <c r="J230" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="13">
       <c r="A231" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B231" s="22">
         <v>30</v>
       </c>
       <c r="C231" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D231" s="21" t="s">
         <v>20</v>
@@ -9162,23 +9168,23 @@
       </c>
       <c r="G231" s="24"/>
       <c r="H231" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I231" s="25"/>
       <c r="J231" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="13">
       <c r="A232" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B232" s="22">
         <v>31</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E232" s="23"/>
       <c r="F232" s="26" t="s">
@@ -9187,19 +9193,19 @@
       <c r="G232" s="24"/>
       <c r="I232" s="25"/>
       <c r="J232" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="13">
       <c r="A233" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B233" s="22">
         <v>32</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E233" s="23"/>
       <c r="F233" s="26" t="s">
@@ -9208,19 +9214,19 @@
       <c r="G233" s="24"/>
       <c r="I233" s="25"/>
       <c r="J233" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="13">
       <c r="A234" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B234" s="22">
         <v>33</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E234" s="23"/>
       <c r="F234" s="26" t="s">
@@ -9229,19 +9235,19 @@
       <c r="G234" s="24"/>
       <c r="I234" s="25"/>
       <c r="J234" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="13">
       <c r="A235" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B235" s="22">
         <v>34</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E235" s="23"/>
       <c r="F235" s="26" t="s">
@@ -9250,19 +9256,19 @@
       <c r="G235" s="24"/>
       <c r="I235" s="25"/>
       <c r="J235" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="13">
       <c r="A236" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B236" s="22">
         <v>35</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E236" s="23"/>
       <c r="F236" s="26" t="s">
@@ -9271,12 +9277,12 @@
       <c r="G236" s="24"/>
       <c r="I236" s="25"/>
       <c r="J236" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="13">
       <c r="A237" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B237" s="22">
         <v>36</v>
@@ -9290,19 +9296,19 @@
         <v>135</v>
       </c>
       <c r="G237" s="82" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H237" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I237" s="25"/>
       <c r="J237" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="13">
       <c r="A238" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B238" s="22">
         <v>37</v>
@@ -9311,7 +9317,7 @@
         <v>115</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E238" s="23"/>
       <c r="G238" s="24"/>
@@ -9319,7 +9325,7 @@
     </row>
     <row r="239" spans="1:10" ht="13">
       <c r="A239" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B239" s="22">
         <v>38</v>
@@ -9328,28 +9334,28 @@
         <v>115</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E239" s="23"/>
       <c r="F239" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G239" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="H239" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="H239" s="26" t="s">
+      <c r="I239" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="I239" s="44" t="s">
+      <c r="J239" s="26" t="s">
         <v>468</v>
-      </c>
-      <c r="J239" s="26" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="13">
       <c r="A240" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B240" s="22">
         <v>39</v>
@@ -9358,20 +9364,20 @@
         <v>34</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E240" s="23"/>
       <c r="F240" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G240" s="82" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I240" s="25"/>
     </row>
     <row r="241" spans="1:10" ht="13">
       <c r="A241" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B241" s="22">
         <v>40</v>
@@ -9380,20 +9386,20 @@
         <v>34</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E241" s="23"/>
       <c r="F241" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G241" s="82" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I241" s="25"/>
     </row>
     <row r="242" spans="1:10" ht="13">
       <c r="A242" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B242" s="22">
         <v>41</v>
@@ -9406,24 +9412,24 @@
       </c>
       <c r="E242" s="23"/>
       <c r="F242" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G242" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="H242" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="H242" s="26" t="s">
+      <c r="I242" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="I242" s="44" t="s">
+      <c r="J242" s="26" t="s">
         <v>468</v>
-      </c>
-      <c r="J242" s="26" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="13">
       <c r="A243" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B243" s="22">
         <v>42</v>
@@ -9435,39 +9441,39 @@
       <c r="E243" s="23"/>
       <c r="G243" s="24"/>
       <c r="H243" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I243" s="25"/>
     </row>
     <row r="244" spans="1:10" ht="13">
       <c r="A244" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B244" s="22">
         <v>43</v>
       </c>
       <c r="C244" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E244" s="23"/>
       <c r="G244" s="24"/>
       <c r="I244" s="25"/>
       <c r="J244" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="13">
       <c r="A245" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B245" s="22">
         <v>44</v>
       </c>
       <c r="C245" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D245" s="21" t="s">
         <v>20</v>
@@ -9477,48 +9483,48 @@
         <v>141</v>
       </c>
       <c r="G245" s="82" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H245" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="I245" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="I245" s="30" t="s">
+      <c r="J245" s="26" t="s">
         <v>477</v>
-      </c>
-      <c r="J245" s="26" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="13">
       <c r="A246" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B246" s="22">
         <v>45</v>
       </c>
       <c r="C246" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E246" s="23"/>
       <c r="F246" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G246" s="82" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I246" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J246" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="13">
       <c r="A247" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B247" s="22">
         <v>46</v>
@@ -9527,7 +9533,7 @@
         <v>115</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E247" s="23"/>
       <c r="G247" s="24"/>
@@ -9535,41 +9541,41 @@
     </row>
     <row r="248" spans="1:10" ht="13">
       <c r="A248" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B248" s="22">
         <v>47</v>
       </c>
       <c r="C248" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="D248" s="21" t="s">
         <v>482</v>
-      </c>
-      <c r="D248" s="21" t="s">
-        <v>483</v>
       </c>
       <c r="E248" s="23"/>
       <c r="F248" s="26" t="s">
         <v>135</v>
       </c>
       <c r="G248" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I248" s="25"/>
       <c r="J248" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="13">
       <c r="A249" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B249" s="22">
         <v>48</v>
       </c>
       <c r="C249" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D249" s="21" t="s">
         <v>486</v>
-      </c>
-      <c r="D249" s="21" t="s">
-        <v>487</v>
       </c>
       <c r="E249" s="23"/>
       <c r="F249" s="26" t="s">
@@ -9578,18 +9584,18 @@
       <c r="G249" s="24"/>
       <c r="I249" s="25"/>
       <c r="J249" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="13">
       <c r="A250" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B250" s="22">
         <v>49</v>
       </c>
       <c r="C250" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D250" s="21" t="s">
         <v>20</v>
@@ -9599,27 +9605,27 @@
         <v>141</v>
       </c>
       <c r="G250" s="82" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H250" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="I250" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="I250" s="30" t="s">
+      <c r="J250" s="26" t="s">
         <v>490</v>
-      </c>
-      <c r="J250" s="26" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="13">
       <c r="A251" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B251" s="22">
         <v>50</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D251" s="21" t="s">
         <v>20</v>
@@ -9630,22 +9636,22 @@
       </c>
       <c r="G251" s="24"/>
       <c r="H251" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I251" s="25"/>
       <c r="J251" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="13">
       <c r="A252" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B252" s="22">
         <v>51</v>
       </c>
       <c r="C252" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>20</v>
@@ -9656,27 +9662,27 @@
       </c>
       <c r="G252" s="24"/>
       <c r="H252" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="I252" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="I252" s="30" t="s">
+      <c r="J252" s="26" t="s">
         <v>495</v>
-      </c>
-      <c r="J252" s="26" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="13">
       <c r="A253" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B253" s="22">
         <v>52</v>
       </c>
       <c r="C253" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E253" s="23"/>
       <c r="F253" s="26" t="s">
@@ -9685,49 +9691,49 @@
       <c r="G253" s="24"/>
       <c r="I253" s="25"/>
       <c r="J253" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="13">
       <c r="A254" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B254" s="22">
         <v>53</v>
       </c>
       <c r="C254" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="D254" s="21" t="s">
         <v>498</v>
-      </c>
-      <c r="D254" s="21" t="s">
-        <v>499</v>
       </c>
       <c r="E254" s="23"/>
       <c r="F254" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G254" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="H254" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="H254" s="26" t="s">
+      <c r="I254" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="I254" s="44" t="s">
+      <c r="J254" s="26" t="s">
         <v>502</v>
-      </c>
-      <c r="J254" s="26" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="13">
       <c r="A255" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B255" s="22">
         <v>54</v>
       </c>
       <c r="C255" s="23"/>
       <c r="D255" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E255" s="23"/>
       <c r="F255" s="26" t="s">
@@ -9736,18 +9742,18 @@
       <c r="G255" s="24"/>
       <c r="I255" s="25"/>
       <c r="J255" s="26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="13">
       <c r="A256" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B256" s="22">
         <v>55</v>
       </c>
       <c r="C256" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D256" s="21" t="s">
         <v>20</v>
@@ -9758,44 +9764,44 @@
       </c>
       <c r="G256" s="24"/>
       <c r="H256" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="I256" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="I256" s="30" t="s">
+      <c r="J256" s="26" t="s">
         <v>506</v>
-      </c>
-      <c r="J256" s="26" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="13">
       <c r="A257" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B257" s="22">
         <v>56</v>
       </c>
       <c r="C257" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="D257" s="21" t="s">
         <v>508</v>
-      </c>
-      <c r="D257" s="21" t="s">
-        <v>509</v>
       </c>
       <c r="E257" s="23"/>
       <c r="G257" s="24"/>
       <c r="I257" s="25"/>
       <c r="J257" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="13">
       <c r="A258" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B258" s="22">
         <v>57</v>
       </c>
       <c r="C258" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D258" s="21" t="s">
         <v>20</v>
@@ -9806,42 +9812,42 @@
       </c>
       <c r="G258" s="24"/>
       <c r="H258" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I258" s="25"/>
       <c r="J258" s="26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="13">
       <c r="A259" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B259" s="22">
         <v>58</v>
       </c>
       <c r="C259" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="D259" s="21" t="s">
         <v>514</v>
-      </c>
-      <c r="D259" s="21" t="s">
-        <v>515</v>
       </c>
       <c r="E259" s="23"/>
       <c r="G259" s="24"/>
       <c r="I259" s="25"/>
       <c r="J259" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="13">
       <c r="A260" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B260" s="22">
         <v>59</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D260" s="21" t="s">
         <v>20</v>
@@ -9852,16 +9858,16 @@
       </c>
       <c r="G260" s="24"/>
       <c r="H260" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I260" s="25"/>
       <c r="J260" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="13">
       <c r="A261" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B261" s="22">
         <v>60</v>
@@ -9878,131 +9884,131 @@
       </c>
       <c r="G261" s="24"/>
       <c r="H261" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I261" s="25"/>
       <c r="J261" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="13">
       <c r="A262" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B262" s="22">
         <v>61</v>
       </c>
       <c r="C262" s="29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E262" s="23"/>
       <c r="G262" s="24"/>
       <c r="I262" s="25"/>
       <c r="J262" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="13">
       <c r="A263" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B263" s="22">
         <v>62</v>
       </c>
       <c r="C263" s="23"/>
       <c r="D263" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E263" s="23"/>
       <c r="F263" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G263" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I263" s="25"/>
       <c r="J263" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="13">
       <c r="A264" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B264" s="22">
         <v>63</v>
       </c>
       <c r="C264" s="23"/>
       <c r="D264" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E264" s="23"/>
       <c r="F264" s="6" t="s">
         <v>141</v>
       </c>
       <c r="G264" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
       <c r="J264" s="50" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="13">
       <c r="A265" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B265" s="22">
         <v>64</v>
       </c>
       <c r="C265" s="23"/>
       <c r="D265" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E265" s="23"/>
       <c r="F265" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G265" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I265" s="25"/>
       <c r="J265" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="13">
       <c r="A266" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B266" s="22">
         <v>65</v>
       </c>
       <c r="C266" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="D266" s="21" t="s">
         <v>530</v>
-      </c>
-      <c r="D266" s="21" t="s">
-        <v>531</v>
       </c>
       <c r="E266" s="23"/>
       <c r="F266" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G266" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I266" s="25"/>
       <c r="J266" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="13">
       <c r="A267" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B267" s="22">
         <v>66</v>
@@ -10016,57 +10022,57 @@
         <v>141</v>
       </c>
       <c r="G267" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="H267" s="26" t="s">
         <v>534</v>
-      </c>
-      <c r="H267" s="26" t="s">
-        <v>535</v>
       </c>
       <c r="I267" s="25"/>
       <c r="J267" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="13">
       <c r="A268" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B268" s="22">
         <v>67</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E268" s="23"/>
       <c r="G268" s="24"/>
       <c r="I268" s="25"/>
       <c r="J268" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="13">
       <c r="A269" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B269" s="22">
         <v>68</v>
       </c>
       <c r="C269" s="23"/>
       <c r="D269" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E269" s="23"/>
       <c r="G269" s="24"/>
       <c r="I269" s="25"/>
       <c r="J269" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="13">
       <c r="A270" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B270" s="22">
         <v>69</v>
@@ -10082,19 +10088,19 @@
         <v>141</v>
       </c>
       <c r="G270" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="H270" s="51" t="s">
         <v>538</v>
-      </c>
-      <c r="H270" s="51" t="s">
-        <v>539</v>
       </c>
       <c r="I270" s="25"/>
       <c r="J270" s="26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="13">
       <c r="A271" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B271" s="22">
         <v>70</v>
@@ -10109,40 +10115,40 @@
       </c>
       <c r="G271" s="27"/>
       <c r="H271" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I271" s="25"/>
     </row>
     <row r="272" spans="1:10" ht="13">
       <c r="A272" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B272" s="22">
         <v>71</v>
       </c>
       <c r="C272" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="D272" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="D272" s="21" t="s">
+      <c r="E272" s="28" t="s">
         <v>542</v>
-      </c>
-      <c r="E272" s="28" t="s">
-        <v>543</v>
       </c>
       <c r="F272" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G272" s="24"/>
       <c r="I272" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="J272" s="26" t="s">
         <v>544</v>
-      </c>
-      <c r="J272" s="26" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="13">
       <c r="A273" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B273" s="22">
         <v>72</v>
@@ -10152,23 +10158,23 @@
         <v>20</v>
       </c>
       <c r="E273" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F273" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G273" s="24"/>
       <c r="H273" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I273" s="25"/>
       <c r="J273" s="26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="13">
       <c r="A274" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B274" s="22">
         <v>73</v>
@@ -10177,7 +10183,7 @@
         <v>86</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E274" s="23"/>
       <c r="G274" s="24"/>
@@ -10185,14 +10191,14 @@
     </row>
     <row r="275" spans="1:10" ht="13">
       <c r="A275" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B275" s="22">
         <v>74</v>
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E275" s="23"/>
       <c r="G275" s="24"/>
@@ -10200,16 +10206,16 @@
     </row>
     <row r="276" spans="1:10" ht="13">
       <c r="A276" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B276" s="22">
         <v>75</v>
       </c>
       <c r="C276" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="D276" s="21" t="s">
         <v>549</v>
-      </c>
-      <c r="D276" s="21" t="s">
-        <v>550</v>
       </c>
       <c r="E276" s="23"/>
       <c r="G276" s="24"/>
@@ -10217,14 +10223,14 @@
     </row>
     <row r="277" spans="1:10" ht="13">
       <c r="A277" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B277" s="22">
         <v>76</v>
       </c>
       <c r="C277" s="23"/>
       <c r="D277" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E277" s="23"/>
       <c r="G277" s="24"/>
@@ -10232,7 +10238,7 @@
     </row>
     <row r="278" spans="1:10" ht="13">
       <c r="A278" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B278" s="22">
         <v>77</v>
@@ -10249,20 +10255,20 @@
       </c>
       <c r="G278" s="24"/>
       <c r="H278" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I278" s="25"/>
     </row>
     <row r="279" spans="1:10" ht="13">
       <c r="A279" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B279" s="22">
         <v>78</v>
       </c>
       <c r="C279" s="23"/>
       <c r="D279" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E279" s="23"/>
       <c r="G279" s="24"/>
@@ -10270,73 +10276,73 @@
     </row>
     <row r="280" spans="1:10" ht="13">
       <c r="A280" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B280" s="22">
         <v>79</v>
       </c>
       <c r="C280" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E280" s="23"/>
       <c r="F280" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G280" s="82" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I280" s="25"/>
     </row>
     <row r="281" spans="1:10" ht="13">
       <c r="A281" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B281" s="22">
         <v>80</v>
       </c>
       <c r="C281" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E281" s="23"/>
       <c r="F281" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G281" s="82" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I281" s="25"/>
     </row>
     <row r="282" spans="1:10" ht="13">
       <c r="A282" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B282" s="22">
         <v>81</v>
       </c>
       <c r="C282" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E282" s="23"/>
       <c r="F282" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G282" s="82" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I282" s="25"/>
     </row>
     <row r="283" spans="1:10" ht="13">
       <c r="A283" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B283" s="22">
         <v>82</v>
@@ -10345,24 +10351,24 @@
         <v>34</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E283" s="23"/>
       <c r="G283" s="82" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I283" s="25"/>
     </row>
     <row r="284" spans="1:10" ht="13">
       <c r="A284" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B284" s="22">
         <v>83</v>
       </c>
       <c r="C284" s="23"/>
       <c r="D284" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E284" s="23"/>
       <c r="G284" s="24"/>
@@ -10370,7 +10376,7 @@
     </row>
     <row r="285" spans="1:10" ht="13">
       <c r="A285" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B285" s="22">
         <v>84</v>
@@ -10385,13 +10391,13 @@
       </c>
       <c r="G285" s="24"/>
       <c r="H285" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I285" s="25"/>
     </row>
     <row r="286" spans="1:10" ht="13">
       <c r="A286" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B286" s="22">
         <v>85</v>
@@ -10406,20 +10412,20 @@
       </c>
       <c r="G286" s="24"/>
       <c r="H286" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I286" s="25"/>
     </row>
     <row r="287" spans="1:10" ht="13">
       <c r="A287" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B287" s="22">
         <v>86</v>
       </c>
       <c r="C287" s="23"/>
       <c r="D287" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E287" s="23"/>
       <c r="G287" s="24"/>
@@ -10427,14 +10433,14 @@
     </row>
     <row r="288" spans="1:10" ht="13">
       <c r="A288" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B288" s="22">
         <v>87</v>
       </c>
       <c r="C288" s="23"/>
       <c r="D288" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E288" s="23"/>
       <c r="G288" s="24"/>
@@ -10442,7 +10448,7 @@
     </row>
     <row r="289" spans="1:10" ht="13">
       <c r="A289" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B289" s="22">
         <v>88</v>
@@ -10451,20 +10457,20 @@
         <v>112</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E289" s="23"/>
       <c r="F289" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G289" s="82" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I289" s="25"/>
     </row>
     <row r="290" spans="1:10" ht="13">
       <c r="A290" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B290" s="22">
         <v>89</v>
@@ -10481,22 +10487,22 @@
       </c>
       <c r="G290" s="24"/>
       <c r="H290" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I290" s="25"/>
     </row>
     <row r="291" spans="1:10" ht="13">
       <c r="A291" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B291" s="22">
         <v>90</v>
       </c>
       <c r="C291" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E291" s="23"/>
       <c r="G291" s="24"/>
@@ -10504,13 +10510,13 @@
     </row>
     <row r="292" spans="1:10" ht="13">
       <c r="A292" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B292" s="22">
         <v>91</v>
       </c>
       <c r="C292" s="29" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D292" s="21" t="s">
         <v>20</v>
@@ -10520,43 +10526,43 @@
         <v>25</v>
       </c>
       <c r="G292" s="82" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H292" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I292" s="25"/>
     </row>
     <row r="293" spans="1:10" ht="13">
       <c r="A293" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B293" s="22">
         <v>92</v>
       </c>
       <c r="C293" s="23"/>
       <c r="D293" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E293" s="23"/>
       <c r="F293" t="s">
         <v>31</v>
       </c>
       <c r="G293" s="82" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I293" s="25"/>
     </row>
     <row r="294" spans="1:10" ht="13">
       <c r="A294" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B294" s="22">
         <v>93</v>
       </c>
       <c r="C294" s="23"/>
       <c r="D294" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E294" s="23"/>
       <c r="G294" s="24"/>
@@ -10564,14 +10570,14 @@
     </row>
     <row r="295" spans="1:10" ht="13">
       <c r="A295" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B295" s="22">
         <v>94</v>
       </c>
       <c r="C295" s="23"/>
       <c r="D295" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E295" s="23"/>
       <c r="G295" s="24"/>
@@ -10579,13 +10585,13 @@
     </row>
     <row r="296" spans="1:10" ht="13">
       <c r="A296" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B296" s="22">
         <v>95</v>
       </c>
       <c r="C296" s="29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D296" s="21" t="s">
         <v>20</v>
@@ -10596,69 +10602,69 @@
       </c>
       <c r="G296" s="24"/>
       <c r="H296" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="I296" s="30" t="s">
         <v>569</v>
       </c>
-      <c r="I296" s="30" t="s">
+      <c r="J296" s="26" t="s">
         <v>570</v>
-      </c>
-      <c r="J296" s="26" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="13">
       <c r="A297" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B297" s="22">
         <v>96</v>
       </c>
       <c r="C297" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="D297" s="21" t="s">
         <v>572</v>
-      </c>
-      <c r="D297" s="21" t="s">
-        <v>573</v>
       </c>
       <c r="E297" s="23"/>
       <c r="F297" t="s">
         <v>31</v>
       </c>
       <c r="G297" s="82" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I297" s="25"/>
     </row>
     <row r="298" spans="1:10" ht="13">
       <c r="A298" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B298" s="22">
         <v>97</v>
       </c>
       <c r="C298" s="23"/>
       <c r="D298" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E298" s="23"/>
       <c r="F298" t="s">
         <v>31</v>
       </c>
       <c r="G298" s="82" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I298" s="25"/>
     </row>
     <row r="299" spans="1:10" ht="15">
       <c r="A299" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B299" s="22">
         <v>98</v>
       </c>
       <c r="C299" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="D299" s="21" t="s">
         <v>575</v>
-      </c>
-      <c r="D299" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="E299" s="23"/>
       <c r="F299" s="26" t="s">
@@ -10667,18 +10673,18 @@
       <c r="G299" s="24"/>
       <c r="I299" s="25"/>
       <c r="J299" s="52" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="13">
       <c r="A300" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B300" s="22">
         <v>99</v>
       </c>
       <c r="C300" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D300" s="21" t="s">
         <v>20</v>
@@ -10689,18 +10695,18 @@
       </c>
       <c r="G300" s="24"/>
       <c r="H300" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="I300" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="I300" s="30" t="s">
+      <c r="J300" s="26" t="s">
         <v>580</v>
-      </c>
-      <c r="J300" s="26" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="13">
       <c r="A301" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B301" s="22">
         <v>100</v>
@@ -10714,25 +10720,25 @@
         <v>25</v>
       </c>
       <c r="G301" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="H301" s="26" t="s">
         <v>582</v>
-      </c>
-      <c r="H301" s="26" t="s">
-        <v>583</v>
       </c>
       <c r="I301" s="25"/>
     </row>
     <row r="302" spans="1:10" ht="13">
       <c r="A302" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B302" s="22">
         <v>101</v>
       </c>
       <c r="C302" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="D302" s="21" t="s">
         <v>584</v>
-      </c>
-      <c r="D302" s="21" t="s">
-        <v>585</v>
       </c>
       <c r="E302" s="28" t="s">
         <v>44</v>
@@ -10741,22 +10747,22 @@
         <v>31</v>
       </c>
       <c r="G302" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I302" s="25"/>
     </row>
     <row r="303" spans="1:10" ht="13">
       <c r="A303" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B303" s="22">
         <v>102</v>
       </c>
       <c r="C303" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D303" s="21" t="s">
         <v>587</v>
-      </c>
-      <c r="D303" s="21" t="s">
-        <v>588</v>
       </c>
       <c r="E303" s="23"/>
       <c r="G303" s="24"/>
@@ -10764,14 +10770,14 @@
     </row>
     <row r="304" spans="1:10" ht="13">
       <c r="A304" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B304" s="22">
         <v>103</v>
       </c>
       <c r="C304" s="23"/>
       <c r="D304" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E304" s="23"/>
       <c r="G304" s="24"/>
@@ -10779,7 +10785,7 @@
     </row>
     <row r="305" spans="1:9" ht="13">
       <c r="A305" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B305" s="22">
         <v>104</v>
@@ -10788,17 +10794,17 @@
         <v>34</v>
       </c>
       <c r="D305" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="E305" s="28" t="s">
         <v>590</v>
-      </c>
-      <c r="E305" s="28" t="s">
-        <v>591</v>
       </c>
       <c r="G305" s="24"/>
       <c r="I305" s="25"/>
     </row>
     <row r="306" spans="1:9" ht="13">
       <c r="A306" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B306" s="22">
         <v>105</v>
@@ -10807,20 +10813,20 @@
         <v>59</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E306" s="23"/>
       <c r="F306" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G306" s="82" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I306" s="25"/>
     </row>
     <row r="307" spans="1:9" ht="13">
       <c r="A307" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B307" s="22">
         <v>106</v>
@@ -10835,20 +10841,20 @@
       </c>
       <c r="G307" s="24"/>
       <c r="H307" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I307" s="25"/>
     </row>
     <row r="308" spans="1:9" ht="13">
       <c r="A308" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B308" s="22">
         <v>107</v>
       </c>
       <c r="C308" s="23"/>
       <c r="D308" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E308" s="23"/>
       <c r="G308" s="24"/>
@@ -10856,16 +10862,16 @@
     </row>
     <row r="309" spans="1:9" ht="13">
       <c r="A309" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B309" s="22">
         <v>108</v>
       </c>
       <c r="C309" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E309" s="23"/>
       <c r="G309" s="24"/>
@@ -10873,14 +10879,14 @@
     </row>
     <row r="310" spans="1:9" ht="13">
       <c r="A310" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B310" s="22">
         <v>109</v>
       </c>
       <c r="C310" s="23"/>
       <c r="D310" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E310" s="23"/>
       <c r="G310" s="24"/>
@@ -10888,7 +10894,7 @@
     </row>
     <row r="311" spans="1:9" ht="13">
       <c r="A311" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B311" s="22">
         <v>110</v>
@@ -10904,23 +10910,23 @@
         <v>141</v>
       </c>
       <c r="G311" s="82" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H311" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I311" s="25"/>
     </row>
     <row r="312" spans="1:9" ht="13">
       <c r="A312" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B312" s="22">
         <v>111</v>
       </c>
       <c r="C312" s="23"/>
       <c r="D312" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E312" s="23"/>
       <c r="G312" s="24"/>
@@ -10928,29 +10934,29 @@
     </row>
     <row r="313" spans="1:9" ht="13">
       <c r="A313" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B313" s="22">
         <v>112</v>
       </c>
       <c r="C313" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="D313" s="21" t="s">
         <v>599</v>
-      </c>
-      <c r="D313" s="21" t="s">
-        <v>600</v>
       </c>
       <c r="E313" s="23"/>
       <c r="F313" t="s">
         <v>31</v>
       </c>
       <c r="G313" s="82" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I313" s="25"/>
     </row>
     <row r="314" spans="1:9" ht="13">
       <c r="A314" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B314" s="22">
         <v>113</v>
@@ -10964,16 +10970,16 @@
         <v>141</v>
       </c>
       <c r="G314" s="82" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H314" s="26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I314" s="25"/>
     </row>
     <row r="315" spans="1:9" ht="13">
       <c r="A315" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B315" s="22">
         <v>114</v>
@@ -10988,55 +10994,55 @@
       </c>
       <c r="G315" s="24"/>
       <c r="H315" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I315" s="25"/>
     </row>
     <row r="316" spans="1:9" ht="13">
       <c r="A316" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B316" s="22">
         <v>115</v>
       </c>
       <c r="C316" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E316" s="23"/>
       <c r="F316" t="s">
         <v>31</v>
       </c>
       <c r="G316" s="82" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I316" s="25"/>
     </row>
     <row r="317" spans="1:9" ht="13">
       <c r="A317" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B317" s="22">
         <v>116</v>
       </c>
       <c r="C317" s="23"/>
       <c r="D317" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E317" s="23"/>
       <c r="F317" t="s">
         <v>31</v>
       </c>
       <c r="G317" s="82" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I317" s="25"/>
     </row>
     <row r="318" spans="1:9" ht="13">
       <c r="A318" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B318" s="22">
         <v>117</v>
@@ -11045,7 +11051,7 @@
         <v>78</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E318" s="23"/>
       <c r="G318" s="24"/>
@@ -11053,14 +11059,14 @@
     </row>
     <row r="319" spans="1:9" ht="13">
       <c r="A319" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B319" s="22">
         <v>118</v>
       </c>
       <c r="C319" s="23"/>
       <c r="D319" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E319" s="23"/>
       <c r="G319" s="24"/>
@@ -11068,14 +11074,14 @@
     </row>
     <row r="320" spans="1:9" ht="13">
       <c r="A320" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B320" s="22">
         <v>119</v>
       </c>
       <c r="C320" s="23"/>
       <c r="D320" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E320" s="23"/>
       <c r="G320" s="24"/>
@@ -11083,16 +11089,16 @@
     </row>
     <row r="321" spans="1:10" ht="13">
       <c r="A321" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B321" s="22">
         <v>120</v>
       </c>
       <c r="C321" s="29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E321" s="23"/>
       <c r="G321" s="24"/>
@@ -11100,24 +11106,24 @@
     </row>
     <row r="322" spans="1:10" ht="13">
       <c r="A322" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B322" s="22">
         <v>121</v>
       </c>
       <c r="C322" s="23"/>
       <c r="D322" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E322" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G322" s="24"/>
       <c r="I322" s="25"/>
     </row>
     <row r="323" spans="1:10" ht="13">
       <c r="A323" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B323" s="22">
         <v>122</v>
@@ -11132,19 +11138,19 @@
       </c>
       <c r="G323" s="24"/>
       <c r="H323" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I323" s="25"/>
     </row>
     <row r="324" spans="1:10" ht="13">
       <c r="A324" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B324" s="22">
         <v>123</v>
       </c>
       <c r="C324" s="29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D324" s="21" t="s">
         <v>20</v>
@@ -11154,16 +11160,16 @@
         <v>141</v>
       </c>
       <c r="G324" s="82" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H324" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I324" s="25"/>
     </row>
     <row r="325" spans="1:10" ht="13">
       <c r="A325" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B325" s="22">
         <v>124</v>
@@ -11180,19 +11186,19 @@
       </c>
       <c r="G325" s="24"/>
       <c r="H325" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I325" s="25"/>
     </row>
     <row r="326" spans="1:10" ht="13">
       <c r="A326" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B326" s="22">
         <v>125</v>
       </c>
       <c r="C326" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D326" s="21" t="s">
         <v>20</v>
@@ -11203,41 +11209,41 @@
       </c>
       <c r="G326" s="24"/>
       <c r="H326" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I326" s="25"/>
     </row>
     <row r="327" spans="1:10" ht="13">
       <c r="A327" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B327" s="22">
         <v>126</v>
       </c>
       <c r="C327" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E327" s="23"/>
       <c r="F327" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G327" s="27" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I327" s="25"/>
     </row>
     <row r="328" spans="1:10" ht="13">
       <c r="A328" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B328" s="22">
         <v>127</v>
       </c>
       <c r="C328" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D328" s="21" t="s">
         <v>20</v>
@@ -11247,10 +11253,10 @@
         <v>141</v>
       </c>
       <c r="G328" s="53" t="s">
+        <v>617</v>
+      </c>
+      <c r="H328" s="51" t="s">
         <v>618</v>
-      </c>
-      <c r="H328" s="51" t="s">
-        <v>619</v>
       </c>
       <c r="I328" s="25"/>
       <c r="J328" s="41" t="s">
@@ -11259,13 +11265,13 @@
     </row>
     <row r="329" spans="1:10" ht="15">
       <c r="A329" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B329" s="22">
         <v>128</v>
       </c>
       <c r="C329" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D329" s="21" t="s">
         <v>20</v>
@@ -11275,10 +11281,10 @@
         <v>141</v>
       </c>
       <c r="G329" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="H329" s="52" t="s">
         <v>621</v>
-      </c>
-      <c r="H329" s="52" t="s">
-        <v>622</v>
       </c>
       <c r="I329" s="25"/>
       <c r="J329" s="41" t="s">
@@ -11287,16 +11293,16 @@
     </row>
     <row r="330" spans="1:10" ht="13">
       <c r="A330" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B330" s="22">
         <v>129</v>
       </c>
       <c r="C330" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="D330" s="21" t="s">
         <v>623</v>
-      </c>
-      <c r="D330" s="21" t="s">
-        <v>624</v>
       </c>
       <c r="E330" s="23"/>
       <c r="G330" s="24"/>
@@ -11304,52 +11310,52 @@
     </row>
     <row r="331" spans="1:10" ht="13">
       <c r="A331" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B331" s="22">
         <v>130</v>
       </c>
       <c r="C331" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="D331" s="21" t="s">
         <v>625</v>
-      </c>
-      <c r="D331" s="21" t="s">
-        <v>626</v>
       </c>
       <c r="E331" s="23"/>
       <c r="F331" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="G331" s="55" t="s">
         <v>627</v>
-      </c>
-      <c r="G331" s="55" t="s">
-        <v>628</v>
       </c>
       <c r="I331" s="25"/>
     </row>
     <row r="332" spans="1:10" ht="15">
       <c r="A332" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B332" s="22">
         <v>131</v>
       </c>
       <c r="C332" s="23"/>
       <c r="D332" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E332" s="23"/>
       <c r="F332" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="G332" s="54" t="s">
         <v>630</v>
-      </c>
-      <c r="G332" s="54" t="s">
-        <v>631</v>
       </c>
       <c r="I332" s="25"/>
       <c r="J332" s="56" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="13">
       <c r="A333" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B333" s="22">
         <v>132</v>
@@ -11364,13 +11370,13 @@
       </c>
       <c r="G333" s="24"/>
       <c r="H333" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I333" s="25"/>
     </row>
     <row r="334" spans="1:10" ht="13">
       <c r="A334" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B334" s="22">
         <v>133</v>
@@ -11385,19 +11391,19 @@
       </c>
       <c r="G334" s="24"/>
       <c r="H334" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I334" s="25"/>
     </row>
     <row r="335" spans="1:10" ht="13">
       <c r="A335" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B335" s="22">
         <v>134</v>
       </c>
       <c r="C335" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D335" s="21" t="s">
         <v>20</v>
@@ -11408,13 +11414,13 @@
       </c>
       <c r="G335" s="24"/>
       <c r="H335" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I335" s="25"/>
     </row>
     <row r="336" spans="1:10" ht="13">
       <c r="A336" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B336" s="22">
         <v>135</v>
@@ -11423,7 +11429,7 @@
         <v>34</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E336" s="23"/>
       <c r="G336" s="24"/>
@@ -11431,7 +11437,7 @@
     </row>
     <row r="337" spans="1:10" ht="13">
       <c r="A337" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B337" s="22">
         <v>136</v>
@@ -11440,28 +11446,28 @@
         <v>105</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E337" s="23"/>
       <c r="F337" s="26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G337" s="24"/>
       <c r="I337" s="25"/>
       <c r="J337" s="41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="13">
       <c r="A338" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B338" s="22">
         <v>137</v>
       </c>
       <c r="C338" s="23"/>
       <c r="D338" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E338" s="23"/>
       <c r="G338" s="24"/>
@@ -11469,7 +11475,7 @@
     </row>
     <row r="339" spans="1:10" ht="13">
       <c r="A339" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B339" s="22">
         <v>138</v>
@@ -11484,16 +11490,16 @@
       </c>
       <c r="G339" s="24"/>
       <c r="H339" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I339" s="25"/>
       <c r="J339" s="26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="15">
       <c r="A340" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B340" s="22">
         <v>139</v>
@@ -11507,25 +11513,25 @@
         <v>141</v>
       </c>
       <c r="G340" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="H340" s="52" t="s">
         <v>642</v>
-      </c>
-      <c r="H340" s="52" t="s">
-        <v>643</v>
       </c>
       <c r="I340" s="25"/>
     </row>
     <row r="341" spans="1:10" ht="13">
       <c r="A341" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B341" s="22">
         <v>140</v>
       </c>
       <c r="C341" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="D341" s="21" t="s">
         <v>644</v>
-      </c>
-      <c r="D341" s="21" t="s">
-        <v>645</v>
       </c>
       <c r="E341" s="23"/>
       <c r="G341" s="24"/>
@@ -11533,13 +11539,13 @@
     </row>
     <row r="342" spans="1:10" ht="13">
       <c r="A342" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B342" s="22">
         <v>141</v>
       </c>
       <c r="C342" s="29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D342" s="21" t="s">
         <v>20</v>
@@ -11550,20 +11556,20 @@
       </c>
       <c r="G342" s="24"/>
       <c r="H342" s="26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I342" s="25"/>
     </row>
     <row r="343" spans="1:10" ht="13">
       <c r="A343" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B343" s="22">
         <v>142</v>
       </c>
       <c r="C343" s="23"/>
       <c r="D343" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E343" s="23"/>
       <c r="G343" s="24"/>
@@ -11571,16 +11577,16 @@
     </row>
     <row r="344" spans="1:10" ht="13">
       <c r="A344" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B344" s="22">
         <v>143</v>
       </c>
       <c r="C344" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E344" s="23"/>
       <c r="G344" s="24"/>
@@ -11588,13 +11594,13 @@
     </row>
     <row r="345" spans="1:10" ht="13">
       <c r="A345" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B345" s="22">
         <v>144</v>
       </c>
       <c r="C345" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D345" s="21" t="s">
         <v>20</v>
@@ -11605,13 +11611,13 @@
       </c>
       <c r="G345" s="24"/>
       <c r="H345" s="26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I345" s="25"/>
     </row>
     <row r="346" spans="1:10" ht="13">
       <c r="A346" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B346" s="22">
         <v>145</v>
@@ -11620,7 +11626,7 @@
         <v>34</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E346" s="23"/>
       <c r="G346" s="24"/>
@@ -11628,16 +11634,16 @@
     </row>
     <row r="347" spans="1:10" ht="13">
       <c r="A347" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B347" s="22">
         <v>146</v>
       </c>
       <c r="C347" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="D347" s="21" t="s">
         <v>652</v>
-      </c>
-      <c r="D347" s="21" t="s">
-        <v>653</v>
       </c>
       <c r="E347" s="23"/>
       <c r="G347" s="24"/>
@@ -11645,7 +11651,7 @@
     </row>
     <row r="348" spans="1:10" ht="13">
       <c r="A348" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B348" s="22">
         <v>147</v>
@@ -11654,7 +11660,7 @@
         <v>78</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E348" s="23"/>
       <c r="G348" s="24"/>
@@ -11662,13 +11668,13 @@
     </row>
     <row r="349" spans="1:10" ht="13">
       <c r="A349" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B349" s="22">
         <v>148</v>
       </c>
       <c r="C349" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D349" s="21" t="s">
         <v>20</v>
@@ -11679,13 +11685,13 @@
       </c>
       <c r="G349" s="24"/>
       <c r="H349" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I349" s="25"/>
     </row>
     <row r="350" spans="1:10" ht="13">
       <c r="A350" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B350" s="22">
         <v>149</v>
@@ -11700,47 +11706,47 @@
       </c>
       <c r="G350" s="24"/>
       <c r="H350" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I350" s="25"/>
     </row>
     <row r="351" spans="1:10" ht="13">
       <c r="A351" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B351" s="22">
         <v>150</v>
       </c>
       <c r="C351" s="23"/>
       <c r="D351" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E351" s="23"/>
       <c r="F351" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G351" s="82" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I351" s="25"/>
     </row>
     <row r="352" spans="1:10" ht="13">
       <c r="A352" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B352" s="22">
         <v>151</v>
       </c>
       <c r="C352" s="23"/>
       <c r="D352" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E352" s="23"/>
       <c r="F352" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G352" s="57" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I352" s="25"/>
       <c r="J352" s="41" t="s">
@@ -11749,7 +11755,7 @@
     </row>
     <row r="353" spans="1:10" ht="13">
       <c r="A353" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B353" s="22">
         <v>152</v>
@@ -11764,20 +11770,20 @@
       </c>
       <c r="G353" s="24"/>
       <c r="H353" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I353" s="25"/>
     </row>
     <row r="354" spans="1:10" ht="13">
       <c r="A354" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B354" s="22">
         <v>153</v>
       </c>
       <c r="C354" s="23"/>
       <c r="D354" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E354" s="23"/>
       <c r="G354" s="24"/>
@@ -11785,50 +11791,50 @@
     </row>
     <row r="355" spans="1:10" ht="13">
       <c r="A355" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B355" s="22">
         <v>154</v>
       </c>
       <c r="C355" s="23"/>
       <c r="D355" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E355" s="28"/>
       <c r="G355" s="24"/>
       <c r="I355" s="25"/>
       <c r="J355" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="356" spans="1:10" ht="13">
       <c r="A356" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B356" s="22">
         <v>155</v>
       </c>
       <c r="C356" s="23"/>
       <c r="D356" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E356" s="23"/>
       <c r="G356" s="24"/>
       <c r="I356" s="25"/>
       <c r="J356" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="357" spans="1:10" ht="13">
       <c r="A357" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B357" s="22">
         <v>156</v>
       </c>
       <c r="C357" s="23"/>
       <c r="D357" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E357" s="23"/>
       <c r="G357" s="24"/>
@@ -11836,7 +11842,7 @@
     </row>
     <row r="358" spans="1:10" ht="13">
       <c r="A358" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B358" s="22">
         <v>157</v>
@@ -11851,45 +11857,45 @@
       </c>
       <c r="G358" s="24"/>
       <c r="H358" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I358" s="25"/>
     </row>
     <row r="359" spans="1:10" ht="13">
       <c r="A359" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B359" s="22">
         <v>158</v>
       </c>
       <c r="C359" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D359" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E359" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F359" t="s">
         <v>31</v>
       </c>
       <c r="G359" s="24"/>
       <c r="H359" s="84" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I359" s="25"/>
     </row>
     <row r="360" spans="1:10" ht="13">
       <c r="A360" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B360" s="22">
         <v>159</v>
       </c>
       <c r="C360" s="23"/>
       <c r="D360" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E360" s="23"/>
       <c r="G360" s="24"/>
@@ -11897,7 +11903,7 @@
     </row>
     <row r="361" spans="1:10" ht="13">
       <c r="A361" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B361" s="22">
         <v>160</v>
@@ -11906,74 +11912,74 @@
         <v>34</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E361" s="23"/>
       <c r="F361" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G361" s="82" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I361" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="J361" s="58" t="s">
         <v>671</v>
-      </c>
-      <c r="J361" s="58" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="362" spans="1:10" ht="13">
       <c r="A362" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="22">
         <v>161</v>
       </c>
       <c r="C362" s="23"/>
       <c r="D362" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E362" s="23"/>
       <c r="F362" t="s">
         <v>31</v>
       </c>
       <c r="G362" s="82" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I362" s="25"/>
     </row>
     <row r="363" spans="1:10" ht="13">
       <c r="A363" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B363" s="22">
         <v>162</v>
       </c>
       <c r="C363" s="23"/>
       <c r="D363" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E363" s="23"/>
       <c r="F363" t="s">
         <v>31</v>
       </c>
       <c r="G363" s="82" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I363" s="25"/>
     </row>
     <row r="364" spans="1:10" ht="13">
       <c r="A364" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B364" s="22">
         <v>163</v>
       </c>
       <c r="C364" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="D364" s="21" t="s">
         <v>675</v>
-      </c>
-      <c r="D364" s="21" t="s">
-        <v>676</v>
       </c>
       <c r="E364" s="23"/>
       <c r="F364" s="26" t="s">
@@ -11982,12 +11988,12 @@
       <c r="G364" s="24"/>
       <c r="I364" s="25"/>
       <c r="J364" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="365" spans="1:10" ht="13">
       <c r="A365" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B365" s="22">
         <v>164</v>
@@ -12003,26 +12009,26 @@
         <v>135</v>
       </c>
       <c r="G365" s="82" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H365" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I365" s="25"/>
       <c r="J365" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="366" spans="1:10" ht="13">
       <c r="A366" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B366" s="22">
         <v>165</v>
       </c>
       <c r="C366" s="23"/>
       <c r="D366" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E366" s="23"/>
       <c r="G366" s="24"/>
@@ -12030,13 +12036,13 @@
     </row>
     <row r="367" spans="1:10" ht="13">
       <c r="A367" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B367" s="22">
         <v>1</v>
       </c>
       <c r="C367" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D367" s="21" t="s">
         <v>20</v>
@@ -12047,20 +12053,20 @@
       </c>
       <c r="G367" s="24"/>
       <c r="H367" s="51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I367" s="25"/>
     </row>
     <row r="368" spans="1:10" ht="13">
       <c r="A368" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B368" s="22">
         <v>2</v>
       </c>
       <c r="C368" s="23"/>
       <c r="D368" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E368" s="23"/>
       <c r="G368" s="24"/>
@@ -12068,7 +12074,7 @@
     </row>
     <row r="369" spans="1:10" ht="13">
       <c r="A369" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B369" s="22">
         <v>3</v>
@@ -12083,13 +12089,13 @@
       </c>
       <c r="G369" s="24"/>
       <c r="H369" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I369" s="25"/>
     </row>
     <row r="370" spans="1:10" ht="13">
       <c r="A370" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B370" s="22">
         <v>4</v>
@@ -12103,23 +12109,23 @@
         <v>141</v>
       </c>
       <c r="G370" s="82" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H370" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I370" s="25"/>
     </row>
     <row r="371" spans="1:10" ht="13">
       <c r="A371" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B371" s="22">
         <v>5</v>
       </c>
       <c r="C371" s="23"/>
       <c r="D371" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E371" s="23"/>
       <c r="G371" s="24"/>
@@ -12127,14 +12133,14 @@
     </row>
     <row r="372" spans="1:10" ht="13">
       <c r="A372" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B372" s="22">
         <v>6</v>
       </c>
       <c r="C372" s="23"/>
       <c r="D372" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E372" s="23"/>
       <c r="G372" s="24"/>
@@ -12142,14 +12148,14 @@
     </row>
     <row r="373" spans="1:10" ht="13">
       <c r="A373" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B373" s="22">
         <v>7</v>
       </c>
       <c r="C373" s="23"/>
       <c r="D373" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E373" s="23"/>
       <c r="G373" s="24"/>
@@ -12157,7 +12163,7 @@
     </row>
     <row r="374" spans="1:10" ht="13">
       <c r="A374" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B374" s="22">
         <v>8</v>
@@ -12166,7 +12172,7 @@
         <v>327</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E374" s="23"/>
       <c r="G374" s="24"/>
@@ -12174,7 +12180,7 @@
     </row>
     <row r="375" spans="1:10" ht="13">
       <c r="A375" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B375" s="22">
         <v>9</v>
@@ -12189,62 +12195,62 @@
       </c>
       <c r="G375" s="24"/>
       <c r="H375" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I375" s="25"/>
     </row>
     <row r="376" spans="1:10" ht="15">
       <c r="A376" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B376" s="22">
         <v>10</v>
       </c>
       <c r="C376" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="D376" s="21" t="s">
         <v>691</v>
-      </c>
-      <c r="D376" s="21" t="s">
-        <v>692</v>
       </c>
       <c r="E376" s="23"/>
       <c r="F376" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G376" s="54" t="s">
+        <v>692</v>
+      </c>
+      <c r="I376" s="37" t="s">
         <v>693</v>
       </c>
-      <c r="I376" s="37" t="s">
+      <c r="J376" s="26" t="s">
         <v>694</v>
-      </c>
-      <c r="J376" s="26" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="377" spans="1:10" ht="15">
       <c r="A377" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B377" s="22">
         <v>11</v>
       </c>
       <c r="C377" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="D377" s="21" t="s">
         <v>696</v>
-      </c>
-      <c r="D377" s="21" t="s">
-        <v>697</v>
       </c>
       <c r="E377" s="23"/>
       <c r="F377" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G377" s="54" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I377" s="25"/>
     </row>
     <row r="378" spans="1:10" ht="13">
       <c r="A378" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B378" s="22">
         <v>12</v>
@@ -12253,7 +12259,7 @@
         <v>78</v>
       </c>
       <c r="D378" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E378" s="23"/>
       <c r="G378" s="24"/>
@@ -12261,16 +12267,16 @@
     </row>
     <row r="379" spans="1:10" ht="13">
       <c r="A379" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B379" s="22">
         <v>13</v>
       </c>
       <c r="C379" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="D379" s="21" t="s">
         <v>700</v>
-      </c>
-      <c r="D379" s="21" t="s">
-        <v>701</v>
       </c>
       <c r="E379" s="23"/>
       <c r="G379" s="24"/>
@@ -12278,21 +12284,21 @@
     </row>
     <row r="380" spans="1:10" ht="15">
       <c r="A380" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B380" s="22">
         <v>14</v>
       </c>
       <c r="C380" s="23"/>
       <c r="D380" s="21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E380" s="23"/>
       <c r="F380" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G380" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H380" s="52"/>
       <c r="I380" s="25"/>
@@ -12300,14 +12306,14 @@
     </row>
     <row r="381" spans="1:10" ht="13">
       <c r="A381" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B381" s="22">
         <v>15</v>
       </c>
       <c r="C381" s="23"/>
       <c r="D381" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E381" s="23"/>
       <c r="G381" s="24"/>
@@ -12315,13 +12321,13 @@
     </row>
     <row r="382" spans="1:10" ht="13">
       <c r="A382" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B382" s="22">
         <v>16</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D382" s="21" t="s">
         <v>20</v>
@@ -12331,65 +12337,65 @@
         <v>141</v>
       </c>
       <c r="G382" s="82" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H382" s="79" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I382" s="25"/>
     </row>
     <row r="383" spans="1:10" ht="13">
       <c r="A383" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B383" s="22">
         <v>17</v>
       </c>
       <c r="C383" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="D383" s="21" t="s">
         <v>705</v>
-      </c>
-      <c r="D383" s="21" t="s">
-        <v>706</v>
       </c>
       <c r="E383" s="23"/>
       <c r="F383" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G383" s="82" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I383" s="25"/>
     </row>
     <row r="384" spans="1:10" ht="13">
       <c r="A384" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B384" s="22">
         <v>18</v>
       </c>
       <c r="C384" s="23"/>
       <c r="D384" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E384" s="23"/>
       <c r="F384" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G384" s="82" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I384" s="25"/>
     </row>
     <row r="385" spans="1:10" ht="13">
       <c r="A385" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B385" s="22">
         <v>19</v>
       </c>
       <c r="C385" s="23"/>
       <c r="D385" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E385" s="23"/>
       <c r="G385" s="24"/>
@@ -12397,7 +12403,7 @@
     </row>
     <row r="386" spans="1:10" ht="13">
       <c r="A386" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B386" s="22">
         <v>20</v>
@@ -12414,13 +12420,13 @@
       </c>
       <c r="G386" s="24"/>
       <c r="H386" s="26" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I386" s="25"/>
     </row>
     <row r="387" spans="1:10" ht="13">
       <c r="A387" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B387" s="22">
         <v>21</v>
@@ -12429,29 +12435,29 @@
         <v>324</v>
       </c>
       <c r="D387" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E387" s="23"/>
       <c r="F387" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G387" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I387" s="25"/>
     </row>
     <row r="388" spans="1:10" ht="13">
       <c r="A388" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B388" s="22">
         <v>22</v>
       </c>
       <c r="C388" s="29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D388" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E388" s="23"/>
       <c r="G388" s="24"/>
@@ -12459,16 +12465,16 @@
     </row>
     <row r="389" spans="1:10" ht="13">
       <c r="A389" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B389" s="22">
         <v>24</v>
       </c>
       <c r="C389" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="D389" s="21" t="s">
         <v>713</v>
-      </c>
-      <c r="D389" s="21" t="s">
-        <v>714</v>
       </c>
       <c r="E389" s="23"/>
       <c r="F389" s="26" t="s">
@@ -12477,12 +12483,12 @@
       <c r="G389" s="24"/>
       <c r="I389" s="25"/>
       <c r="J389" s="26" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="390" spans="1:10" ht="13">
       <c r="A390" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B390" s="22">
         <v>25</v>
@@ -12499,30 +12505,30 @@
       </c>
       <c r="G390" s="24"/>
       <c r="H390" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I390" s="25"/>
       <c r="J390" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="13">
       <c r="A391" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B391" s="22">
         <v>26</v>
       </c>
       <c r="C391" s="23"/>
       <c r="D391" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E391" s="23"/>
       <c r="F391" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G391" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I391" s="25"/>
       <c r="J391" s="41" t="s">
@@ -12531,21 +12537,21 @@
     </row>
     <row r="392" spans="1:10" ht="13">
       <c r="A392" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B392" s="22">
         <v>27</v>
       </c>
       <c r="C392" s="23"/>
       <c r="D392" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E392" s="23"/>
       <c r="F392" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G392" s="57" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I392" s="25"/>
       <c r="J392" s="41" t="s">
@@ -12554,16 +12560,16 @@
     </row>
     <row r="393" spans="1:10" ht="13">
       <c r="A393" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B393" s="22">
         <v>28</v>
       </c>
       <c r="C393" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="D393" s="21" t="s">
         <v>721</v>
-      </c>
-      <c r="D393" s="21" t="s">
-        <v>722</v>
       </c>
       <c r="E393" s="23"/>
       <c r="G393" s="24"/>
@@ -12571,14 +12577,14 @@
     </row>
     <row r="394" spans="1:10" ht="13">
       <c r="A394" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B394" s="22">
         <v>29</v>
       </c>
       <c r="C394" s="23"/>
       <c r="D394" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E394" s="23"/>
       <c r="G394" s="24"/>
@@ -12586,14 +12592,14 @@
     </row>
     <row r="395" spans="1:10" ht="13">
       <c r="A395" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B395" s="22">
         <v>30</v>
       </c>
       <c r="C395" s="23"/>
       <c r="D395" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E395" s="23"/>
       <c r="G395" s="24"/>
@@ -12601,7 +12607,7 @@
     </row>
     <row r="396" spans="1:10" ht="13">
       <c r="A396" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B396" s="22">
         <v>31</v>
@@ -12610,7 +12616,7 @@
         <v>327</v>
       </c>
       <c r="D396" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E396" s="23"/>
       <c r="G396" s="24"/>
@@ -12618,14 +12624,14 @@
     </row>
     <row r="397" spans="1:10" ht="13">
       <c r="A397" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B397" s="22">
         <v>1</v>
       </c>
       <c r="C397" s="23"/>
       <c r="D397" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E397" s="28" t="s">
         <v>171</v>
@@ -12634,92 +12640,92 @@
         <v>141</v>
       </c>
       <c r="G397" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I397" s="25"/>
     </row>
     <row r="398" spans="1:10" ht="13">
       <c r="A398" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B398" s="22">
         <v>2</v>
       </c>
       <c r="C398" s="23"/>
       <c r="D398" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E398" s="23"/>
       <c r="F398" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G398" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I398" s="25"/>
     </row>
     <row r="399" spans="1:10" ht="13">
       <c r="A399" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B399" s="22">
         <v>3</v>
       </c>
       <c r="C399" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="D399" s="21" t="s">
         <v>730</v>
-      </c>
-      <c r="D399" s="21" t="s">
-        <v>731</v>
       </c>
       <c r="E399" s="23"/>
       <c r="F399" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G399" s="27" t="s">
         <v>732</v>
       </c>
-      <c r="G399" s="27" t="s">
+      <c r="I399" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="I399" s="30" t="s">
+      <c r="J399" s="26" t="s">
         <v>734</v>
-      </c>
-      <c r="J399" s="26" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="400" spans="1:10" ht="15">
       <c r="A400" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B400" s="22">
         <v>4</v>
       </c>
       <c r="C400" s="29" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D400" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E400" s="23"/>
       <c r="F400" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G400" s="82" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I400" s="25"/>
       <c r="J400" s="52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="401" spans="1:10" ht="13">
       <c r="A401" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B401" s="22">
         <v>5</v>
       </c>
       <c r="C401" s="23"/>
       <c r="D401" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E401" s="28" t="s">
         <v>175</v>
@@ -12728,45 +12734,45 @@
         <v>141</v>
       </c>
       <c r="G401" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I401" s="25"/>
       <c r="J401" s="26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="402" spans="1:10" ht="13">
       <c r="A402" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B402" s="22">
         <v>6</v>
       </c>
       <c r="C402" s="23"/>
       <c r="D402" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E402" s="23"/>
       <c r="F402" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G402" s="82" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I402" s="25"/>
     </row>
     <row r="403" spans="1:10" ht="13">
       <c r="A403" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B403" s="22">
         <v>7</v>
       </c>
       <c r="C403" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="D403" s="21" t="s">
         <v>741</v>
-      </c>
-      <c r="D403" s="21" t="s">
-        <v>742</v>
       </c>
       <c r="E403" s="23"/>
       <c r="G403" s="24"/>
@@ -12774,7 +12780,7 @@
     </row>
     <row r="404" spans="1:10" ht="13">
       <c r="A404" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B404" s="22">
         <v>8</v>
@@ -12785,30 +12791,30 @@
       </c>
       <c r="E404" s="23"/>
       <c r="F404" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G404" s="82" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H404" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="I404" s="59" t="s">
         <v>743</v>
       </c>
-      <c r="I404" s="59" t="s">
+      <c r="J404" s="26" t="s">
         <v>744</v>
-      </c>
-      <c r="J404" s="26" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="405" spans="1:10" ht="13">
       <c r="A405" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B405" s="22">
         <v>9</v>
       </c>
       <c r="C405" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D405" s="21" t="s">
         <v>20</v>
@@ -12817,33 +12823,33 @@
         <v>93</v>
       </c>
       <c r="F405" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G405" s="82" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H405" s="60" t="s">
+        <v>746</v>
+      </c>
+      <c r="I405" s="59" t="s">
         <v>747</v>
       </c>
-      <c r="I405" s="59" t="s">
+      <c r="J405" s="26" t="s">
         <v>748</v>
-      </c>
-      <c r="J405" s="26" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="406" spans="1:10" ht="13">
       <c r="A406" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B406" s="22">
         <v>10</v>
       </c>
       <c r="C406" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="D406" s="21" t="s">
         <v>750</v>
-      </c>
-      <c r="D406" s="21" t="s">
-        <v>751</v>
       </c>
       <c r="E406" s="23"/>
       <c r="G406" s="24"/>
@@ -12851,13 +12857,13 @@
     </row>
     <row r="407" spans="1:10" ht="13">
       <c r="A407" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B407" s="22">
         <v>11</v>
       </c>
       <c r="C407" s="29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D407" s="21" t="s">
         <v>20</v>
@@ -12868,22 +12874,22 @@
       </c>
       <c r="G407" s="24"/>
       <c r="H407" s="26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I407" s="25"/>
     </row>
     <row r="408" spans="1:10" ht="13">
       <c r="A408" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B408" s="22">
         <v>12</v>
       </c>
       <c r="C408" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="D408" s="21" t="s">
         <v>754</v>
-      </c>
-      <c r="D408" s="21" t="s">
-        <v>755</v>
       </c>
       <c r="E408" s="23"/>
       <c r="G408" s="24"/>
@@ -12891,7 +12897,7 @@
     </row>
     <row r="409" spans="1:10" ht="15">
       <c r="A409" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B409" s="22">
         <v>13</v>
@@ -12906,13 +12912,13 @@
       </c>
       <c r="G409" s="24"/>
       <c r="H409" s="52" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I409" s="25"/>
     </row>
     <row r="410" spans="1:10" ht="15">
       <c r="A410" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B410" s="22">
         <v>14</v>
@@ -12927,19 +12933,19 @@
       </c>
       <c r="G410" s="24"/>
       <c r="H410" s="52" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I410" s="25"/>
     </row>
     <row r="411" spans="1:10" ht="15">
       <c r="A411" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B411" s="22">
         <v>15</v>
       </c>
       <c r="C411" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D411" s="21" t="s">
         <v>20</v>
@@ -12949,16 +12955,16 @@
         <v>141</v>
       </c>
       <c r="G411" s="82" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H411" s="52" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I411" s="25"/>
     </row>
     <row r="412" spans="1:10" ht="13">
       <c r="A412" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B412" s="22">
         <v>16</v>
@@ -12973,33 +12979,33 @@
       </c>
       <c r="G412" s="24"/>
       <c r="H412" s="51" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I412" s="25"/>
     </row>
     <row r="413" spans="1:10" ht="13">
       <c r="A413" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B413" s="22">
         <v>17</v>
       </c>
       <c r="C413" s="23"/>
       <c r="D413" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E413" s="23"/>
       <c r="F413" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G413" s="82" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I413" s="25"/>
     </row>
     <row r="414" spans="1:10" ht="15">
       <c r="A414" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B414" s="22">
         <v>18</v>
@@ -13013,23 +13019,23 @@
         <v>141</v>
       </c>
       <c r="G414" s="43" t="s">
+        <v>761</v>
+      </c>
+      <c r="H414" s="51" t="s">
         <v>762</v>
-      </c>
-      <c r="H414" s="51" t="s">
-        <v>763</v>
       </c>
       <c r="I414" s="25"/>
     </row>
     <row r="415" spans="1:10" ht="13">
       <c r="A415" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B415" s="22">
         <v>19</v>
       </c>
       <c r="C415" s="23"/>
       <c r="D415" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E415" s="23"/>
       <c r="G415" s="24"/>
@@ -13037,14 +13043,14 @@
     </row>
     <row r="416" spans="1:10" ht="13">
       <c r="A416" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B416" s="22">
         <v>20</v>
       </c>
       <c r="C416" s="23"/>
       <c r="D416" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E416" s="23"/>
       <c r="F416" s="26" t="s">
@@ -13052,16 +13058,16 @@
       </c>
       <c r="G416" s="24"/>
       <c r="H416" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I416" s="25"/>
       <c r="J416" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="417" spans="1:10" ht="14">
       <c r="A417" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B417" s="22">
         <v>21</v>
@@ -13074,45 +13080,45 @@
       </c>
       <c r="E417" s="23"/>
       <c r="F417" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G417" s="24"/>
       <c r="H417" s="61" t="s">
+        <v>767</v>
+      </c>
+      <c r="I417" s="59" t="s">
         <v>768</v>
       </c>
-      <c r="I417" s="59" t="s">
+      <c r="J417" s="26" t="s">
         <v>769</v>
-      </c>
-      <c r="J417" s="26" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="418" spans="1:10" ht="15">
       <c r="A418" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B418" s="22">
         <v>22</v>
       </c>
       <c r="C418" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="D418" s="21" t="s">
         <v>771</v>
-      </c>
-      <c r="D418" s="21" t="s">
-        <v>772</v>
       </c>
       <c r="E418" s="23"/>
       <c r="F418" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G418" s="43" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H418" s="62"/>
       <c r="I418" s="25"/>
     </row>
     <row r="419" spans="1:10" ht="13">
       <c r="A419" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B419" s="22">
         <v>23</v>
@@ -13121,48 +13127,48 @@
         <v>83</v>
       </c>
       <c r="D419" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E419" s="23"/>
       <c r="F419" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="G419" s="82" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I419" s="59" t="s">
         <v>775</v>
       </c>
-      <c r="G419" s="82" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I419" s="59" t="s">
+      <c r="J419" s="26" t="s">
         <v>776</v>
-      </c>
-      <c r="J419" s="26" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="420" spans="1:10" ht="13">
       <c r="A420" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B420" s="22">
         <v>24</v>
       </c>
       <c r="C420" s="23"/>
       <c r="D420" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E420" s="23"/>
       <c r="F420" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G420" s="82" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I420" s="25"/>
       <c r="J420" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="421" spans="1:10" ht="13">
       <c r="A421" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B421" s="22">
         <v>25</v>
@@ -13177,43 +13183,43 @@
       </c>
       <c r="G421" s="24"/>
       <c r="H421" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I421" s="25"/>
       <c r="J421" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="422" spans="1:10" ht="13">
       <c r="A422" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B422" s="22">
         <v>26</v>
       </c>
       <c r="C422" s="23"/>
       <c r="D422" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E422" s="23"/>
       <c r="F422" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G422" s="82" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I422" s="25"/>
     </row>
     <row r="423" spans="1:10" ht="13">
       <c r="A423" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B423" s="22">
         <v>27</v>
       </c>
       <c r="C423" s="23"/>
       <c r="D423" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E423" s="23"/>
       <c r="G423" s="24"/>
@@ -13221,33 +13227,33 @@
     </row>
     <row r="424" spans="1:10" ht="13">
       <c r="A424" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B424" s="22">
         <v>28</v>
       </c>
       <c r="C424" s="23"/>
       <c r="D424" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E424" s="23"/>
       <c r="F424" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G424" s="35" t="s">
+        <v>782</v>
+      </c>
+      <c r="H424" s="32" t="s">
         <v>783</v>
-      </c>
-      <c r="H424" s="32" t="s">
-        <v>784</v>
       </c>
       <c r="I424" s="25"/>
       <c r="J424" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="425" spans="1:10" ht="13">
       <c r="A425" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B425" s="22">
         <v>29</v>
@@ -13263,41 +13269,41 @@
         <v>141</v>
       </c>
       <c r="G425" s="35" t="s">
+        <v>785</v>
+      </c>
+      <c r="H425" s="51" t="s">
         <v>786</v>
-      </c>
-      <c r="H425" s="51" t="s">
-        <v>787</v>
       </c>
       <c r="I425" s="25"/>
     </row>
     <row r="426" spans="1:10" ht="13">
       <c r="A426" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B426" s="22">
         <v>30</v>
       </c>
       <c r="C426" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="D426" s="21" t="s">
         <v>788</v>
-      </c>
-      <c r="D426" s="21" t="s">
-        <v>789</v>
       </c>
       <c r="E426" s="23"/>
       <c r="F426" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G426" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I426" s="25"/>
       <c r="J426" s="26" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="427" spans="1:10" ht="13">
       <c r="A427" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B427" s="22">
         <v>31</v>
@@ -13308,24 +13314,24 @@
       </c>
       <c r="E427" s="23"/>
       <c r="F427" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G427" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="H427" s="51" t="s">
         <v>792</v>
       </c>
-      <c r="H427" s="51" t="s">
+      <c r="I427" s="63" t="s">
         <v>793</v>
       </c>
-      <c r="I427" s="63" t="s">
+      <c r="J427" s="26" t="s">
         <v>794</v>
-      </c>
-      <c r="J427" s="26" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="428" spans="1:10" ht="13">
       <c r="A428" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B428" s="22">
         <v>32</v>
@@ -13340,29 +13346,29 @@
       </c>
       <c r="G428" s="24"/>
       <c r="H428" s="74" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I428" s="25"/>
     </row>
     <row r="429" spans="1:10" ht="14">
       <c r="A429" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B429" s="22">
         <v>33</v>
       </c>
       <c r="C429" s="29" t="s">
+        <v>795</v>
+      </c>
+      <c r="D429" s="21" t="s">
         <v>796</v>
-      </c>
-      <c r="D429" s="21" t="s">
-        <v>797</v>
       </c>
       <c r="E429" s="23"/>
       <c r="F429" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G429" s="64" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I429" s="25"/>
       <c r="J429" s="26" t="s">
@@ -13371,13 +13377,13 @@
     </row>
     <row r="430" spans="1:10" ht="13">
       <c r="A430" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B430" s="22">
         <v>34</v>
       </c>
       <c r="C430" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D430" s="21" t="s">
         <v>20</v>
@@ -13388,36 +13394,36 @@
       </c>
       <c r="G430" s="24"/>
       <c r="H430" s="51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I430" s="25"/>
     </row>
     <row r="431" spans="1:10" ht="13">
       <c r="A431" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B431" s="22">
         <v>35</v>
       </c>
       <c r="C431" s="29" t="s">
+        <v>800</v>
+      </c>
+      <c r="D431" s="21" t="s">
         <v>801</v>
-      </c>
-      <c r="D431" s="21" t="s">
-        <v>802</v>
       </c>
       <c r="E431" s="23"/>
       <c r="F431" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G431" s="55"/>
       <c r="I431" s="25"/>
       <c r="J431" s="26" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="432" spans="1:10" ht="15">
       <c r="A432" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B432" s="22">
         <v>36</v>
@@ -13431,10 +13437,10 @@
         <v>141</v>
       </c>
       <c r="G432" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="H432" s="52" t="s">
         <v>804</v>
-      </c>
-      <c r="H432" s="52" t="s">
-        <v>805</v>
       </c>
       <c r="I432" s="52"/>
       <c r="J432" s="26" t="s">
@@ -13443,7 +13449,7 @@
     </row>
     <row r="433" spans="1:10" ht="13">
       <c r="A433" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B433" s="22">
         <v>37</v>
@@ -13457,10 +13463,10 @@
         <v>141</v>
       </c>
       <c r="G433" s="57" t="s">
+        <v>805</v>
+      </c>
+      <c r="H433" s="51" t="s">
         <v>806</v>
-      </c>
-      <c r="H433" s="51" t="s">
-        <v>807</v>
       </c>
       <c r="I433" s="25"/>
       <c r="J433" s="26" t="s">
@@ -13469,7 +13475,7 @@
     </row>
     <row r="434" spans="1:10" ht="13">
       <c r="A434" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B434" s="22">
         <v>38</v>
@@ -13483,25 +13489,25 @@
         <v>141</v>
       </c>
       <c r="G434" s="82" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H434" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="I434" s="30" t="s">
         <v>808</v>
-      </c>
-      <c r="I434" s="30" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="13">
       <c r="A435" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B435" s="22">
         <v>39</v>
       </c>
       <c r="C435" s="23"/>
       <c r="D435" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E435" s="23"/>
       <c r="G435" s="24"/>
@@ -13509,7 +13515,7 @@
     </row>
     <row r="436" spans="1:10" ht="13">
       <c r="A436" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B436" s="22">
         <v>40</v>
@@ -13524,48 +13530,48 @@
       </c>
       <c r="G436" s="24"/>
       <c r="H436" s="26" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I436" s="25"/>
       <c r="J436" s="26" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="437" spans="1:10" ht="13">
       <c r="A437" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B437" s="22">
         <v>41</v>
       </c>
       <c r="C437" s="23"/>
       <c r="D437" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E437" s="23"/>
       <c r="F437" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G437" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I437" s="25"/>
       <c r="J437" s="26" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="438" spans="1:10" ht="13">
       <c r="A438" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B438" s="22">
         <v>42</v>
       </c>
       <c r="C438" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="D438" s="21" t="s">
         <v>815</v>
-      </c>
-      <c r="D438" s="21" t="s">
-        <v>816</v>
       </c>
       <c r="E438" s="23"/>
       <c r="F438" s="26" t="s">
@@ -13573,16 +13579,16 @@
       </c>
       <c r="G438" s="24"/>
       <c r="H438" s="51" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I438" s="25"/>
       <c r="J438" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="439" spans="1:10" ht="13">
       <c r="A439" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B439" s="22">
         <v>43</v>
@@ -13597,12 +13603,12 @@
       </c>
       <c r="G439" s="24"/>
       <c r="H439" s="26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="440" spans="1:10" ht="13">
       <c r="A440" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B440" s="22">
         <v>44</v>
@@ -13615,24 +13621,24 @@
       </c>
       <c r="E440" s="23"/>
       <c r="F440" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G440" s="82" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H440" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="I440" s="59" t="s">
         <v>819</v>
       </c>
-      <c r="I440" s="59" t="s">
+      <c r="J440" s="26" t="s">
         <v>820</v>
-      </c>
-      <c r="J440" s="26" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="441" spans="1:10" ht="14">
       <c r="A441" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B441" s="22">
         <v>45</v>
@@ -13648,46 +13654,46 @@
         <v>141</v>
       </c>
       <c r="G441" s="82" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H441" s="61" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I441" s="25"/>
       <c r="J441" s="65" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="442" spans="1:10" ht="13">
       <c r="A442" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B442" s="22">
         <v>46</v>
       </c>
       <c r="C442" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D442" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E442" s="23"/>
       <c r="G442" s="24"/>
       <c r="I442" s="25"/>
       <c r="J442" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="443" spans="1:10" ht="13">
       <c r="A443" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B443" s="22">
         <v>47</v>
       </c>
       <c r="C443" s="23"/>
       <c r="D443" s="21" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E443" s="23"/>
       <c r="G443" s="24"/>
@@ -13695,7 +13701,7 @@
     </row>
     <row r="444" spans="1:10" ht="13">
       <c r="A444" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B444" s="22">
         <v>48</v>
@@ -13704,7 +13710,7 @@
         <v>59</v>
       </c>
       <c r="D444" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E444" s="23"/>
       <c r="G444" s="24"/>
@@ -13712,7 +13718,7 @@
     </row>
     <row r="445" spans="1:10" ht="13">
       <c r="A445" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B445" s="22">
         <v>49</v>
@@ -13721,7 +13727,7 @@
         <v>59</v>
       </c>
       <c r="D445" s="21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E445" s="23"/>
       <c r="G445" s="24"/>
@@ -13729,16 +13735,16 @@
     </row>
     <row r="446" spans="1:10" ht="13">
       <c r="A446" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B446" s="22">
         <v>50</v>
       </c>
       <c r="C446" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D446" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E446" s="23"/>
       <c r="G446" s="24"/>
@@ -13746,58 +13752,58 @@
     </row>
     <row r="447" spans="1:10" ht="13">
       <c r="A447" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B447" s="22">
         <v>51</v>
       </c>
       <c r="C447" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D447" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E447" s="23"/>
       <c r="F447" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G447" s="82" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I447" s="25"/>
     </row>
     <row r="448" spans="1:10" ht="13">
       <c r="A448" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B448" s="22">
         <v>52</v>
       </c>
       <c r="C448" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D448" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E448" s="23"/>
       <c r="F448" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G448" s="82" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I448" s="25"/>
     </row>
     <row r="449" spans="1:10" ht="13">
       <c r="A449" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B449" s="22">
         <v>53</v>
       </c>
       <c r="C449" s="23"/>
       <c r="D449" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E449" s="23"/>
       <c r="G449" s="24"/>
@@ -13805,13 +13811,13 @@
     </row>
     <row r="450" spans="1:10" ht="13">
       <c r="A450" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B450" s="22">
         <v>54</v>
       </c>
       <c r="C450" s="29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D450" s="21" t="s">
         <v>20</v>
@@ -13821,16 +13827,16 @@
         <v>141</v>
       </c>
       <c r="G450" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="H450" s="51" t="s">
         <v>834</v>
-      </c>
-      <c r="H450" s="51" t="s">
-        <v>835</v>
       </c>
       <c r="I450" s="25"/>
     </row>
     <row r="451" spans="1:10" ht="13">
       <c r="A451" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B451" s="22">
         <v>55</v>
@@ -13845,13 +13851,13 @@
       </c>
       <c r="G451" s="24"/>
       <c r="H451" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I451" s="25"/>
     </row>
     <row r="452" spans="1:10" ht="13">
       <c r="A452" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B452" s="22">
         <v>56</v>
@@ -13868,15 +13874,15 @@
       </c>
       <c r="G452" s="24"/>
       <c r="H452" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="I452" s="30" t="s">
         <v>836</v>
-      </c>
-      <c r="I452" s="30" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="453" spans="1:10" ht="13">
       <c r="A453" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B453" s="22">
         <v>57</v>
@@ -13885,17 +13891,17 @@
         <v>95</v>
       </c>
       <c r="D453" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="E453" s="28" t="s">
         <v>838</v>
-      </c>
-      <c r="E453" s="28" t="s">
-        <v>839</v>
       </c>
       <c r="G453" s="24"/>
       <c r="I453" s="25"/>
     </row>
     <row r="454" spans="1:10" ht="13">
       <c r="A454" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B454" s="22">
         <v>58</v>
@@ -13911,38 +13917,38 @@
         <v>141</v>
       </c>
       <c r="G454" s="82" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H454" s="51" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I454" s="25"/>
     </row>
     <row r="455" spans="1:10" ht="13">
       <c r="A455" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B455" s="22">
         <v>59</v>
       </c>
       <c r="C455" s="29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D455" s="21" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E455" s="23"/>
       <c r="F455" t="s">
         <v>31</v>
       </c>
       <c r="G455" s="82" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I455" s="25"/>
     </row>
     <row r="456" spans="1:10" ht="13">
       <c r="A456" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B456" s="22">
         <v>60</v>
@@ -13956,10 +13962,10 @@
         <v>31</v>
       </c>
       <c r="G456" s="66" t="s">
+        <v>841</v>
+      </c>
+      <c r="H456" s="62" t="s">
         <v>842</v>
-      </c>
-      <c r="H456" s="62" t="s">
-        <v>843</v>
       </c>
       <c r="I456" s="25"/>
       <c r="J456" s="41" t="s">
@@ -13968,14 +13974,14 @@
     </row>
     <row r="457" spans="1:10" ht="13">
       <c r="A457" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B457" s="22">
         <v>61</v>
       </c>
       <c r="C457" s="23"/>
       <c r="D457" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E457" s="23"/>
       <c r="G457" s="24"/>
@@ -13983,30 +13989,30 @@
     </row>
     <row r="458" spans="1:10" ht="13">
       <c r="A458" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B458" s="22">
         <v>62</v>
       </c>
       <c r="C458" s="23"/>
       <c r="D458" s="12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E458" s="23"/>
       <c r="F458" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G458" s="82" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H458" s="74" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I458" s="25"/>
     </row>
     <row r="459" spans="1:10" ht="13">
       <c r="A459" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B459" s="22">
         <v>63</v>
@@ -14015,7 +14021,7 @@
         <v>34</v>
       </c>
       <c r="D459" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E459" s="23"/>
       <c r="G459" s="24"/>
@@ -14023,13 +14029,13 @@
     </row>
     <row r="460" spans="1:10" ht="13">
       <c r="A460" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B460" s="22">
         <v>64</v>
       </c>
       <c r="C460" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D460" s="21" t="s">
         <v>20</v>
@@ -14039,10 +14045,10 @@
         <v>141</v>
       </c>
       <c r="G460" s="57" t="s">
+        <v>844</v>
+      </c>
+      <c r="H460" s="51" t="s">
         <v>845</v>
-      </c>
-      <c r="H460" s="51" t="s">
-        <v>846</v>
       </c>
       <c r="I460" s="25"/>
       <c r="J460" s="41" t="s">
@@ -14051,13 +14057,13 @@
     </row>
     <row r="461" spans="1:10" ht="13">
       <c r="A461" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B461" s="22">
         <v>65</v>
       </c>
       <c r="C461" s="29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D461" s="21" t="s">
         <v>20</v>
@@ -14068,13 +14074,13 @@
       </c>
       <c r="G461" s="24"/>
       <c r="H461" s="26" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I461" s="25"/>
     </row>
     <row r="462" spans="1:10" ht="13">
       <c r="A462" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B462" s="22">
         <v>66</v>
@@ -14091,23 +14097,23 @@
       </c>
       <c r="G462" s="24"/>
       <c r="H462" s="26" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I462" s="25"/>
       <c r="J462" s="26"/>
     </row>
     <row r="463" spans="1:10" ht="13">
       <c r="A463" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B463" s="22">
         <v>67</v>
       </c>
       <c r="C463" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="D463" s="21" t="s">
         <v>850</v>
-      </c>
-      <c r="D463" s="21" t="s">
-        <v>851</v>
       </c>
       <c r="E463" s="23"/>
       <c r="G463" s="24"/>
@@ -14115,44 +14121,44 @@
     </row>
     <row r="464" spans="1:10" ht="13">
       <c r="A464" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B464" s="22">
         <v>68</v>
       </c>
       <c r="C464" s="23"/>
       <c r="D464" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E464" s="23"/>
       <c r="F464" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G464" s="82" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I464" s="25"/>
     </row>
     <row r="465" spans="1:10" ht="13">
       <c r="A465" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B465" s="22">
         <v>69</v>
       </c>
       <c r="C465" s="23"/>
       <c r="D465" s="21" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E465" s="23"/>
       <c r="F465" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G465" s="66" t="s">
+        <v>853</v>
+      </c>
+      <c r="H465" s="62" t="s">
         <v>854</v>
-      </c>
-      <c r="H465" s="62" t="s">
-        <v>855</v>
       </c>
       <c r="I465" s="25"/>
       <c r="J465" s="41" t="s">
@@ -14161,14 +14167,14 @@
     </row>
     <row r="466" spans="1:10" ht="13">
       <c r="A466" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B466" s="22">
         <v>70</v>
       </c>
       <c r="C466" s="23"/>
       <c r="D466" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E466" s="23"/>
       <c r="G466" s="24"/>
@@ -14176,7 +14182,7 @@
     </row>
     <row r="467" spans="1:10" ht="13">
       <c r="A467" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B467" s="22">
         <v>71</v>
@@ -14190,10 +14196,10 @@
         <v>141</v>
       </c>
       <c r="G467" s="66" t="s">
+        <v>856</v>
+      </c>
+      <c r="H467" s="62" t="s">
         <v>857</v>
-      </c>
-      <c r="H467" s="62" t="s">
-        <v>858</v>
       </c>
       <c r="I467" s="25"/>
       <c r="J467" s="41" t="s">
@@ -14202,24 +14208,24 @@
     </row>
     <row r="468" spans="1:10" ht="15">
       <c r="A468" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B468" s="22">
         <v>72</v>
       </c>
       <c r="C468" s="23"/>
       <c r="D468" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E468" s="23"/>
       <c r="F468" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G468" s="43" t="s">
+        <v>859</v>
+      </c>
+      <c r="H468" s="52" t="s">
         <v>860</v>
-      </c>
-      <c r="H468" s="52" t="s">
-        <v>861</v>
       </c>
       <c r="I468" s="25"/>
       <c r="J468" s="41" t="s">
@@ -14228,13 +14234,13 @@
     </row>
     <row r="469" spans="1:10" ht="13">
       <c r="A469" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B469" s="22">
         <v>73</v>
       </c>
       <c r="C469" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D469" s="21" t="s">
         <v>20</v>
@@ -14245,79 +14251,79 @@
       </c>
       <c r="G469" s="24"/>
       <c r="H469" s="51" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I469" s="25"/>
     </row>
     <row r="470" spans="1:10" ht="13">
       <c r="A470" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B470" s="22">
         <v>74</v>
       </c>
       <c r="C470" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="D470" s="21" t="s">
         <v>863</v>
-      </c>
-      <c r="D470" s="21" t="s">
-        <v>864</v>
       </c>
       <c r="E470" s="23"/>
       <c r="F470" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G470" s="82" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I470" s="25"/>
     </row>
     <row r="471" spans="1:10" ht="13">
       <c r="A471" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B471" s="22">
         <v>75</v>
       </c>
       <c r="C471" s="23"/>
       <c r="D471" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E471" s="23"/>
       <c r="F471" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G471" s="67" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H471" s="51"/>
       <c r="I471" s="25"/>
     </row>
     <row r="472" spans="1:10" ht="13">
       <c r="A472" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B472" s="22">
         <v>76</v>
       </c>
       <c r="C472" s="23"/>
       <c r="D472" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="E472" s="28" t="s">
         <v>867</v>
-      </c>
-      <c r="E472" s="28" t="s">
-        <v>868</v>
       </c>
       <c r="F472" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G472" s="67" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H472" s="51"/>
       <c r="I472" s="25"/>
     </row>
     <row r="473" spans="1:10" ht="15">
       <c r="A473" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B473" s="22">
         <v>77</v>
@@ -14331,10 +14337,10 @@
         <v>141</v>
       </c>
       <c r="G473" s="43" t="s">
+        <v>869</v>
+      </c>
+      <c r="H473" s="52" t="s">
         <v>870</v>
-      </c>
-      <c r="H473" s="52" t="s">
-        <v>871</v>
       </c>
       <c r="I473" s="25"/>
       <c r="J473" s="41" t="s">
@@ -14343,14 +14349,14 @@
     </row>
     <row r="474" spans="1:10" ht="13">
       <c r="A474" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B474" s="22">
         <v>78</v>
       </c>
       <c r="C474" s="23"/>
       <c r="D474" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E474" s="28" t="s">
         <v>40</v>
@@ -14359,10 +14365,10 @@
         <v>141</v>
       </c>
       <c r="G474" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H474" s="51" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I474" s="25"/>
       <c r="J474" s="41" t="s">
@@ -14371,31 +14377,31 @@
     </row>
     <row r="475" spans="1:10" ht="13">
       <c r="A475" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B475" s="22">
         <v>79</v>
       </c>
       <c r="C475" s="23"/>
       <c r="D475" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E475" s="23"/>
       <c r="G475" s="27" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I475" s="25"/>
     </row>
     <row r="476" spans="1:10" ht="13">
       <c r="A476" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B476" s="22">
         <v>80</v>
       </c>
       <c r="C476" s="23"/>
       <c r="D476" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E476" s="28" t="s">
         <v>44</v>
@@ -14404,10 +14410,10 @@
         <v>141</v>
       </c>
       <c r="G476" s="57" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H476" s="51" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I476" s="25"/>
       <c r="J476" s="41" t="s">
@@ -14416,14 +14422,14 @@
     </row>
     <row r="477" spans="1:10" ht="13">
       <c r="A477" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B477" s="22">
         <v>81</v>
       </c>
       <c r="C477" s="23"/>
       <c r="D477" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E477" s="23"/>
       <c r="G477" s="24"/>
@@ -14431,7 +14437,7 @@
     </row>
     <row r="478" spans="1:10" ht="13">
       <c r="A478" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B478" s="22">
         <v>82</v>
@@ -14445,10 +14451,10 @@
         <v>141</v>
       </c>
       <c r="G478" s="57" t="s">
+        <v>878</v>
+      </c>
+      <c r="H478" s="51" t="s">
         <v>879</v>
-      </c>
-      <c r="H478" s="51" t="s">
-        <v>880</v>
       </c>
       <c r="I478" s="25"/>
       <c r="J478" s="41" t="s">
@@ -14457,7 +14463,7 @@
     </row>
     <row r="479" spans="1:10" ht="15">
       <c r="A479" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B479" s="22">
         <v>83</v>
@@ -14471,10 +14477,10 @@
         <v>141</v>
       </c>
       <c r="G479" s="43" t="s">
+        <v>880</v>
+      </c>
+      <c r="H479" s="52" t="s">
         <v>881</v>
-      </c>
-      <c r="H479" s="52" t="s">
-        <v>882</v>
       </c>
       <c r="I479" s="25"/>
       <c r="J479" s="41" t="s">
@@ -14483,7 +14489,7 @@
     </row>
     <row r="480" spans="1:10" ht="13">
       <c r="A480" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B480" s="22">
         <v>84</v>
@@ -14497,10 +14503,10 @@
         <v>141</v>
       </c>
       <c r="G480" s="57" t="s">
+        <v>882</v>
+      </c>
+      <c r="H480" s="62" t="s">
         <v>883</v>
-      </c>
-      <c r="H480" s="62" t="s">
-        <v>884</v>
       </c>
       <c r="I480" s="25"/>
       <c r="J480" s="41" t="s">
@@ -14509,7 +14515,7 @@
     </row>
     <row r="481" spans="1:10" ht="13">
       <c r="A481" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B481" s="22">
         <v>85</v>
@@ -14525,16 +14531,16 @@
         <v>141</v>
       </c>
       <c r="G481" s="68" t="s">
+        <v>884</v>
+      </c>
+      <c r="H481" s="51" t="s">
         <v>885</v>
-      </c>
-      <c r="H481" s="51" t="s">
-        <v>886</v>
       </c>
       <c r="I481" s="25"/>
     </row>
     <row r="482" spans="1:10" ht="13">
       <c r="A482" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B482" s="22">
         <v>86</v>
@@ -14548,10 +14554,10 @@
         <v>141</v>
       </c>
       <c r="G482" s="53" t="s">
+        <v>886</v>
+      </c>
+      <c r="H482" s="51" t="s">
         <v>887</v>
-      </c>
-      <c r="H482" s="51" t="s">
-        <v>888</v>
       </c>
       <c r="I482" s="25"/>
       <c r="J482" s="41" t="s">
@@ -14560,24 +14566,24 @@
     </row>
     <row r="483" spans="1:10" ht="15">
       <c r="A483" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B483" s="22">
         <v>87</v>
       </c>
       <c r="C483" s="23"/>
       <c r="D483" s="21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E483" s="23"/>
       <c r="F483" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G483" s="54" t="s">
+        <v>889</v>
+      </c>
+      <c r="H483" s="52" t="s">
         <v>890</v>
-      </c>
-      <c r="H483" s="52" t="s">
-        <v>891</v>
       </c>
       <c r="I483" s="25"/>
       <c r="J483" s="26" t="s">
@@ -14586,29 +14592,29 @@
     </row>
     <row r="484" spans="1:10" ht="13">
       <c r="A484" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B484" s="22">
         <v>88</v>
       </c>
       <c r="C484" s="29" t="s">
+        <v>891</v>
+      </c>
+      <c r="D484" s="21" t="s">
         <v>892</v>
-      </c>
-      <c r="D484" s="21" t="s">
-        <v>893</v>
       </c>
       <c r="E484" s="23"/>
       <c r="F484" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G484" s="27" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I484" s="25"/>
     </row>
     <row r="485" spans="1:10" ht="13">
       <c r="A485" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B485" s="22">
         <v>89</v>
@@ -14617,7 +14623,7 @@
         <v>83</v>
       </c>
       <c r="D485" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E485" s="23"/>
       <c r="G485" s="24"/>
@@ -14625,7 +14631,7 @@
     </row>
     <row r="486" spans="1:10" ht="13">
       <c r="A486" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B486" s="22">
         <v>90</v>
@@ -14634,7 +14640,7 @@
         <v>59</v>
       </c>
       <c r="D486" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E486" s="23"/>
       <c r="G486" s="24"/>
@@ -14642,104 +14648,104 @@
     </row>
     <row r="487" spans="1:10" ht="13">
       <c r="A487" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B487" s="22">
         <v>91</v>
       </c>
       <c r="C487" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="D487" s="21" t="s">
         <v>897</v>
-      </c>
-      <c r="D487" s="21" t="s">
-        <v>898</v>
       </c>
       <c r="E487" s="23"/>
       <c r="F487" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G487" s="82" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I487" s="25"/>
     </row>
     <row r="488" spans="1:10" ht="13">
       <c r="A488" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B488" s="22">
         <v>92</v>
       </c>
       <c r="C488" s="29" t="s">
+        <v>898</v>
+      </c>
+      <c r="D488" s="21" t="s">
         <v>899</v>
-      </c>
-      <c r="D488" s="21" t="s">
-        <v>900</v>
       </c>
       <c r="E488" s="23"/>
       <c r="F488" t="s">
         <v>31</v>
       </c>
       <c r="G488" s="82" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I488" s="25"/>
     </row>
     <row r="489" spans="1:10" ht="13">
       <c r="A489" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B489" s="22">
         <v>93</v>
       </c>
       <c r="C489" s="29" t="s">
+        <v>900</v>
+      </c>
+      <c r="D489" s="21" t="s">
         <v>901</v>
-      </c>
-      <c r="D489" s="21" t="s">
-        <v>902</v>
       </c>
       <c r="E489" s="23"/>
       <c r="F489" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G489" s="27" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I489" s="25"/>
     </row>
     <row r="490" spans="1:10" ht="13">
       <c r="A490" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B490" s="22">
         <v>94</v>
       </c>
       <c r="C490" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="D490" s="21" t="s">
         <v>904</v>
-      </c>
-      <c r="D490" s="21" t="s">
-        <v>905</v>
       </c>
       <c r="E490" s="23"/>
       <c r="F490" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G490" s="82" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I490" s="25"/>
     </row>
     <row r="491" spans="1:10" ht="13">
       <c r="A491" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B491" s="22">
         <v>95</v>
       </c>
       <c r="C491" s="29" t="s">
+        <v>905</v>
+      </c>
+      <c r="D491" s="21" t="s">
         <v>906</v>
-      </c>
-      <c r="D491" s="21" t="s">
-        <v>907</v>
       </c>
       <c r="E491" s="23"/>
       <c r="G491" s="24"/>
@@ -14747,14 +14753,14 @@
     </row>
     <row r="492" spans="1:10" ht="13">
       <c r="A492" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B492" s="22">
         <v>96</v>
       </c>
       <c r="C492" s="23"/>
       <c r="D492" s="21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E492" s="23"/>
       <c r="G492" s="24"/>
@@ -14762,30 +14768,30 @@
     </row>
     <row r="493" spans="1:10" ht="13">
       <c r="A493" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B493" s="22">
         <v>97</v>
       </c>
       <c r="C493" s="23"/>
       <c r="D493" s="21" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E493" s="23"/>
       <c r="F493" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G493" s="53" t="s">
+        <v>909</v>
+      </c>
+      <c r="H493" s="51" t="s">
         <v>910</v>
-      </c>
-      <c r="H493" s="51" t="s">
-        <v>911</v>
       </c>
       <c r="I493" s="25"/>
     </row>
     <row r="494" spans="1:10" ht="13">
       <c r="A494" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B494" s="22">
         <v>98</v>
@@ -14794,23 +14800,23 @@
         <v>34</v>
       </c>
       <c r="D494" s="21" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E494" s="23"/>
       <c r="F494" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G494" s="57" t="s">
+        <v>912</v>
+      </c>
+      <c r="H494" s="62" t="s">
         <v>913</v>
-      </c>
-      <c r="H494" s="62" t="s">
-        <v>914</v>
       </c>
       <c r="I494" s="25"/>
     </row>
     <row r="495" spans="1:10" ht="15">
       <c r="A495" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B495" s="22">
         <v>99</v>
@@ -14824,16 +14830,16 @@
         <v>141</v>
       </c>
       <c r="G495" s="54" t="s">
+        <v>914</v>
+      </c>
+      <c r="H495" s="52" t="s">
         <v>915</v>
-      </c>
-      <c r="H495" s="52" t="s">
-        <v>916</v>
       </c>
       <c r="I495" s="25"/>
     </row>
     <row r="496" spans="1:10" ht="13">
       <c r="A496" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B496" s="22">
         <v>100</v>
@@ -14847,32 +14853,32 @@
         <v>141</v>
       </c>
       <c r="G496" s="66" t="s">
+        <v>916</v>
+      </c>
+      <c r="H496" s="26" t="s">
         <v>917</v>
-      </c>
-      <c r="H496" s="26" t="s">
-        <v>918</v>
       </c>
       <c r="I496" s="25"/>
     </row>
     <row r="497" spans="1:10" ht="13">
       <c r="A497" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B497" s="22">
         <v>101</v>
       </c>
       <c r="C497" s="23"/>
       <c r="D497" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="E497" s="28" t="s">
         <v>919</v>
-      </c>
-      <c r="E497" s="28" t="s">
-        <v>920</v>
       </c>
       <c r="F497" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G497" s="53" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H497" s="51"/>
       <c r="I497" s="25"/>
@@ -14880,16 +14886,16 @@
     </row>
     <row r="498" spans="1:10" ht="13">
       <c r="A498" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B498" s="22">
         <v>102</v>
       </c>
       <c r="C498" s="29" t="s">
+        <v>921</v>
+      </c>
+      <c r="D498" s="21" t="s">
         <v>922</v>
-      </c>
-      <c r="D498" s="21" t="s">
-        <v>923</v>
       </c>
       <c r="E498" s="23"/>
       <c r="G498" s="24"/>
@@ -14897,16 +14903,16 @@
     </row>
     <row r="499" spans="1:10" ht="13">
       <c r="A499" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B499" s="22">
         <v>103</v>
       </c>
       <c r="C499" s="29" t="s">
+        <v>923</v>
+      </c>
+      <c r="D499" s="21" t="s">
         <v>924</v>
-      </c>
-      <c r="D499" s="21" t="s">
-        <v>925</v>
       </c>
       <c r="E499" s="23"/>
       <c r="G499" s="24"/>
@@ -14914,7 +14920,7 @@
     </row>
     <row r="500" spans="1:10" ht="13">
       <c r="A500" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B500" s="22">
         <v>104</v>
@@ -14931,13 +14937,13 @@
       </c>
       <c r="G500" s="24"/>
       <c r="H500" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I500" s="25"/>
     </row>
     <row r="501" spans="1:10" ht="13">
       <c r="A501" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B501" s="22">
         <v>105</v>
@@ -14948,22 +14954,22 @@
       </c>
       <c r="E501" s="23"/>
       <c r="F501" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G501" s="24"/>
       <c r="H501" s="26" t="s">
+        <v>926</v>
+      </c>
+      <c r="I501" s="30" t="s">
         <v>927</v>
       </c>
-      <c r="I501" s="30" t="s">
+      <c r="J501" s="26" t="s">
         <v>928</v>
-      </c>
-      <c r="J501" s="26" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="502" spans="1:10" ht="13">
       <c r="A502" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B502" s="22">
         <v>106</v>
@@ -14972,75 +14978,75 @@
         <v>95</v>
       </c>
       <c r="D502" s="21" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E502" s="23"/>
       <c r="F502" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G502" s="55" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I502" s="25"/>
       <c r="J502" s="69" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="503" spans="1:10" ht="13">
       <c r="A503" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B503" s="22">
         <v>107</v>
       </c>
       <c r="C503" s="29" t="s">
+        <v>931</v>
+      </c>
+      <c r="D503" s="21" t="s">
         <v>932</v>
-      </c>
-      <c r="D503" s="21" t="s">
-        <v>933</v>
       </c>
       <c r="E503" s="23"/>
       <c r="F503" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G503" s="82" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I503" s="70" t="s">
+        <v>933</v>
+      </c>
+      <c r="J503" s="71" t="s">
         <v>934</v>
-      </c>
-      <c r="J503" s="71" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="504" spans="1:10" ht="13">
       <c r="A504" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B504" s="22">
         <v>108</v>
       </c>
       <c r="C504" s="23"/>
       <c r="D504" s="21" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E504" s="23"/>
       <c r="F504" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G504" s="82" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I504" s="72" t="s">
+        <v>936</v>
+      </c>
+      <c r="J504" s="6" t="s">
         <v>937</v>
-      </c>
-      <c r="J504" s="6" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="505" spans="1:10" ht="13">
       <c r="A505" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B505" s="22">
         <v>109</v>
@@ -15053,28 +15059,28 @@
       </c>
       <c r="E505" s="23"/>
       <c r="F505" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G505" s="24"/>
       <c r="H505" s="26" t="s">
+        <v>938</v>
+      </c>
+      <c r="I505" s="70" t="s">
         <v>939</v>
       </c>
-      <c r="I505" s="70" t="s">
+      <c r="J505" s="26" t="s">
         <v>940</v>
-      </c>
-      <c r="J505" s="26" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="506" spans="1:10" ht="13">
       <c r="A506" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B506" s="22">
         <v>110</v>
       </c>
       <c r="C506" s="29" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D506" s="21" t="s">
         <v>20</v>
@@ -15084,16 +15090,16 @@
         <v>141</v>
       </c>
       <c r="G506" s="27" t="s">
+        <v>942</v>
+      </c>
+      <c r="H506" s="26" t="s">
         <v>943</v>
-      </c>
-      <c r="H506" s="26" t="s">
-        <v>944</v>
       </c>
       <c r="I506" s="25"/>
     </row>
     <row r="507" spans="1:10" ht="13">
       <c r="A507" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B507" s="22">
         <v>111</v>
@@ -15106,22 +15112,22 @@
       </c>
       <c r="E507" s="23"/>
       <c r="F507" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G507" s="24"/>
       <c r="H507" s="26" t="s">
+        <v>944</v>
+      </c>
+      <c r="I507" s="73" t="s">
         <v>945</v>
       </c>
-      <c r="I507" s="73" t="s">
+      <c r="J507" s="74" t="s">
         <v>946</v>
-      </c>
-      <c r="J507" s="74" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="508" spans="1:10" ht="13">
       <c r="A508" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B508" s="22">
         <v>112</v>
@@ -15130,23 +15136,23 @@
         <v>34</v>
       </c>
       <c r="D508" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E508" s="23"/>
       <c r="F508" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G508" s="75" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I508" s="25"/>
       <c r="J508" s="26" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="509" spans="1:10" ht="13">
       <c r="A509" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B509" s="22">
         <v>113</v>
@@ -15157,43 +15163,43 @@
       </c>
       <c r="E509" s="23"/>
       <c r="F509" s="26" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G509" s="24"/>
       <c r="H509" s="26" t="s">
+        <v>951</v>
+      </c>
+      <c r="I509" s="73" t="s">
         <v>952</v>
       </c>
-      <c r="I509" s="73" t="s">
+      <c r="J509" s="74" t="s">
         <v>953</v>
-      </c>
-      <c r="J509" s="74" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="510" spans="1:10" ht="13">
       <c r="A510" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B510" s="22">
         <v>114</v>
       </c>
       <c r="C510" s="23"/>
       <c r="D510" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E510" s="23"/>
       <c r="F510" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G510" s="24"/>
       <c r="I510" s="25"/>
       <c r="J510" s="26" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="511" spans="1:10" ht="13">
       <c r="A511" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B511" s="22">
         <v>115</v>
@@ -15208,39 +15214,39 @@
       </c>
       <c r="G511" s="24"/>
       <c r="H511" s="26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I511" s="25"/>
     </row>
     <row r="512" spans="1:10" ht="13">
       <c r="A512" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B512" s="22">
         <v>116</v>
       </c>
       <c r="C512" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D512" s="21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E512" s="23"/>
       <c r="F512" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G512" s="24"/>
       <c r="H512" s="74"/>
       <c r="I512" s="59" t="s">
+        <v>958</v>
+      </c>
+      <c r="J512" s="26" t="s">
         <v>959</v>
-      </c>
-      <c r="J512" s="26" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="513" spans="1:10" ht="13">
       <c r="A513" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B513" s="22">
         <v>117</v>
@@ -15251,22 +15257,22 @@
       </c>
       <c r="E513" s="23"/>
       <c r="F513" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G513" s="24"/>
       <c r="H513" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="I513" s="76" t="s">
         <v>961</v>
       </c>
-      <c r="I513" s="76" t="s">
+      <c r="J513" s="74" t="s">
         <v>962</v>
-      </c>
-      <c r="J513" s="74" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="514" spans="1:10" ht="13">
       <c r="A514" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B514" s="22">
         <v>118</v>
@@ -15277,24 +15283,24 @@
       </c>
       <c r="E514" s="23"/>
       <c r="F514" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G514" s="82" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H514" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="I514" s="77" t="s">
         <v>964</v>
       </c>
-      <c r="I514" s="77" t="s">
+      <c r="J514" s="74" t="s">
         <v>965</v>
-      </c>
-      <c r="J514" s="74" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="515" spans="1:10" ht="13">
       <c r="A515" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B515" s="22">
         <v>119</v>
@@ -15305,47 +15311,47 @@
       </c>
       <c r="E515" s="23"/>
       <c r="F515" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G515" s="24"/>
       <c r="H515" s="26" t="s">
+        <v>966</v>
+      </c>
+      <c r="I515" s="72" t="s">
         <v>967</v>
       </c>
-      <c r="I515" s="72" t="s">
+      <c r="J515" s="78" t="s">
         <v>968</v>
-      </c>
-      <c r="J515" s="78" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="516" spans="1:10" ht="13">
       <c r="A516" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B516" s="22">
         <v>120</v>
       </c>
       <c r="C516" s="23"/>
       <c r="D516" s="21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E516" s="23"/>
       <c r="F516" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="G516" s="82" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I516" s="41" t="s">
         <v>971</v>
       </c>
-      <c r="G516" s="82" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I516" s="41" t="s">
+      <c r="J516" s="79" t="s">
         <v>972</v>
-      </c>
-      <c r="J516" s="79" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="15">
       <c r="A517" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B517" s="22">
         <v>121</v>
@@ -15359,10 +15365,10 @@
         <v>141</v>
       </c>
       <c r="G517" s="43" t="s">
+        <v>973</v>
+      </c>
+      <c r="H517" s="52" t="s">
         <v>974</v>
-      </c>
-      <c r="H517" s="52" t="s">
-        <v>975</v>
       </c>
       <c r="I517" s="25"/>
       <c r="J517" s="41" t="s">
@@ -15371,24 +15377,24 @@
     </row>
     <row r="518" spans="1:10" ht="15">
       <c r="A518" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B518" s="22">
         <v>122</v>
       </c>
       <c r="C518" s="23"/>
       <c r="D518" s="21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E518" s="23"/>
       <c r="F518" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G518" s="43" t="s">
+        <v>976</v>
+      </c>
+      <c r="H518" s="61" t="s">
         <v>977</v>
-      </c>
-      <c r="H518" s="61" t="s">
-        <v>978</v>
       </c>
       <c r="I518" s="25"/>
       <c r="J518" s="41" t="s">
@@ -15397,7 +15403,7 @@
     </row>
     <row r="519" spans="1:10" ht="13">
       <c r="A519" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B519" s="22">
         <v>123</v>
@@ -15411,23 +15417,23 @@
         <v>141</v>
       </c>
       <c r="G519" s="57" t="s">
+        <v>978</v>
+      </c>
+      <c r="H519" s="51" t="s">
         <v>979</v>
-      </c>
-      <c r="H519" s="51" t="s">
-        <v>980</v>
       </c>
       <c r="I519" s="25"/>
       <c r="J519" s="41"/>
     </row>
     <row r="520" spans="1:10" ht="13">
       <c r="A520" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B520" s="22">
         <v>124</v>
       </c>
       <c r="C520" s="29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D520" s="21" t="s">
         <v>20</v>
@@ -15437,16 +15443,16 @@
         <v>141</v>
       </c>
       <c r="G520" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="H520" s="26" t="s">
         <v>981</v>
-      </c>
-      <c r="H520" s="26" t="s">
-        <v>982</v>
       </c>
       <c r="I520" s="25"/>
     </row>
     <row r="521" spans="1:10" ht="13">
       <c r="A521" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B521" s="22">
         <v>125</v>
@@ -15461,13 +15467,13 @@
       </c>
       <c r="G521" s="24"/>
       <c r="H521" s="26" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I521" s="25"/>
     </row>
     <row r="522" spans="1:10" ht="13">
       <c r="A522" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B522" s="22">
         <v>126</v>
@@ -15483,80 +15489,80 @@
         <v>141</v>
       </c>
       <c r="G522" s="27" t="s">
+        <v>983</v>
+      </c>
+      <c r="H522" s="26" t="s">
         <v>984</v>
-      </c>
-      <c r="H522" s="26" t="s">
-        <v>985</v>
       </c>
       <c r="I522" s="25"/>
     </row>
     <row r="523" spans="1:10" ht="13">
       <c r="A523" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B523" s="22">
         <v>127</v>
       </c>
       <c r="C523" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D523" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E523" s="23"/>
       <c r="F523" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G523" s="82" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I523" s="25"/>
       <c r="J523" s="69" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="524" spans="1:10" ht="13">
       <c r="A524" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B524" s="22">
         <v>128</v>
       </c>
       <c r="C524" s="29" t="s">
+        <v>987</v>
+      </c>
+      <c r="D524" s="21" t="s">
         <v>988</v>
-      </c>
-      <c r="D524" s="21" t="s">
-        <v>989</v>
       </c>
       <c r="E524" s="23"/>
       <c r="F524" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G524" s="35" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I524" s="25"/>
       <c r="J524" s="26" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="525" spans="1:10" ht="13">
       <c r="A525" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B525" s="22">
         <v>129</v>
       </c>
       <c r="C525" s="23"/>
       <c r="D525" s="21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E525" s="23"/>
       <c r="F525" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G525" s="35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I525" s="25"/>
       <c r="J525" s="41" t="s">
@@ -15565,7 +15571,7 @@
     </row>
     <row r="526" spans="1:10" ht="13">
       <c r="A526" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B526" s="22">
         <v>130</v>
@@ -15580,81 +15586,81 @@
       </c>
       <c r="G526" s="24"/>
       <c r="H526" s="26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I526" s="25"/>
     </row>
     <row r="527" spans="1:10" ht="13">
       <c r="A527" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B527" s="22">
         <v>131</v>
       </c>
       <c r="C527" s="29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D527" s="21" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E527" s="23"/>
       <c r="F527" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G527" s="24"/>
       <c r="I527" s="30" t="s">
+        <v>995</v>
+      </c>
+      <c r="J527" s="26" t="s">
         <v>996</v>
-      </c>
-      <c r="J527" s="26" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="528" spans="1:10" ht="13">
       <c r="A528" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B528" s="22">
         <v>132</v>
       </c>
       <c r="C528" s="23"/>
       <c r="D528" s="21" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E528" s="23"/>
       <c r="F528" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G528" s="55" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I528" s="25"/>
     </row>
     <row r="529" spans="1:10" ht="13">
       <c r="A529" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B529" s="22">
         <v>133</v>
       </c>
       <c r="C529" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D529" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E529" s="23"/>
       <c r="F529" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G529" s="80" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H529" s="26" t="s">
         <v>1001</v>
-      </c>
-      <c r="H529" s="26" t="s">
-        <v>1002</v>
       </c>
       <c r="I529" s="25"/>
       <c r="J529" s="71" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="530" spans="1:10" ht="13">
